--- a/要件ex_テスト/要件ex_問題番号の訂正,最終画面への遷移の修正_単体テスト仕様書.xlsx
+++ b/要件ex_テスト/要件ex_問題番号の訂正,最終画面への遷移の修正_単体テスト仕様書.xlsx
@@ -8,21 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\B010163\Documents\quizsheet\要件ex_テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1C6CDC5-EA3F-4B1C-B6FF-8EACED9AA7A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70E58D20-B985-4369-A2FD-A466CE4C98C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="改版履歴" sheetId="12" r:id="rId1"/>
-    <sheet name="表紙" sheetId="6" r:id="rId2"/>
-    <sheet name="単体テスト仕様書" sheetId="8" r:id="rId3"/>
-    <sheet name="マトリクス" sheetId="10" state="hidden" r:id="rId4"/>
-    <sheet name="マトリクス(記入例)" sheetId="11" state="hidden" r:id="rId5"/>
+    <sheet name="表紙" sheetId="6" r:id="rId1"/>
+    <sheet name="単体テスト仕様書" sheetId="8" r:id="rId2"/>
+    <sheet name="マトリクス" sheetId="10" state="hidden" r:id="rId3"/>
+    <sheet name="マトリクス(記入例)" sheetId="11" state="hidden" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Titles" localSheetId="3">マトリクス!$1:$8</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="4">'マトリクス(記入例)'!$1:$8</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="2">単体テスト仕様書!$1:$6</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="2">マトリクス!$1:$8</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="3">'マトリクス(記入例)'!$1:$8</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="1">単体テスト仕様書!$1:$6</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -45,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="105">
   <si>
     <t>版数</t>
     <rPh sb="0" eb="2">
@@ -54,30 +53,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>日付</t>
-    <rPh sb="0" eb="2">
-      <t>ヒヅケ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>頁</t>
-    <rPh sb="0" eb="1">
-      <t>ページ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>改訂内容</t>
-    <rPh sb="0" eb="2">
-      <t>カイテイ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ナイヨウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>承認</t>
     <rPh sb="0" eb="2">
       <t>ショウニン</t>
@@ -104,88 +79,6 @@
   </si>
   <si>
     <t>-</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>新規作成</t>
-    <rPh sb="0" eb="2">
-      <t>シンキ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>サクセイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>16/02/03
-高橋L</t>
-    <rPh sb="9" eb="11">
-      <t>タカハシ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>16/02/03
-加藤</t>
-    <rPh sb="9" eb="11">
-      <t>カトウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>改版履歴シートを追加</t>
-    <rPh sb="0" eb="2">
-      <t>カイハン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>リレキ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ツイカ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>18/08/01
-嘉手苅L</t>
-    <rPh sb="9" eb="12">
-      <t>カデカル</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>18/07/31
-工藤</t>
-    <rPh sb="9" eb="11">
-      <t>クドウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>単体テスト仕様書</t>
-    <rPh sb="0" eb="2">
-      <t>タンタイ</t>
-    </rPh>
-    <rPh sb="5" eb="8">
-      <t>シヨウショ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>文書番号</t>
-    <rPh sb="0" eb="2">
-      <t>ブンショ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>バンゴウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ITｿ事-KOSMOS-ST-401</t>
-    <rPh sb="3" eb="4">
-      <t>ジ</t>
-    </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -606,17 +499,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>QuizSheet
-単体テスト仕様書</t>
-    <rPh sb="10" eb="12">
-      <t>タンタイ</t>
-    </rPh>
-    <rPh sb="15" eb="18">
-      <t>シヨウショ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>QuizSheet</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -627,16 +509,6 @@
     </rPh>
     <rPh sb="2" eb="6">
       <t>シュツダイガメン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>最終結果画面への遷移</t>
-    <rPh sb="0" eb="6">
-      <t>サイシュウケッカガメン</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>センイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -848,13 +720,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>出題設定を以下のように設定する
-・対象問題：Associate Reactive 過去問
-・カテゴリ：全て選択
-・問題数　：11問
-・出題順　：ランダム</t>
-  </si>
-  <si>
     <t>問題画面の左上が問題番号になっているか</t>
     <rPh sb="0" eb="2">
       <t>モンダイ</t>
@@ -985,6 +850,63 @@
     </rPh>
     <rPh sb="34" eb="36">
       <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>No.1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>No.2</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>No.3</t>
+  </si>
+  <si>
+    <t>No.4</t>
+  </si>
+  <si>
+    <t>No.5</t>
+  </si>
+  <si>
+    <t>No.6</t>
+  </si>
+  <si>
+    <t>最終結果画面への遷移・問題番号表示</t>
+    <rPh sb="0" eb="4">
+      <t>サイシュウケッカ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="11" eb="17">
+      <t>モンダイバンゴウヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>QuizSheet改修(要件ex)
+単体テスト仕様書</t>
+    <rPh sb="9" eb="11">
+      <t>カイシュウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヨウケン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>タンタイ</t>
+    </rPh>
+    <rPh sb="23" eb="26">
+      <t>シヨウショ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -997,7 +919,7 @@
     <numFmt numFmtId="176" formatCode="0_ "/>
     <numFmt numFmtId="177" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -1083,30 +1005,6 @@
     <font>
       <sz val="8"/>
       <color indexed="23"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="ＭＳ ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="ＭＳ ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <name val="ＭＳ ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="14"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
@@ -2149,14 +2047,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="184">
+  <cellXfs count="155">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2274,87 +2171,6 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="38" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="38" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="14" fillId="0" borderId="38" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="38" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="38" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2469,23 +2285,77 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="177" fontId="4" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2493,12 +2363,6 @@
     <xf numFmtId="177" fontId="4" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
@@ -2511,46 +2375,10 @@
     <xf numFmtId="14" fontId="5" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2592,18 +2420,6 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2680,9 +2496,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準_KSS-07-03機能グループミーティングAIシート" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="標準_差込み分" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3118,843 +2933,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W25"/>
-  <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection sqref="A1:B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="4.1796875" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="16384" width="4.1796875" style="48"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:23" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="75" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="47" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="75" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75"/>
-      <c r="K1" s="75"/>
-      <c r="L1" s="75"/>
-      <c r="M1" s="75"/>
-      <c r="N1" s="75"/>
-      <c r="O1" s="75"/>
-      <c r="P1" s="75"/>
-      <c r="Q1" s="75"/>
-      <c r="R1" s="75" t="s">
-        <v>4</v>
-      </c>
-      <c r="S1" s="75"/>
-      <c r="T1" s="75" t="s">
-        <v>5</v>
-      </c>
-      <c r="U1" s="75"/>
-      <c r="V1" s="75" t="s">
-        <v>6</v>
-      </c>
-      <c r="W1" s="75"/>
-    </row>
-    <row r="2" spans="1:23" s="50" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="71" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="72">
-        <v>42403</v>
-      </c>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="49" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="73" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" s="73"/>
-      <c r="I2" s="73"/>
-      <c r="J2" s="73"/>
-      <c r="K2" s="73"/>
-      <c r="L2" s="73"/>
-      <c r="M2" s="73"/>
-      <c r="N2" s="73"/>
-      <c r="O2" s="73"/>
-      <c r="P2" s="73"/>
-      <c r="Q2" s="73"/>
-      <c r="R2" s="74" t="s">
-        <v>10</v>
-      </c>
-      <c r="S2" s="74"/>
-      <c r="T2" s="74" t="s">
-        <v>8</v>
-      </c>
-      <c r="U2" s="74"/>
-      <c r="V2" s="74" t="s">
-        <v>11</v>
-      </c>
-      <c r="W2" s="74"/>
-    </row>
-    <row r="3" spans="1:23" s="51" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="71">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="B3" s="71"/>
-      <c r="C3" s="72">
-        <v>43313</v>
-      </c>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="49" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="73" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="73"/>
-      <c r="K3" s="73"/>
-      <c r="L3" s="73"/>
-      <c r="M3" s="73"/>
-      <c r="N3" s="73"/>
-      <c r="O3" s="73"/>
-      <c r="P3" s="73"/>
-      <c r="Q3" s="73"/>
-      <c r="R3" s="74" t="s">
-        <v>13</v>
-      </c>
-      <c r="S3" s="74"/>
-      <c r="T3" s="74" t="s">
-        <v>8</v>
-      </c>
-      <c r="U3" s="74"/>
-      <c r="V3" s="74" t="s">
-        <v>14</v>
-      </c>
-      <c r="W3" s="74"/>
-    </row>
-    <row r="4" spans="1:23" s="51" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="71"/>
-      <c r="B4" s="71"/>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="73"/>
-      <c r="K4" s="73"/>
-      <c r="L4" s="73"/>
-      <c r="M4" s="73"/>
-      <c r="N4" s="73"/>
-      <c r="O4" s="73"/>
-      <c r="P4" s="73"/>
-      <c r="Q4" s="73"/>
-      <c r="R4" s="74"/>
-      <c r="S4" s="74"/>
-      <c r="T4" s="74"/>
-      <c r="U4" s="74"/>
-      <c r="V4" s="74"/>
-      <c r="W4" s="74"/>
-    </row>
-    <row r="5" spans="1:23" s="52" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="71"/>
-      <c r="B5" s="71"/>
-      <c r="C5" s="72"/>
-      <c r="D5" s="72"/>
-      <c r="E5" s="72"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="73"/>
-      <c r="H5" s="73"/>
-      <c r="I5" s="73"/>
-      <c r="J5" s="73"/>
-      <c r="K5" s="73"/>
-      <c r="L5" s="73"/>
-      <c r="M5" s="73"/>
-      <c r="N5" s="73"/>
-      <c r="O5" s="73"/>
-      <c r="P5" s="73"/>
-      <c r="Q5" s="73"/>
-      <c r="R5" s="74"/>
-      <c r="S5" s="74"/>
-      <c r="T5" s="74"/>
-      <c r="U5" s="74"/>
-      <c r="V5" s="74"/>
-      <c r="W5" s="74"/>
-    </row>
-    <row r="6" spans="1:23" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="71"/>
-      <c r="B6" s="71"/>
-      <c r="C6" s="72"/>
-      <c r="D6" s="72"/>
-      <c r="E6" s="72"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="73"/>
-      <c r="H6" s="73"/>
-      <c r="I6" s="73"/>
-      <c r="J6" s="73"/>
-      <c r="K6" s="73"/>
-      <c r="L6" s="73"/>
-      <c r="M6" s="73"/>
-      <c r="N6" s="73"/>
-      <c r="O6" s="73"/>
-      <c r="P6" s="73"/>
-      <c r="Q6" s="73"/>
-      <c r="R6" s="74"/>
-      <c r="S6" s="74"/>
-      <c r="T6" s="74"/>
-      <c r="U6" s="74"/>
-      <c r="V6" s="74"/>
-      <c r="W6" s="74"/>
-    </row>
-    <row r="7" spans="1:23" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="71"/>
-      <c r="B7" s="71"/>
-      <c r="C7" s="72"/>
-      <c r="D7" s="72"/>
-      <c r="E7" s="72"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="73"/>
-      <c r="H7" s="73"/>
-      <c r="I7" s="73"/>
-      <c r="J7" s="73"/>
-      <c r="K7" s="73"/>
-      <c r="L7" s="73"/>
-      <c r="M7" s="73"/>
-      <c r="N7" s="73"/>
-      <c r="O7" s="73"/>
-      <c r="P7" s="73"/>
-      <c r="Q7" s="73"/>
-      <c r="R7" s="74"/>
-      <c r="S7" s="74"/>
-      <c r="T7" s="74"/>
-      <c r="U7" s="74"/>
-      <c r="V7" s="74"/>
-      <c r="W7" s="74"/>
-    </row>
-    <row r="8" spans="1:23" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="71"/>
-      <c r="B8" s="71"/>
-      <c r="C8" s="72"/>
-      <c r="D8" s="72"/>
-      <c r="E8" s="72"/>
-      <c r="F8" s="49"/>
-      <c r="G8" s="73"/>
-      <c r="H8" s="73"/>
-      <c r="I8" s="73"/>
-      <c r="J8" s="73"/>
-      <c r="K8" s="73"/>
-      <c r="L8" s="73"/>
-      <c r="M8" s="73"/>
-      <c r="N8" s="73"/>
-      <c r="O8" s="73"/>
-      <c r="P8" s="73"/>
-      <c r="Q8" s="73"/>
-      <c r="R8" s="74"/>
-      <c r="S8" s="74"/>
-      <c r="T8" s="74"/>
-      <c r="U8" s="74"/>
-      <c r="V8" s="74"/>
-      <c r="W8" s="74"/>
-    </row>
-    <row r="9" spans="1:23" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="71"/>
-      <c r="B9" s="71"/>
-      <c r="C9" s="72"/>
-      <c r="D9" s="72"/>
-      <c r="E9" s="72"/>
-      <c r="F9" s="49"/>
-      <c r="G9" s="73"/>
-      <c r="H9" s="73"/>
-      <c r="I9" s="73"/>
-      <c r="J9" s="73"/>
-      <c r="K9" s="73"/>
-      <c r="L9" s="73"/>
-      <c r="M9" s="73"/>
-      <c r="N9" s="73"/>
-      <c r="O9" s="73"/>
-      <c r="P9" s="73"/>
-      <c r="Q9" s="73"/>
-      <c r="R9" s="74"/>
-      <c r="S9" s="74"/>
-      <c r="T9" s="74"/>
-      <c r="U9" s="74"/>
-      <c r="V9" s="74"/>
-      <c r="W9" s="74"/>
-    </row>
-    <row r="10" spans="1:23" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="71"/>
-      <c r="B10" s="71"/>
-      <c r="C10" s="72"/>
-      <c r="D10" s="72"/>
-      <c r="E10" s="72"/>
-      <c r="F10" s="49"/>
-      <c r="G10" s="73"/>
-      <c r="H10" s="73"/>
-      <c r="I10" s="73"/>
-      <c r="J10" s="73"/>
-      <c r="K10" s="73"/>
-      <c r="L10" s="73"/>
-      <c r="M10" s="73"/>
-      <c r="N10" s="73"/>
-      <c r="O10" s="73"/>
-      <c r="P10" s="73"/>
-      <c r="Q10" s="73"/>
-      <c r="R10" s="74"/>
-      <c r="S10" s="74"/>
-      <c r="T10" s="74"/>
-      <c r="U10" s="74"/>
-      <c r="V10" s="74"/>
-      <c r="W10" s="74"/>
-    </row>
-    <row r="11" spans="1:23" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="71"/>
-      <c r="B11" s="71"/>
-      <c r="C11" s="72"/>
-      <c r="D11" s="72"/>
-      <c r="E11" s="72"/>
-      <c r="F11" s="49"/>
-      <c r="G11" s="73"/>
-      <c r="H11" s="73"/>
-      <c r="I11" s="73"/>
-      <c r="J11" s="73"/>
-      <c r="K11" s="73"/>
-      <c r="L11" s="73"/>
-      <c r="M11" s="73"/>
-      <c r="N11" s="73"/>
-      <c r="O11" s="73"/>
-      <c r="P11" s="73"/>
-      <c r="Q11" s="73"/>
-      <c r="R11" s="74"/>
-      <c r="S11" s="74"/>
-      <c r="T11" s="74"/>
-      <c r="U11" s="74"/>
-      <c r="V11" s="74"/>
-      <c r="W11" s="74"/>
-    </row>
-    <row r="12" spans="1:23" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="71"/>
-      <c r="B12" s="71"/>
-      <c r="C12" s="72"/>
-      <c r="D12" s="72"/>
-      <c r="E12" s="72"/>
-      <c r="F12" s="49"/>
-      <c r="G12" s="73"/>
-      <c r="H12" s="73"/>
-      <c r="I12" s="73"/>
-      <c r="J12" s="73"/>
-      <c r="K12" s="73"/>
-      <c r="L12" s="73"/>
-      <c r="M12" s="73"/>
-      <c r="N12" s="73"/>
-      <c r="O12" s="73"/>
-      <c r="P12" s="73"/>
-      <c r="Q12" s="73"/>
-      <c r="R12" s="74"/>
-      <c r="S12" s="74"/>
-      <c r="T12" s="74"/>
-      <c r="U12" s="74"/>
-      <c r="V12" s="74"/>
-      <c r="W12" s="74"/>
-    </row>
-    <row r="13" spans="1:23" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="71"/>
-      <c r="B13" s="71"/>
-      <c r="C13" s="72"/>
-      <c r="D13" s="72"/>
-      <c r="E13" s="72"/>
-      <c r="F13" s="49"/>
-      <c r="G13" s="73"/>
-      <c r="H13" s="73"/>
-      <c r="I13" s="73"/>
-      <c r="J13" s="73"/>
-      <c r="K13" s="73"/>
-      <c r="L13" s="73"/>
-      <c r="M13" s="73"/>
-      <c r="N13" s="73"/>
-      <c r="O13" s="73"/>
-      <c r="P13" s="73"/>
-      <c r="Q13" s="73"/>
-      <c r="R13" s="74"/>
-      <c r="S13" s="74"/>
-      <c r="T13" s="74"/>
-      <c r="U13" s="74"/>
-      <c r="V13" s="74"/>
-      <c r="W13" s="74"/>
-    </row>
-    <row r="14" spans="1:23" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="71"/>
-      <c r="B14" s="71"/>
-      <c r="C14" s="72"/>
-      <c r="D14" s="72"/>
-      <c r="E14" s="72"/>
-      <c r="F14" s="49"/>
-      <c r="G14" s="73"/>
-      <c r="H14" s="73"/>
-      <c r="I14" s="73"/>
-      <c r="J14" s="73"/>
-      <c r="K14" s="73"/>
-      <c r="L14" s="73"/>
-      <c r="M14" s="73"/>
-      <c r="N14" s="73"/>
-      <c r="O14" s="73"/>
-      <c r="P14" s="73"/>
-      <c r="Q14" s="73"/>
-      <c r="R14" s="74"/>
-      <c r="S14" s="74"/>
-      <c r="T14" s="74"/>
-      <c r="U14" s="74"/>
-      <c r="V14" s="74"/>
-      <c r="W14" s="74"/>
-    </row>
-    <row r="15" spans="1:23" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="71"/>
-      <c r="B15" s="71"/>
-      <c r="C15" s="72"/>
-      <c r="D15" s="72"/>
-      <c r="E15" s="72"/>
-      <c r="F15" s="49"/>
-      <c r="G15" s="73"/>
-      <c r="H15" s="73"/>
-      <c r="I15" s="73"/>
-      <c r="J15" s="73"/>
-      <c r="K15" s="73"/>
-      <c r="L15" s="73"/>
-      <c r="M15" s="73"/>
-      <c r="N15" s="73"/>
-      <c r="O15" s="73"/>
-      <c r="P15" s="73"/>
-      <c r="Q15" s="73"/>
-      <c r="R15" s="74"/>
-      <c r="S15" s="74"/>
-      <c r="T15" s="74"/>
-      <c r="U15" s="74"/>
-      <c r="V15" s="74"/>
-      <c r="W15" s="74"/>
-    </row>
-    <row r="16" spans="1:23" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="71"/>
-      <c r="B16" s="71"/>
-      <c r="C16" s="72"/>
-      <c r="D16" s="72"/>
-      <c r="E16" s="72"/>
-      <c r="F16" s="49"/>
-      <c r="G16" s="73"/>
-      <c r="H16" s="73"/>
-      <c r="I16" s="73"/>
-      <c r="J16" s="73"/>
-      <c r="K16" s="73"/>
-      <c r="L16" s="73"/>
-      <c r="M16" s="73"/>
-      <c r="N16" s="73"/>
-      <c r="O16" s="73"/>
-      <c r="P16" s="73"/>
-      <c r="Q16" s="73"/>
-      <c r="R16" s="74"/>
-      <c r="S16" s="74"/>
-      <c r="T16" s="74"/>
-      <c r="U16" s="74"/>
-      <c r="V16" s="74"/>
-      <c r="W16" s="74"/>
-    </row>
-    <row r="17" spans="1:23" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="71"/>
-      <c r="B17" s="71"/>
-      <c r="C17" s="72"/>
-      <c r="D17" s="72"/>
-      <c r="E17" s="72"/>
-      <c r="F17" s="49"/>
-      <c r="G17" s="73"/>
-      <c r="H17" s="73"/>
-      <c r="I17" s="73"/>
-      <c r="J17" s="73"/>
-      <c r="K17" s="73"/>
-      <c r="L17" s="73"/>
-      <c r="M17" s="73"/>
-      <c r="N17" s="73"/>
-      <c r="O17" s="73"/>
-      <c r="P17" s="73"/>
-      <c r="Q17" s="73"/>
-      <c r="R17" s="74"/>
-      <c r="S17" s="74"/>
-      <c r="T17" s="74"/>
-      <c r="U17" s="74"/>
-      <c r="V17" s="74"/>
-      <c r="W17" s="74"/>
-    </row>
-    <row r="18" spans="1:23" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="71"/>
-      <c r="B18" s="71"/>
-      <c r="C18" s="72"/>
-      <c r="D18" s="72"/>
-      <c r="E18" s="72"/>
-      <c r="F18" s="49"/>
-      <c r="G18" s="73"/>
-      <c r="H18" s="73"/>
-      <c r="I18" s="73"/>
-      <c r="J18" s="73"/>
-      <c r="K18" s="73"/>
-      <c r="L18" s="73"/>
-      <c r="M18" s="73"/>
-      <c r="N18" s="73"/>
-      <c r="O18" s="73"/>
-      <c r="P18" s="73"/>
-      <c r="Q18" s="73"/>
-      <c r="R18" s="74"/>
-      <c r="S18" s="74"/>
-      <c r="T18" s="74"/>
-      <c r="U18" s="74"/>
-      <c r="V18" s="74"/>
-      <c r="W18" s="74"/>
-    </row>
-    <row r="19" spans="1:23" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="71"/>
-      <c r="B19" s="71"/>
-      <c r="C19" s="72"/>
-      <c r="D19" s="72"/>
-      <c r="E19" s="72"/>
-      <c r="F19" s="49"/>
-      <c r="G19" s="73"/>
-      <c r="H19" s="73"/>
-      <c r="I19" s="73"/>
-      <c r="J19" s="73"/>
-      <c r="K19" s="73"/>
-      <c r="L19" s="73"/>
-      <c r="M19" s="73"/>
-      <c r="N19" s="73"/>
-      <c r="O19" s="73"/>
-      <c r="P19" s="73"/>
-      <c r="Q19" s="73"/>
-      <c r="R19" s="74"/>
-      <c r="S19" s="74"/>
-      <c r="T19" s="74"/>
-      <c r="U19" s="74"/>
-      <c r="V19" s="74"/>
-      <c r="W19" s="74"/>
-    </row>
-    <row r="20" spans="1:23" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="71"/>
-      <c r="B20" s="71"/>
-      <c r="C20" s="72"/>
-      <c r="D20" s="72"/>
-      <c r="E20" s="72"/>
-      <c r="F20" s="49"/>
-      <c r="G20" s="73"/>
-      <c r="H20" s="73"/>
-      <c r="I20" s="73"/>
-      <c r="J20" s="73"/>
-      <c r="K20" s="73"/>
-      <c r="L20" s="73"/>
-      <c r="M20" s="73"/>
-      <c r="N20" s="73"/>
-      <c r="O20" s="73"/>
-      <c r="P20" s="73"/>
-      <c r="Q20" s="73"/>
-      <c r="R20" s="74"/>
-      <c r="S20" s="74"/>
-      <c r="T20" s="74"/>
-      <c r="U20" s="74"/>
-      <c r="V20" s="74"/>
-      <c r="W20" s="74"/>
-    </row>
-    <row r="21" spans="1:23" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="71"/>
-      <c r="B21" s="71"/>
-      <c r="C21" s="72"/>
-      <c r="D21" s="72"/>
-      <c r="E21" s="72"/>
-      <c r="F21" s="49"/>
-      <c r="G21" s="73"/>
-      <c r="H21" s="73"/>
-      <c r="I21" s="73"/>
-      <c r="J21" s="73"/>
-      <c r="K21" s="73"/>
-      <c r="L21" s="73"/>
-      <c r="M21" s="73"/>
-      <c r="N21" s="73"/>
-      <c r="O21" s="73"/>
-      <c r="P21" s="73"/>
-      <c r="Q21" s="73"/>
-      <c r="R21" s="74"/>
-      <c r="S21" s="74"/>
-      <c r="T21" s="74"/>
-      <c r="U21" s="74"/>
-      <c r="V21" s="74"/>
-      <c r="W21" s="74"/>
-    </row>
-    <row r="22" spans="1:23" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="71"/>
-      <c r="B22" s="71"/>
-      <c r="C22" s="72"/>
-      <c r="D22" s="72"/>
-      <c r="E22" s="72"/>
-      <c r="F22" s="49"/>
-      <c r="G22" s="73"/>
-      <c r="H22" s="73"/>
-      <c r="I22" s="73"/>
-      <c r="J22" s="73"/>
-      <c r="K22" s="73"/>
-      <c r="L22" s="73"/>
-      <c r="M22" s="73"/>
-      <c r="N22" s="73"/>
-      <c r="O22" s="73"/>
-      <c r="P22" s="73"/>
-      <c r="Q22" s="73"/>
-      <c r="R22" s="74"/>
-      <c r="S22" s="74"/>
-      <c r="T22" s="74"/>
-      <c r="U22" s="74"/>
-      <c r="V22" s="74"/>
-      <c r="W22" s="74"/>
-    </row>
-    <row r="23" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B23" s="54"/>
-      <c r="C23" s="54"/>
-      <c r="D23" s="54"/>
-      <c r="E23" s="54"/>
-      <c r="F23" s="54"/>
-      <c r="G23" s="54"/>
-      <c r="H23" s="54"/>
-      <c r="I23" s="54"/>
-      <c r="J23" s="54"/>
-      <c r="K23" s="54"/>
-      <c r="L23" s="54"/>
-      <c r="M23" s="54"/>
-      <c r="N23" s="55"/>
-      <c r="O23" s="62" t="s">
-        <v>16</v>
-      </c>
-      <c r="P23" s="63"/>
-      <c r="Q23" s="63"/>
-      <c r="R23" s="63"/>
-      <c r="S23" s="63"/>
-      <c r="T23" s="63"/>
-      <c r="U23" s="63"/>
-      <c r="V23" s="63"/>
-      <c r="W23" s="64"/>
-    </row>
-    <row r="24" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="56"/>
-      <c r="B24" s="57"/>
-      <c r="C24" s="57"/>
-      <c r="D24" s="57"/>
-      <c r="E24" s="57"/>
-      <c r="F24" s="57"/>
-      <c r="G24" s="57"/>
-      <c r="H24" s="57"/>
-      <c r="I24" s="57"/>
-      <c r="J24" s="57"/>
-      <c r="K24" s="57"/>
-      <c r="L24" s="57"/>
-      <c r="M24" s="57"/>
-      <c r="N24" s="58"/>
-      <c r="O24" s="65" t="s">
-        <v>17</v>
-      </c>
-      <c r="P24" s="66"/>
-      <c r="Q24" s="66"/>
-      <c r="R24" s="66"/>
-      <c r="S24" s="66"/>
-      <c r="T24" s="66"/>
-      <c r="U24" s="66"/>
-      <c r="V24" s="66"/>
-      <c r="W24" s="67"/>
-    </row>
-    <row r="25" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="59"/>
-      <c r="B25" s="60"/>
-      <c r="C25" s="60"/>
-      <c r="D25" s="60"/>
-      <c r="E25" s="60"/>
-      <c r="F25" s="60"/>
-      <c r="G25" s="60"/>
-      <c r="H25" s="60"/>
-      <c r="I25" s="60"/>
-      <c r="J25" s="60"/>
-      <c r="K25" s="60"/>
-      <c r="L25" s="60"/>
-      <c r="M25" s="60"/>
-      <c r="N25" s="61"/>
-      <c r="O25" s="68"/>
-      <c r="P25" s="69"/>
-      <c r="Q25" s="69"/>
-      <c r="R25" s="69"/>
-      <c r="S25" s="69"/>
-      <c r="T25" s="69"/>
-      <c r="U25" s="69"/>
-      <c r="V25" s="69"/>
-      <c r="W25" s="70"/>
-    </row>
-  </sheetData>
-  <mergeCells count="135">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="G1:Q1"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="G3:Q3"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="T3:U3"/>
-    <mergeCell ref="V3:W3"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="G2:Q2"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="T2:U2"/>
-    <mergeCell ref="V2:W2"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="G5:Q5"/>
-    <mergeCell ref="R5:S5"/>
-    <mergeCell ref="T5:U5"/>
-    <mergeCell ref="V5:W5"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="G4:Q4"/>
-    <mergeCell ref="R4:S4"/>
-    <mergeCell ref="T4:U4"/>
-    <mergeCell ref="V4:W4"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="G7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="G6:Q6"/>
-    <mergeCell ref="R6:S6"/>
-    <mergeCell ref="T6:U6"/>
-    <mergeCell ref="V6:W6"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="G9:Q9"/>
-    <mergeCell ref="R9:S9"/>
-    <mergeCell ref="T9:U9"/>
-    <mergeCell ref="V9:W9"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="G8:Q8"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="T8:U8"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:Q11"/>
-    <mergeCell ref="R11:S11"/>
-    <mergeCell ref="T11:U11"/>
-    <mergeCell ref="V11:W11"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:Q10"/>
-    <mergeCell ref="R10:S10"/>
-    <mergeCell ref="T10:U10"/>
-    <mergeCell ref="V10:W10"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:Q13"/>
-    <mergeCell ref="R13:S13"/>
-    <mergeCell ref="T13:U13"/>
-    <mergeCell ref="V13:W13"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:Q12"/>
-    <mergeCell ref="R12:S12"/>
-    <mergeCell ref="T12:U12"/>
-    <mergeCell ref="V12:W12"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:Q15"/>
-    <mergeCell ref="R15:S15"/>
-    <mergeCell ref="T15:U15"/>
-    <mergeCell ref="V15:W15"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:Q14"/>
-    <mergeCell ref="R14:S14"/>
-    <mergeCell ref="T14:U14"/>
-    <mergeCell ref="V14:W14"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="G17:Q17"/>
-    <mergeCell ref="R17:S17"/>
-    <mergeCell ref="T17:U17"/>
-    <mergeCell ref="V17:W17"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:Q16"/>
-    <mergeCell ref="R16:S16"/>
-    <mergeCell ref="T16:U16"/>
-    <mergeCell ref="V16:W16"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="G19:Q19"/>
-    <mergeCell ref="R19:S19"/>
-    <mergeCell ref="T19:U19"/>
-    <mergeCell ref="V19:W19"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="G18:Q18"/>
-    <mergeCell ref="R18:S18"/>
-    <mergeCell ref="T18:U18"/>
-    <mergeCell ref="V18:W18"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="G21:Q21"/>
-    <mergeCell ref="R21:S21"/>
-    <mergeCell ref="T21:U21"/>
-    <mergeCell ref="V21:W21"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="G20:Q20"/>
-    <mergeCell ref="R20:S20"/>
-    <mergeCell ref="T20:U20"/>
-    <mergeCell ref="V20:W20"/>
-    <mergeCell ref="A23:N25"/>
-    <mergeCell ref="O23:W23"/>
-    <mergeCell ref="O24:W25"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="G22:Q22"/>
-    <mergeCell ref="R22:S22"/>
-    <mergeCell ref="T22:U22"/>
-    <mergeCell ref="V22:W22"/>
-  </mergeCells>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.47244094488188981" right="0.47244094488188981" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:AZ42"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="X27" sqref="X27"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="BG11" sqref="BG11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.54296875" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4020,10 +3004,10 @@
       <c r="A2" s="2"/>
       <c r="C2" s="17"/>
       <c r="AS2" s="1" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="AV2" s="1" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="AZ2" s="3"/>
     </row>
@@ -4048,32 +3032,32 @@
     </row>
     <row r="7" spans="1:52" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
-      <c r="O7" s="96" t="s">
-        <v>87</v>
-      </c>
-      <c r="P7" s="97"/>
-      <c r="Q7" s="97"/>
-      <c r="R7" s="97"/>
-      <c r="S7" s="97"/>
-      <c r="T7" s="97"/>
-      <c r="U7" s="97"/>
-      <c r="V7" s="97"/>
-      <c r="W7" s="97"/>
-      <c r="X7" s="97"/>
-      <c r="Y7" s="97"/>
-      <c r="Z7" s="97"/>
-      <c r="AA7" s="97"/>
-      <c r="AB7" s="97"/>
-      <c r="AC7" s="97"/>
-      <c r="AD7" s="97"/>
-      <c r="AE7" s="97"/>
-      <c r="AF7" s="97"/>
-      <c r="AG7" s="97"/>
-      <c r="AH7" s="97"/>
-      <c r="AI7" s="97"/>
-      <c r="AJ7" s="97"/>
-      <c r="AK7" s="97"/>
-      <c r="AL7" s="98"/>
+      <c r="O7" s="67" t="s">
+        <v>104</v>
+      </c>
+      <c r="P7" s="68"/>
+      <c r="Q7" s="68"/>
+      <c r="R7" s="68"/>
+      <c r="S7" s="68"/>
+      <c r="T7" s="68"/>
+      <c r="U7" s="68"/>
+      <c r="V7" s="68"/>
+      <c r="W7" s="68"/>
+      <c r="X7" s="68"/>
+      <c r="Y7" s="68"/>
+      <c r="Z7" s="68"/>
+      <c r="AA7" s="68"/>
+      <c r="AB7" s="68"/>
+      <c r="AC7" s="68"/>
+      <c r="AD7" s="68"/>
+      <c r="AE7" s="68"/>
+      <c r="AF7" s="68"/>
+      <c r="AG7" s="68"/>
+      <c r="AH7" s="68"/>
+      <c r="AI7" s="68"/>
+      <c r="AJ7" s="68"/>
+      <c r="AK7" s="68"/>
+      <c r="AL7" s="69"/>
       <c r="AM7" s="12"/>
       <c r="AN7" s="12"/>
       <c r="AO7" s="12"/>
@@ -4091,30 +3075,30 @@
     </row>
     <row r="8" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
-      <c r="O8" s="99"/>
-      <c r="P8" s="100"/>
-      <c r="Q8" s="100"/>
-      <c r="R8" s="100"/>
-      <c r="S8" s="100"/>
-      <c r="T8" s="100"/>
-      <c r="U8" s="100"/>
-      <c r="V8" s="100"/>
-      <c r="W8" s="100"/>
-      <c r="X8" s="100"/>
-      <c r="Y8" s="100"/>
-      <c r="Z8" s="100"/>
-      <c r="AA8" s="100"/>
-      <c r="AB8" s="100"/>
-      <c r="AC8" s="100"/>
-      <c r="AD8" s="100"/>
-      <c r="AE8" s="100"/>
-      <c r="AF8" s="100"/>
-      <c r="AG8" s="100"/>
-      <c r="AH8" s="100"/>
-      <c r="AI8" s="100"/>
-      <c r="AJ8" s="100"/>
-      <c r="AK8" s="100"/>
-      <c r="AL8" s="101"/>
+      <c r="O8" s="70"/>
+      <c r="P8" s="71"/>
+      <c r="Q8" s="71"/>
+      <c r="R8" s="71"/>
+      <c r="S8" s="71"/>
+      <c r="T8" s="71"/>
+      <c r="U8" s="71"/>
+      <c r="V8" s="71"/>
+      <c r="W8" s="71"/>
+      <c r="X8" s="71"/>
+      <c r="Y8" s="71"/>
+      <c r="Z8" s="71"/>
+      <c r="AA8" s="71"/>
+      <c r="AB8" s="71"/>
+      <c r="AC8" s="71"/>
+      <c r="AD8" s="71"/>
+      <c r="AE8" s="71"/>
+      <c r="AF8" s="71"/>
+      <c r="AG8" s="71"/>
+      <c r="AH8" s="71"/>
+      <c r="AI8" s="71"/>
+      <c r="AJ8" s="71"/>
+      <c r="AK8" s="71"/>
+      <c r="AL8" s="72"/>
       <c r="AM8" s="12"/>
       <c r="AN8" s="12"/>
       <c r="AO8" s="12"/>
@@ -4143,30 +3127,30 @@
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
       <c r="N9" s="9"/>
-      <c r="O9" s="99"/>
-      <c r="P9" s="100"/>
-      <c r="Q9" s="100"/>
-      <c r="R9" s="100"/>
-      <c r="S9" s="100"/>
-      <c r="T9" s="100"/>
-      <c r="U9" s="100"/>
-      <c r="V9" s="100"/>
-      <c r="W9" s="100"/>
-      <c r="X9" s="100"/>
-      <c r="Y9" s="100"/>
-      <c r="Z9" s="100"/>
-      <c r="AA9" s="100"/>
-      <c r="AB9" s="100"/>
-      <c r="AC9" s="100"/>
-      <c r="AD9" s="100"/>
-      <c r="AE9" s="100"/>
-      <c r="AF9" s="100"/>
-      <c r="AG9" s="100"/>
-      <c r="AH9" s="100"/>
-      <c r="AI9" s="100"/>
-      <c r="AJ9" s="100"/>
-      <c r="AK9" s="100"/>
-      <c r="AL9" s="101"/>
+      <c r="O9" s="70"/>
+      <c r="P9" s="71"/>
+      <c r="Q9" s="71"/>
+      <c r="R9" s="71"/>
+      <c r="S9" s="71"/>
+      <c r="T9" s="71"/>
+      <c r="U9" s="71"/>
+      <c r="V9" s="71"/>
+      <c r="W9" s="71"/>
+      <c r="X9" s="71"/>
+      <c r="Y9" s="71"/>
+      <c r="Z9" s="71"/>
+      <c r="AA9" s="71"/>
+      <c r="AB9" s="71"/>
+      <c r="AC9" s="71"/>
+      <c r="AD9" s="71"/>
+      <c r="AE9" s="71"/>
+      <c r="AF9" s="71"/>
+      <c r="AG9" s="71"/>
+      <c r="AH9" s="71"/>
+      <c r="AI9" s="71"/>
+      <c r="AJ9" s="71"/>
+      <c r="AK9" s="71"/>
+      <c r="AL9" s="72"/>
       <c r="AM9" s="12"/>
       <c r="AN9" s="12"/>
       <c r="AO9" s="12"/>
@@ -4193,30 +3177,30 @@
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
       <c r="N10" s="9"/>
-      <c r="O10" s="99"/>
-      <c r="P10" s="100"/>
-      <c r="Q10" s="100"/>
-      <c r="R10" s="100"/>
-      <c r="S10" s="100"/>
-      <c r="T10" s="100"/>
-      <c r="U10" s="100"/>
-      <c r="V10" s="100"/>
-      <c r="W10" s="100"/>
-      <c r="X10" s="100"/>
-      <c r="Y10" s="100"/>
-      <c r="Z10" s="100"/>
-      <c r="AA10" s="100"/>
-      <c r="AB10" s="100"/>
-      <c r="AC10" s="100"/>
-      <c r="AD10" s="100"/>
-      <c r="AE10" s="100"/>
-      <c r="AF10" s="100"/>
-      <c r="AG10" s="100"/>
-      <c r="AH10" s="100"/>
-      <c r="AI10" s="100"/>
-      <c r="AJ10" s="100"/>
-      <c r="AK10" s="100"/>
-      <c r="AL10" s="101"/>
+      <c r="O10" s="70"/>
+      <c r="P10" s="71"/>
+      <c r="Q10" s="71"/>
+      <c r="R10" s="71"/>
+      <c r="S10" s="71"/>
+      <c r="T10" s="71"/>
+      <c r="U10" s="71"/>
+      <c r="V10" s="71"/>
+      <c r="W10" s="71"/>
+      <c r="X10" s="71"/>
+      <c r="Y10" s="71"/>
+      <c r="Z10" s="71"/>
+      <c r="AA10" s="71"/>
+      <c r="AB10" s="71"/>
+      <c r="AC10" s="71"/>
+      <c r="AD10" s="71"/>
+      <c r="AE10" s="71"/>
+      <c r="AF10" s="71"/>
+      <c r="AG10" s="71"/>
+      <c r="AH10" s="71"/>
+      <c r="AI10" s="71"/>
+      <c r="AJ10" s="71"/>
+      <c r="AK10" s="71"/>
+      <c r="AL10" s="72"/>
       <c r="AM10" s="12"/>
       <c r="AN10" s="12"/>
       <c r="AO10" s="12"/>
@@ -4243,30 +3227,30 @@
       <c r="L11" s="10"/>
       <c r="M11" s="10"/>
       <c r="N11" s="10"/>
-      <c r="O11" s="99"/>
-      <c r="P11" s="100"/>
-      <c r="Q11" s="100"/>
-      <c r="R11" s="100"/>
-      <c r="S11" s="100"/>
-      <c r="T11" s="100"/>
-      <c r="U11" s="100"/>
-      <c r="V11" s="100"/>
-      <c r="W11" s="100"/>
-      <c r="X11" s="100"/>
-      <c r="Y11" s="100"/>
-      <c r="Z11" s="100"/>
-      <c r="AA11" s="100"/>
-      <c r="AB11" s="100"/>
-      <c r="AC11" s="100"/>
-      <c r="AD11" s="100"/>
-      <c r="AE11" s="100"/>
-      <c r="AF11" s="100"/>
-      <c r="AG11" s="100"/>
-      <c r="AH11" s="100"/>
-      <c r="AI11" s="100"/>
-      <c r="AJ11" s="100"/>
-      <c r="AK11" s="100"/>
-      <c r="AL11" s="101"/>
+      <c r="O11" s="70"/>
+      <c r="P11" s="71"/>
+      <c r="Q11" s="71"/>
+      <c r="R11" s="71"/>
+      <c r="S11" s="71"/>
+      <c r="T11" s="71"/>
+      <c r="U11" s="71"/>
+      <c r="V11" s="71"/>
+      <c r="W11" s="71"/>
+      <c r="X11" s="71"/>
+      <c r="Y11" s="71"/>
+      <c r="Z11" s="71"/>
+      <c r="AA11" s="71"/>
+      <c r="AB11" s="71"/>
+      <c r="AC11" s="71"/>
+      <c r="AD11" s="71"/>
+      <c r="AE11" s="71"/>
+      <c r="AF11" s="71"/>
+      <c r="AG11" s="71"/>
+      <c r="AH11" s="71"/>
+      <c r="AI11" s="71"/>
+      <c r="AJ11" s="71"/>
+      <c r="AK11" s="71"/>
+      <c r="AL11" s="72"/>
       <c r="AM11" s="12"/>
       <c r="AN11" s="12"/>
       <c r="AO11" s="12"/>
@@ -4296,30 +3280,30 @@
       <c r="L12" s="10"/>
       <c r="M12" s="10"/>
       <c r="N12" s="10"/>
-      <c r="O12" s="99"/>
-      <c r="P12" s="100"/>
-      <c r="Q12" s="100"/>
-      <c r="R12" s="100"/>
-      <c r="S12" s="100"/>
-      <c r="T12" s="100"/>
-      <c r="U12" s="100"/>
-      <c r="V12" s="100"/>
-      <c r="W12" s="100"/>
-      <c r="X12" s="100"/>
-      <c r="Y12" s="100"/>
-      <c r="Z12" s="100"/>
-      <c r="AA12" s="100"/>
-      <c r="AB12" s="100"/>
-      <c r="AC12" s="100"/>
-      <c r="AD12" s="100"/>
-      <c r="AE12" s="100"/>
-      <c r="AF12" s="100"/>
-      <c r="AG12" s="100"/>
-      <c r="AH12" s="100"/>
-      <c r="AI12" s="100"/>
-      <c r="AJ12" s="100"/>
-      <c r="AK12" s="100"/>
-      <c r="AL12" s="101"/>
+      <c r="O12" s="70"/>
+      <c r="P12" s="71"/>
+      <c r="Q12" s="71"/>
+      <c r="R12" s="71"/>
+      <c r="S12" s="71"/>
+      <c r="T12" s="71"/>
+      <c r="U12" s="71"/>
+      <c r="V12" s="71"/>
+      <c r="W12" s="71"/>
+      <c r="X12" s="71"/>
+      <c r="Y12" s="71"/>
+      <c r="Z12" s="71"/>
+      <c r="AA12" s="71"/>
+      <c r="AB12" s="71"/>
+      <c r="AC12" s="71"/>
+      <c r="AD12" s="71"/>
+      <c r="AE12" s="71"/>
+      <c r="AF12" s="71"/>
+      <c r="AG12" s="71"/>
+      <c r="AH12" s="71"/>
+      <c r="AI12" s="71"/>
+      <c r="AJ12" s="71"/>
+      <c r="AK12" s="71"/>
+      <c r="AL12" s="72"/>
       <c r="AM12" s="12"/>
       <c r="AN12" s="12"/>
       <c r="AO12" s="12"/>
@@ -4346,30 +3330,30 @@
       <c r="L13" s="10"/>
       <c r="M13" s="10"/>
       <c r="N13" s="10"/>
-      <c r="O13" s="99"/>
-      <c r="P13" s="100"/>
-      <c r="Q13" s="100"/>
-      <c r="R13" s="100"/>
-      <c r="S13" s="100"/>
-      <c r="T13" s="100"/>
-      <c r="U13" s="100"/>
-      <c r="V13" s="100"/>
-      <c r="W13" s="100"/>
-      <c r="X13" s="100"/>
-      <c r="Y13" s="100"/>
-      <c r="Z13" s="100"/>
-      <c r="AA13" s="100"/>
-      <c r="AB13" s="100"/>
-      <c r="AC13" s="100"/>
-      <c r="AD13" s="100"/>
-      <c r="AE13" s="100"/>
-      <c r="AF13" s="100"/>
-      <c r="AG13" s="100"/>
-      <c r="AH13" s="100"/>
-      <c r="AI13" s="100"/>
-      <c r="AJ13" s="100"/>
-      <c r="AK13" s="100"/>
-      <c r="AL13" s="101"/>
+      <c r="O13" s="70"/>
+      <c r="P13" s="71"/>
+      <c r="Q13" s="71"/>
+      <c r="R13" s="71"/>
+      <c r="S13" s="71"/>
+      <c r="T13" s="71"/>
+      <c r="U13" s="71"/>
+      <c r="V13" s="71"/>
+      <c r="W13" s="71"/>
+      <c r="X13" s="71"/>
+      <c r="Y13" s="71"/>
+      <c r="Z13" s="71"/>
+      <c r="AA13" s="71"/>
+      <c r="AB13" s="71"/>
+      <c r="AC13" s="71"/>
+      <c r="AD13" s="71"/>
+      <c r="AE13" s="71"/>
+      <c r="AF13" s="71"/>
+      <c r="AG13" s="71"/>
+      <c r="AH13" s="71"/>
+      <c r="AI13" s="71"/>
+      <c r="AJ13" s="71"/>
+      <c r="AK13" s="71"/>
+      <c r="AL13" s="72"/>
       <c r="AM13" s="12"/>
       <c r="AN13" s="12"/>
       <c r="AO13" s="12"/>
@@ -4396,30 +3380,30 @@
       <c r="L14" s="10"/>
       <c r="M14" s="10"/>
       <c r="N14" s="10"/>
-      <c r="O14" s="99"/>
-      <c r="P14" s="100"/>
-      <c r="Q14" s="100"/>
-      <c r="R14" s="100"/>
-      <c r="S14" s="100"/>
-      <c r="T14" s="100"/>
-      <c r="U14" s="100"/>
-      <c r="V14" s="100"/>
-      <c r="W14" s="100"/>
-      <c r="X14" s="100"/>
-      <c r="Y14" s="100"/>
-      <c r="Z14" s="100"/>
-      <c r="AA14" s="100"/>
-      <c r="AB14" s="100"/>
-      <c r="AC14" s="100"/>
-      <c r="AD14" s="100"/>
-      <c r="AE14" s="100"/>
-      <c r="AF14" s="100"/>
-      <c r="AG14" s="100"/>
-      <c r="AH14" s="100"/>
-      <c r="AI14" s="100"/>
-      <c r="AJ14" s="100"/>
-      <c r="AK14" s="100"/>
-      <c r="AL14" s="101"/>
+      <c r="O14" s="70"/>
+      <c r="P14" s="71"/>
+      <c r="Q14" s="71"/>
+      <c r="R14" s="71"/>
+      <c r="S14" s="71"/>
+      <c r="T14" s="71"/>
+      <c r="U14" s="71"/>
+      <c r="V14" s="71"/>
+      <c r="W14" s="71"/>
+      <c r="X14" s="71"/>
+      <c r="Y14" s="71"/>
+      <c r="Z14" s="71"/>
+      <c r="AA14" s="71"/>
+      <c r="AB14" s="71"/>
+      <c r="AC14" s="71"/>
+      <c r="AD14" s="71"/>
+      <c r="AE14" s="71"/>
+      <c r="AF14" s="71"/>
+      <c r="AG14" s="71"/>
+      <c r="AH14" s="71"/>
+      <c r="AI14" s="71"/>
+      <c r="AJ14" s="71"/>
+      <c r="AK14" s="71"/>
+      <c r="AL14" s="72"/>
       <c r="AM14" s="12"/>
       <c r="AN14" s="12"/>
       <c r="AO14" s="12"/>
@@ -4437,30 +3421,30 @@
     </row>
     <row r="15" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
-      <c r="O15" s="99"/>
-      <c r="P15" s="100"/>
-      <c r="Q15" s="100"/>
-      <c r="R15" s="100"/>
-      <c r="S15" s="100"/>
-      <c r="T15" s="100"/>
-      <c r="U15" s="100"/>
-      <c r="V15" s="100"/>
-      <c r="W15" s="100"/>
-      <c r="X15" s="100"/>
-      <c r="Y15" s="100"/>
-      <c r="Z15" s="100"/>
-      <c r="AA15" s="100"/>
-      <c r="AB15" s="100"/>
-      <c r="AC15" s="100"/>
-      <c r="AD15" s="100"/>
-      <c r="AE15" s="100"/>
-      <c r="AF15" s="100"/>
-      <c r="AG15" s="100"/>
-      <c r="AH15" s="100"/>
-      <c r="AI15" s="100"/>
-      <c r="AJ15" s="100"/>
-      <c r="AK15" s="100"/>
-      <c r="AL15" s="101"/>
+      <c r="O15" s="70"/>
+      <c r="P15" s="71"/>
+      <c r="Q15" s="71"/>
+      <c r="R15" s="71"/>
+      <c r="S15" s="71"/>
+      <c r="T15" s="71"/>
+      <c r="U15" s="71"/>
+      <c r="V15" s="71"/>
+      <c r="W15" s="71"/>
+      <c r="X15" s="71"/>
+      <c r="Y15" s="71"/>
+      <c r="Z15" s="71"/>
+      <c r="AA15" s="71"/>
+      <c r="AB15" s="71"/>
+      <c r="AC15" s="71"/>
+      <c r="AD15" s="71"/>
+      <c r="AE15" s="71"/>
+      <c r="AF15" s="71"/>
+      <c r="AG15" s="71"/>
+      <c r="AH15" s="71"/>
+      <c r="AI15" s="71"/>
+      <c r="AJ15" s="71"/>
+      <c r="AK15" s="71"/>
+      <c r="AL15" s="72"/>
       <c r="AM15" s="12"/>
       <c r="AN15" s="12"/>
       <c r="AO15" s="12"/>
@@ -4486,30 +3470,30 @@
       <c r="L16" s="19"/>
       <c r="M16" s="19"/>
       <c r="N16" s="10"/>
-      <c r="O16" s="102"/>
-      <c r="P16" s="103"/>
-      <c r="Q16" s="103"/>
-      <c r="R16" s="103"/>
-      <c r="S16" s="103"/>
-      <c r="T16" s="103"/>
-      <c r="U16" s="103"/>
-      <c r="V16" s="103"/>
-      <c r="W16" s="103"/>
-      <c r="X16" s="103"/>
-      <c r="Y16" s="103"/>
-      <c r="Z16" s="103"/>
-      <c r="AA16" s="103"/>
-      <c r="AB16" s="103"/>
-      <c r="AC16" s="103"/>
-      <c r="AD16" s="103"/>
-      <c r="AE16" s="103"/>
-      <c r="AF16" s="103"/>
-      <c r="AG16" s="103"/>
-      <c r="AH16" s="103"/>
-      <c r="AI16" s="103"/>
-      <c r="AJ16" s="103"/>
-      <c r="AK16" s="103"/>
-      <c r="AL16" s="104"/>
+      <c r="O16" s="73"/>
+      <c r="P16" s="74"/>
+      <c r="Q16" s="74"/>
+      <c r="R16" s="74"/>
+      <c r="S16" s="74"/>
+      <c r="T16" s="74"/>
+      <c r="U16" s="74"/>
+      <c r="V16" s="74"/>
+      <c r="W16" s="74"/>
+      <c r="X16" s="74"/>
+      <c r="Y16" s="74"/>
+      <c r="Z16" s="74"/>
+      <c r="AA16" s="74"/>
+      <c r="AB16" s="74"/>
+      <c r="AC16" s="74"/>
+      <c r="AD16" s="74"/>
+      <c r="AE16" s="74"/>
+      <c r="AF16" s="74"/>
+      <c r="AG16" s="74"/>
+      <c r="AH16" s="74"/>
+      <c r="AI16" s="74"/>
+      <c r="AJ16" s="74"/>
+      <c r="AK16" s="74"/>
+      <c r="AL16" s="75"/>
       <c r="AM16" s="12"/>
       <c r="AN16" s="12"/>
       <c r="AO16" s="12"/>
@@ -4757,30 +3741,30 @@
     </row>
     <row r="22" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
-      <c r="Q22" s="84" t="s">
-        <v>20</v>
-      </c>
-      <c r="R22" s="84"/>
-      <c r="S22" s="84"/>
-      <c r="T22" s="84"/>
-      <c r="U22" s="84"/>
-      <c r="V22" s="84"/>
-      <c r="W22" s="84"/>
-      <c r="X22" s="82" t="s">
-        <v>88</v>
-      </c>
-      <c r="Y22" s="82"/>
-      <c r="Z22" s="82"/>
-      <c r="AA22" s="82"/>
-      <c r="AB22" s="82"/>
-      <c r="AC22" s="82"/>
-      <c r="AD22" s="82"/>
-      <c r="AE22" s="82"/>
-      <c r="AF22" s="82"/>
-      <c r="AG22" s="82"/>
-      <c r="AH22" s="82"/>
-      <c r="AI22" s="82"/>
-      <c r="AJ22" s="82"/>
+      <c r="Q22" s="55" t="s">
+        <v>8</v>
+      </c>
+      <c r="R22" s="55"/>
+      <c r="S22" s="55"/>
+      <c r="T22" s="55"/>
+      <c r="U22" s="55"/>
+      <c r="V22" s="55"/>
+      <c r="W22" s="55"/>
+      <c r="X22" s="53" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y22" s="53"/>
+      <c r="Z22" s="53"/>
+      <c r="AA22" s="53"/>
+      <c r="AB22" s="53"/>
+      <c r="AC22" s="53"/>
+      <c r="AD22" s="53"/>
+      <c r="AE22" s="53"/>
+      <c r="AF22" s="53"/>
+      <c r="AG22" s="53"/>
+      <c r="AH22" s="53"/>
+      <c r="AI22" s="53"/>
+      <c r="AJ22" s="53"/>
       <c r="AK22" s="13"/>
       <c r="AL22" s="13"/>
       <c r="AM22" s="13"/>
@@ -4800,30 +3784,30 @@
     </row>
     <row r="23" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
-      <c r="Q23" s="84" t="s">
-        <v>21</v>
-      </c>
-      <c r="R23" s="84"/>
-      <c r="S23" s="84"/>
-      <c r="T23" s="84"/>
-      <c r="U23" s="84"/>
-      <c r="V23" s="84"/>
-      <c r="W23" s="84"/>
-      <c r="X23" s="82" t="s">
-        <v>89</v>
-      </c>
-      <c r="Y23" s="82"/>
-      <c r="Z23" s="82"/>
-      <c r="AA23" s="82"/>
-      <c r="AB23" s="82"/>
-      <c r="AC23" s="82"/>
-      <c r="AD23" s="82"/>
-      <c r="AE23" s="82"/>
-      <c r="AF23" s="82"/>
-      <c r="AG23" s="82"/>
-      <c r="AH23" s="82"/>
-      <c r="AI23" s="82"/>
-      <c r="AJ23" s="82"/>
+      <c r="Q23" s="55" t="s">
+        <v>9</v>
+      </c>
+      <c r="R23" s="55"/>
+      <c r="S23" s="55"/>
+      <c r="T23" s="55"/>
+      <c r="U23" s="55"/>
+      <c r="V23" s="55"/>
+      <c r="W23" s="55"/>
+      <c r="X23" s="53" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y23" s="53"/>
+      <c r="Z23" s="53"/>
+      <c r="AA23" s="53"/>
+      <c r="AB23" s="53"/>
+      <c r="AC23" s="53"/>
+      <c r="AD23" s="53"/>
+      <c r="AE23" s="53"/>
+      <c r="AF23" s="53"/>
+      <c r="AG23" s="53"/>
+      <c r="AH23" s="53"/>
+      <c r="AI23" s="53"/>
+      <c r="AJ23" s="53"/>
       <c r="AK23" s="13"/>
       <c r="AL23" s="13"/>
       <c r="AM23" s="13"/>
@@ -4843,30 +3827,30 @@
     </row>
     <row r="24" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
-      <c r="Q24" s="84" t="s">
-        <v>22</v>
-      </c>
-      <c r="R24" s="84"/>
-      <c r="S24" s="84"/>
-      <c r="T24" s="84"/>
-      <c r="U24" s="84"/>
-      <c r="V24" s="84"/>
-      <c r="W24" s="84"/>
-      <c r="X24" s="82" t="s">
-        <v>90</v>
-      </c>
-      <c r="Y24" s="82"/>
-      <c r="Z24" s="82"/>
-      <c r="AA24" s="82"/>
-      <c r="AB24" s="82"/>
-      <c r="AC24" s="82"/>
-      <c r="AD24" s="82"/>
-      <c r="AE24" s="82"/>
-      <c r="AF24" s="82"/>
-      <c r="AG24" s="82"/>
-      <c r="AH24" s="82"/>
-      <c r="AI24" s="82"/>
-      <c r="AJ24" s="82"/>
+      <c r="Q24" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="R24" s="55"/>
+      <c r="S24" s="55"/>
+      <c r="T24" s="55"/>
+      <c r="U24" s="55"/>
+      <c r="V24" s="55"/>
+      <c r="W24" s="55"/>
+      <c r="X24" s="53" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y24" s="53"/>
+      <c r="Z24" s="53"/>
+      <c r="AA24" s="53"/>
+      <c r="AB24" s="53"/>
+      <c r="AC24" s="53"/>
+      <c r="AD24" s="53"/>
+      <c r="AE24" s="53"/>
+      <c r="AF24" s="53"/>
+      <c r="AG24" s="53"/>
+      <c r="AH24" s="53"/>
+      <c r="AI24" s="53"/>
+      <c r="AJ24" s="53"/>
       <c r="AZ24" s="3"/>
     </row>
     <row r="25" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4883,30 +3867,30 @@
       <c r="M25" s="10"/>
       <c r="N25" s="10"/>
       <c r="O25" s="10"/>
-      <c r="Q25" s="84" t="s">
+      <c r="Q25" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="R25" s="84"/>
-      <c r="S25" s="84"/>
-      <c r="T25" s="84"/>
-      <c r="U25" s="84"/>
-      <c r="V25" s="84"/>
-      <c r="W25" s="84"/>
-      <c r="X25" s="83" t="s">
-        <v>91</v>
-      </c>
-      <c r="Y25" s="83"/>
-      <c r="Z25" s="83"/>
-      <c r="AA25" s="83"/>
-      <c r="AB25" s="83"/>
-      <c r="AC25" s="83"/>
-      <c r="AD25" s="83"/>
-      <c r="AE25" s="83"/>
-      <c r="AF25" s="83"/>
-      <c r="AG25" s="83"/>
-      <c r="AH25" s="83"/>
-      <c r="AI25" s="83"/>
-      <c r="AJ25" s="83"/>
+      <c r="R25" s="55"/>
+      <c r="S25" s="55"/>
+      <c r="T25" s="55"/>
+      <c r="U25" s="55"/>
+      <c r="V25" s="55"/>
+      <c r="W25" s="55"/>
+      <c r="X25" s="54" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y25" s="54"/>
+      <c r="Z25" s="54"/>
+      <c r="AA25" s="54"/>
+      <c r="AB25" s="54"/>
+      <c r="AC25" s="54"/>
+      <c r="AD25" s="54"/>
+      <c r="AE25" s="54"/>
+      <c r="AF25" s="54"/>
+      <c r="AG25" s="54"/>
+      <c r="AH25" s="54"/>
+      <c r="AI25" s="54"/>
+      <c r="AJ25" s="54"/>
       <c r="AZ25" s="3"/>
     </row>
     <row r="26" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4917,30 +3901,30 @@
       <c r="N26" s="10"/>
       <c r="O26" s="10"/>
       <c r="P26" s="10"/>
-      <c r="Q26" s="84" t="s">
-        <v>23</v>
-      </c>
-      <c r="R26" s="84"/>
-      <c r="S26" s="84"/>
-      <c r="T26" s="84"/>
-      <c r="U26" s="84"/>
-      <c r="V26" s="84"/>
-      <c r="W26" s="84"/>
-      <c r="X26" s="85">
+      <c r="Q26" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="R26" s="55"/>
+      <c r="S26" s="55"/>
+      <c r="T26" s="55"/>
+      <c r="U26" s="55"/>
+      <c r="V26" s="55"/>
+      <c r="W26" s="55"/>
+      <c r="X26" s="56">
         <v>45957</v>
       </c>
-      <c r="Y26" s="85"/>
-      <c r="Z26" s="85"/>
-      <c r="AA26" s="85"/>
-      <c r="AB26" s="85"/>
-      <c r="AC26" s="85"/>
-      <c r="AD26" s="85"/>
-      <c r="AE26" s="85"/>
-      <c r="AF26" s="85"/>
-      <c r="AG26" s="85"/>
-      <c r="AH26" s="85"/>
-      <c r="AI26" s="85"/>
-      <c r="AJ26" s="85"/>
+      <c r="Y26" s="56"/>
+      <c r="Z26" s="56"/>
+      <c r="AA26" s="56"/>
+      <c r="AB26" s="56"/>
+      <c r="AC26" s="56"/>
+      <c r="AD26" s="56"/>
+      <c r="AE26" s="56"/>
+      <c r="AF26" s="56"/>
+      <c r="AG26" s="56"/>
+      <c r="AH26" s="56"/>
+      <c r="AI26" s="56"/>
+      <c r="AJ26" s="56"/>
       <c r="AZ26" s="3"/>
     </row>
     <row r="27" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5062,16 +4046,16 @@
     </row>
     <row r="32" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
-      <c r="D32" s="89" t="s">
-        <v>24</v>
-      </c>
-      <c r="E32" s="89"/>
-      <c r="F32" s="89"/>
-      <c r="G32" s="89"/>
-      <c r="H32" s="89"/>
-      <c r="I32" s="89"/>
-      <c r="J32" s="89"/>
-      <c r="K32" s="89"/>
+      <c r="D32" s="60" t="s">
+        <v>12</v>
+      </c>
+      <c r="E32" s="60"/>
+      <c r="F32" s="60"/>
+      <c r="G32" s="60"/>
+      <c r="H32" s="60"/>
+      <c r="I32" s="60"/>
+      <c r="J32" s="60"/>
+      <c r="K32" s="60"/>
       <c r="L32" s="10"/>
       <c r="M32" s="10"/>
       <c r="N32" s="10"/>
@@ -5102,34 +4086,34 @@
       <c r="AM32" s="10"/>
       <c r="AN32" s="10"/>
       <c r="AO32" s="10"/>
-      <c r="AP32" s="93" t="s">
-        <v>25</v>
-      </c>
-      <c r="AQ32" s="94"/>
-      <c r="AR32" s="94"/>
-      <c r="AS32" s="94"/>
-      <c r="AT32" s="94"/>
-      <c r="AU32" s="94"/>
-      <c r="AV32" s="94"/>
-      <c r="AW32" s="95"/>
+      <c r="AP32" s="64" t="s">
+        <v>13</v>
+      </c>
+      <c r="AQ32" s="65"/>
+      <c r="AR32" s="65"/>
+      <c r="AS32" s="65"/>
+      <c r="AT32" s="65"/>
+      <c r="AU32" s="65"/>
+      <c r="AV32" s="65"/>
+      <c r="AW32" s="66"/>
       <c r="AX32" s="4"/>
       <c r="AY32" s="4"/>
       <c r="AZ32" s="7"/>
     </row>
     <row r="33" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
-      <c r="D33" s="89" t="s">
-        <v>26</v>
-      </c>
-      <c r="E33" s="89"/>
-      <c r="F33" s="89"/>
-      <c r="G33" s="89"/>
-      <c r="H33" s="89" t="s">
-        <v>27</v>
-      </c>
-      <c r="I33" s="89"/>
-      <c r="J33" s="89"/>
-      <c r="K33" s="89"/>
+      <c r="D33" s="60" t="s">
+        <v>14</v>
+      </c>
+      <c r="E33" s="60"/>
+      <c r="F33" s="60"/>
+      <c r="G33" s="60"/>
+      <c r="H33" s="60" t="s">
+        <v>15</v>
+      </c>
+      <c r="I33" s="60"/>
+      <c r="J33" s="60"/>
+      <c r="K33" s="60"/>
       <c r="L33" s="9"/>
       <c r="M33" s="9"/>
       <c r="N33" s="9"/>
@@ -5160,36 +4144,36 @@
       <c r="AM33" s="10"/>
       <c r="AN33" s="10"/>
       <c r="AO33" s="10"/>
-      <c r="AP33" s="93" t="s">
-        <v>26</v>
-      </c>
-      <c r="AQ33" s="94"/>
-      <c r="AR33" s="94"/>
-      <c r="AS33" s="95"/>
-      <c r="AT33" s="93" t="s">
-        <v>28</v>
-      </c>
-      <c r="AU33" s="94"/>
-      <c r="AV33" s="94"/>
-      <c r="AW33" s="95"/>
+      <c r="AP33" s="64" t="s">
+        <v>14</v>
+      </c>
+      <c r="AQ33" s="65"/>
+      <c r="AR33" s="65"/>
+      <c r="AS33" s="66"/>
+      <c r="AT33" s="64" t="s">
+        <v>16</v>
+      </c>
+      <c r="AU33" s="65"/>
+      <c r="AV33" s="65"/>
+      <c r="AW33" s="66"/>
       <c r="AX33" s="5"/>
       <c r="AY33" s="5"/>
       <c r="AZ33" s="8"/>
     </row>
     <row r="34" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
-      <c r="D34" s="90" t="s">
-        <v>29</v>
-      </c>
-      <c r="E34" s="91"/>
-      <c r="F34" s="91"/>
-      <c r="G34" s="92"/>
-      <c r="H34" s="90" t="s">
-        <v>29</v>
-      </c>
-      <c r="I34" s="91"/>
-      <c r="J34" s="91"/>
-      <c r="K34" s="92"/>
+      <c r="D34" s="61" t="s">
+        <v>17</v>
+      </c>
+      <c r="E34" s="62"/>
+      <c r="F34" s="62"/>
+      <c r="G34" s="63"/>
+      <c r="H34" s="61" t="s">
+        <v>17</v>
+      </c>
+      <c r="I34" s="62"/>
+      <c r="J34" s="62"/>
+      <c r="K34" s="63"/>
       <c r="L34" s="9"/>
       <c r="M34" s="9"/>
       <c r="N34" s="21"/>
@@ -5220,30 +4204,30 @@
       <c r="AM34" s="10"/>
       <c r="AN34" s="10"/>
       <c r="AO34" s="10"/>
-      <c r="AP34" s="90" t="s">
-        <v>29</v>
-      </c>
-      <c r="AQ34" s="91"/>
-      <c r="AR34" s="91"/>
-      <c r="AS34" s="92"/>
-      <c r="AT34" s="90" t="s">
-        <v>29</v>
-      </c>
-      <c r="AU34" s="91"/>
-      <c r="AV34" s="91"/>
-      <c r="AW34" s="92"/>
+      <c r="AP34" s="61" t="s">
+        <v>17</v>
+      </c>
+      <c r="AQ34" s="62"/>
+      <c r="AR34" s="62"/>
+      <c r="AS34" s="63"/>
+      <c r="AT34" s="61" t="s">
+        <v>17</v>
+      </c>
+      <c r="AU34" s="62"/>
+      <c r="AV34" s="62"/>
+      <c r="AW34" s="63"/>
       <c r="AZ34" s="3"/>
     </row>
     <row r="35" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="2"/>
-      <c r="D35" s="86"/>
-      <c r="E35" s="87"/>
-      <c r="F35" s="87"/>
-      <c r="G35" s="88"/>
-      <c r="H35" s="108"/>
-      <c r="I35" s="109"/>
-      <c r="J35" s="109"/>
-      <c r="K35" s="110"/>
+      <c r="D35" s="57"/>
+      <c r="E35" s="58"/>
+      <c r="F35" s="58"/>
+      <c r="G35" s="59"/>
+      <c r="H35" s="79"/>
+      <c r="I35" s="80"/>
+      <c r="J35" s="80"/>
+      <c r="K35" s="81"/>
       <c r="N35" s="5"/>
       <c r="O35" s="10"/>
       <c r="P35" s="10"/>
@@ -5272,30 +4256,30 @@
       <c r="AM35" s="10"/>
       <c r="AN35" s="5"/>
       <c r="AO35" s="5"/>
-      <c r="AP35" s="86"/>
-      <c r="AQ35" s="87"/>
-      <c r="AR35" s="87"/>
-      <c r="AS35" s="88"/>
-      <c r="AT35" s="108"/>
-      <c r="AU35" s="109"/>
-      <c r="AV35" s="109"/>
-      <c r="AW35" s="110"/>
+      <c r="AP35" s="57"/>
+      <c r="AQ35" s="58"/>
+      <c r="AR35" s="58"/>
+      <c r="AS35" s="59"/>
+      <c r="AT35" s="79"/>
+      <c r="AU35" s="80"/>
+      <c r="AV35" s="80"/>
+      <c r="AW35" s="81"/>
       <c r="AZ35" s="3"/>
     </row>
     <row r="36" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="2"/>
-      <c r="D36" s="76" t="s">
-        <v>30</v>
-      </c>
-      <c r="E36" s="77"/>
-      <c r="F36" s="77"/>
-      <c r="G36" s="78"/>
-      <c r="H36" s="76" t="s">
-        <v>31</v>
-      </c>
-      <c r="I36" s="77"/>
-      <c r="J36" s="77"/>
-      <c r="K36" s="78"/>
+      <c r="D36" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="E36" s="48"/>
+      <c r="F36" s="48"/>
+      <c r="G36" s="49"/>
+      <c r="H36" s="47" t="s">
+        <v>19</v>
+      </c>
+      <c r="I36" s="48"/>
+      <c r="J36" s="48"/>
+      <c r="K36" s="49"/>
       <c r="L36" s="6"/>
       <c r="N36" s="5"/>
       <c r="O36" s="10"/>
@@ -5325,30 +4309,30 @@
       <c r="AM36" s="10"/>
       <c r="AN36" s="5"/>
       <c r="AO36" s="5"/>
-      <c r="AP36" s="111" t="s">
-        <v>32</v>
-      </c>
-      <c r="AQ36" s="112"/>
-      <c r="AR36" s="112"/>
-      <c r="AS36" s="113"/>
-      <c r="AT36" s="111" t="s">
-        <v>32</v>
-      </c>
-      <c r="AU36" s="112"/>
-      <c r="AV36" s="112"/>
-      <c r="AW36" s="113"/>
+      <c r="AP36" s="82" t="s">
+        <v>20</v>
+      </c>
+      <c r="AQ36" s="83"/>
+      <c r="AR36" s="83"/>
+      <c r="AS36" s="84"/>
+      <c r="AT36" s="82" t="s">
+        <v>20</v>
+      </c>
+      <c r="AU36" s="83"/>
+      <c r="AV36" s="83"/>
+      <c r="AW36" s="84"/>
       <c r="AZ36" s="3"/>
     </row>
     <row r="37" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
-      <c r="D37" s="79"/>
-      <c r="E37" s="80"/>
-      <c r="F37" s="80"/>
-      <c r="G37" s="81"/>
-      <c r="H37" s="79"/>
-      <c r="I37" s="80"/>
-      <c r="J37" s="80"/>
-      <c r="K37" s="81"/>
+      <c r="D37" s="50"/>
+      <c r="E37" s="51"/>
+      <c r="F37" s="51"/>
+      <c r="G37" s="52"/>
+      <c r="H37" s="50"/>
+      <c r="I37" s="51"/>
+      <c r="J37" s="51"/>
+      <c r="K37" s="52"/>
       <c r="L37" s="22"/>
       <c r="N37" s="10"/>
       <c r="O37" s="10"/>
@@ -5378,14 +4362,14 @@
       <c r="AM37" s="10"/>
       <c r="AN37" s="10"/>
       <c r="AO37" s="10"/>
-      <c r="AP37" s="105"/>
-      <c r="AQ37" s="106"/>
-      <c r="AR37" s="106"/>
-      <c r="AS37" s="107"/>
-      <c r="AT37" s="105"/>
-      <c r="AU37" s="106"/>
-      <c r="AV37" s="106"/>
-      <c r="AW37" s="107"/>
+      <c r="AP37" s="76"/>
+      <c r="AQ37" s="77"/>
+      <c r="AR37" s="77"/>
+      <c r="AS37" s="78"/>
+      <c r="AT37" s="76"/>
+      <c r="AU37" s="77"/>
+      <c r="AV37" s="77"/>
+      <c r="AW37" s="78"/>
       <c r="AZ37" s="3"/>
     </row>
     <row r="38" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5494,10 +4478,10 @@
     <row r="41" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="2"/>
       <c r="B41" s="1" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="D41" s="28" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AZ41" s="3"/>
     </row>
@@ -5598,12 +4582,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AZ16"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A8" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="BH11" sqref="BH11"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A11" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="BD13" sqref="BD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.54296875" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -5612,983 +4596,1007 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="142" t="s">
-        <v>34</v>
-      </c>
-      <c r="B1" s="143"/>
-      <c r="C1" s="143"/>
-      <c r="D1" s="143"/>
-      <c r="E1" s="152" t="str">
+      <c r="A1" s="117" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="118"/>
+      <c r="C1" s="118"/>
+      <c r="D1" s="118"/>
+      <c r="E1" s="127" t="str">
         <f>表紙!O7</f>
-        <v>QuizSheet
+        <v>QuizSheet改修(要件ex)
 単体テスト仕様書</v>
       </c>
-      <c r="F1" s="152"/>
-      <c r="G1" s="152"/>
-      <c r="H1" s="152"/>
-      <c r="I1" s="152"/>
-      <c r="J1" s="152"/>
-      <c r="K1" s="152"/>
-      <c r="L1" s="152"/>
-      <c r="M1" s="152"/>
-      <c r="N1" s="152"/>
-      <c r="O1" s="152"/>
-      <c r="P1" s="152"/>
-      <c r="Q1" s="141" t="s">
-        <v>20</v>
-      </c>
-      <c r="R1" s="141"/>
-      <c r="S1" s="141"/>
-      <c r="T1" s="141"/>
-      <c r="U1" s="141"/>
-      <c r="V1" s="141"/>
-      <c r="W1" s="141"/>
-      <c r="X1" s="141" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y1" s="141"/>
-      <c r="Z1" s="141"/>
-      <c r="AA1" s="141"/>
-      <c r="AB1" s="141"/>
-      <c r="AC1" s="141"/>
-      <c r="AD1" s="141"/>
-      <c r="AE1" s="141" t="s">
-        <v>36</v>
-      </c>
-      <c r="AF1" s="141"/>
-      <c r="AG1" s="141"/>
-      <c r="AH1" s="141"/>
-      <c r="AI1" s="141"/>
-      <c r="AJ1" s="141"/>
-      <c r="AK1" s="141"/>
-      <c r="AL1" s="131" t="s">
+      <c r="F1" s="127"/>
+      <c r="G1" s="127"/>
+      <c r="H1" s="127"/>
+      <c r="I1" s="127"/>
+      <c r="J1" s="127"/>
+      <c r="K1" s="127"/>
+      <c r="L1" s="127"/>
+      <c r="M1" s="127"/>
+      <c r="N1" s="127"/>
+      <c r="O1" s="127"/>
+      <c r="P1" s="127"/>
+      <c r="Q1" s="106" t="s">
+        <v>8</v>
+      </c>
+      <c r="R1" s="106"/>
+      <c r="S1" s="106"/>
+      <c r="T1" s="106"/>
+      <c r="U1" s="106"/>
+      <c r="V1" s="106"/>
+      <c r="W1" s="106"/>
+      <c r="X1" s="106" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="106"/>
+      <c r="Z1" s="106"/>
+      <c r="AA1" s="106"/>
+      <c r="AB1" s="106"/>
+      <c r="AC1" s="106"/>
+      <c r="AD1" s="106"/>
+      <c r="AE1" s="106" t="s">
+        <v>24</v>
+      </c>
+      <c r="AF1" s="106"/>
+      <c r="AG1" s="106"/>
+      <c r="AH1" s="106"/>
+      <c r="AI1" s="106"/>
+      <c r="AJ1" s="106"/>
+      <c r="AK1" s="106"/>
+      <c r="AL1" s="96" t="s">
         <v>0</v>
       </c>
-      <c r="AM1" s="131"/>
-      <c r="AN1" s="131"/>
-      <c r="AO1" s="131" t="s">
-        <v>4</v>
-      </c>
-      <c r="AP1" s="132"/>
-      <c r="AQ1" s="132"/>
-      <c r="AR1" s="132"/>
-      <c r="AS1" s="131" t="s">
-        <v>5</v>
-      </c>
-      <c r="AT1" s="132"/>
-      <c r="AU1" s="132"/>
-      <c r="AV1" s="132"/>
-      <c r="AW1" s="131" t="s">
-        <v>6</v>
-      </c>
-      <c r="AX1" s="132"/>
-      <c r="AY1" s="132"/>
-      <c r="AZ1" s="136"/>
+      <c r="AM1" s="96"/>
+      <c r="AN1" s="96"/>
+      <c r="AO1" s="96" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP1" s="97"/>
+      <c r="AQ1" s="97"/>
+      <c r="AR1" s="97"/>
+      <c r="AS1" s="96" t="s">
+        <v>2</v>
+      </c>
+      <c r="AT1" s="97"/>
+      <c r="AU1" s="97"/>
+      <c r="AV1" s="97"/>
+      <c r="AW1" s="96" t="s">
+        <v>3</v>
+      </c>
+      <c r="AX1" s="97"/>
+      <c r="AY1" s="97"/>
+      <c r="AZ1" s="101"/>
     </row>
     <row r="2" spans="1:52" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="144"/>
-      <c r="B2" s="145"/>
-      <c r="C2" s="145"/>
-      <c r="D2" s="145"/>
-      <c r="E2" s="153"/>
-      <c r="F2" s="153"/>
-      <c r="G2" s="153"/>
-      <c r="H2" s="153"/>
-      <c r="I2" s="153"/>
-      <c r="J2" s="153"/>
-      <c r="K2" s="153"/>
-      <c r="L2" s="153"/>
-      <c r="M2" s="153"/>
-      <c r="N2" s="153"/>
-      <c r="O2" s="153"/>
-      <c r="P2" s="153"/>
-      <c r="Q2" s="137" t="str">
+      <c r="A2" s="119"/>
+      <c r="B2" s="120"/>
+      <c r="C2" s="120"/>
+      <c r="D2" s="120"/>
+      <c r="E2" s="128"/>
+      <c r="F2" s="128"/>
+      <c r="G2" s="128"/>
+      <c r="H2" s="128"/>
+      <c r="I2" s="128"/>
+      <c r="J2" s="128"/>
+      <c r="K2" s="128"/>
+      <c r="L2" s="128"/>
+      <c r="M2" s="128"/>
+      <c r="N2" s="128"/>
+      <c r="O2" s="128"/>
+      <c r="P2" s="128"/>
+      <c r="Q2" s="102" t="str">
         <f>表紙!X22</f>
         <v>QuizSheet</v>
       </c>
-      <c r="R2" s="137"/>
-      <c r="S2" s="137"/>
-      <c r="T2" s="137"/>
-      <c r="U2" s="137"/>
-      <c r="V2" s="137"/>
-      <c r="W2" s="137"/>
-      <c r="X2" s="137" t="str">
+      <c r="R2" s="102"/>
+      <c r="S2" s="102"/>
+      <c r="T2" s="102"/>
+      <c r="U2" s="102"/>
+      <c r="V2" s="102"/>
+      <c r="W2" s="102"/>
+      <c r="X2" s="102" t="str">
         <f>IF(表紙!X23="","",表紙!X23)</f>
         <v>問題出題画面</v>
       </c>
-      <c r="Y2" s="137"/>
-      <c r="Z2" s="137"/>
-      <c r="AA2" s="137"/>
-      <c r="AB2" s="137"/>
-      <c r="AC2" s="137"/>
-      <c r="AD2" s="137"/>
-      <c r="AE2" s="137" t="str">
+      <c r="Y2" s="102"/>
+      <c r="Z2" s="102"/>
+      <c r="AA2" s="102"/>
+      <c r="AB2" s="102"/>
+      <c r="AC2" s="102"/>
+      <c r="AD2" s="102"/>
+      <c r="AE2" s="102" t="str">
         <f>IF(表紙!X24="","",表紙!X24)</f>
-        <v>最終結果画面への遷移</v>
-      </c>
-      <c r="AF2" s="137"/>
-      <c r="AG2" s="137"/>
-      <c r="AH2" s="137"/>
-      <c r="AI2" s="137"/>
-      <c r="AJ2" s="137"/>
-      <c r="AK2" s="137"/>
-      <c r="AL2" s="139" t="s">
-        <v>37</v>
-      </c>
-      <c r="AM2" s="139"/>
-      <c r="AN2" s="139"/>
-      <c r="AO2" s="133"/>
-      <c r="AP2" s="134"/>
-      <c r="AQ2" s="134"/>
-      <c r="AR2" s="134"/>
-      <c r="AS2" s="133"/>
-      <c r="AT2" s="134"/>
-      <c r="AU2" s="134"/>
-      <c r="AV2" s="134"/>
-      <c r="AW2" s="133"/>
-      <c r="AX2" s="134"/>
-      <c r="AY2" s="134"/>
-      <c r="AZ2" s="135"/>
+        <v>最終結果画面への遷移・問題番号表示</v>
+      </c>
+      <c r="AF2" s="102"/>
+      <c r="AG2" s="102"/>
+      <c r="AH2" s="102"/>
+      <c r="AI2" s="102"/>
+      <c r="AJ2" s="102"/>
+      <c r="AK2" s="102"/>
+      <c r="AL2" s="104" t="s">
+        <v>25</v>
+      </c>
+      <c r="AM2" s="104"/>
+      <c r="AN2" s="104"/>
+      <c r="AO2" s="98"/>
+      <c r="AP2" s="99"/>
+      <c r="AQ2" s="99"/>
+      <c r="AR2" s="99"/>
+      <c r="AS2" s="98"/>
+      <c r="AT2" s="99"/>
+      <c r="AU2" s="99"/>
+      <c r="AV2" s="99"/>
+      <c r="AW2" s="98"/>
+      <c r="AX2" s="99"/>
+      <c r="AY2" s="99"/>
+      <c r="AZ2" s="100"/>
     </row>
     <row r="3" spans="1:52" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="146"/>
-      <c r="B3" s="147"/>
-      <c r="C3" s="147"/>
-      <c r="D3" s="147"/>
-      <c r="E3" s="154" t="s">
-        <v>38</v>
-      </c>
-      <c r="F3" s="154"/>
-      <c r="G3" s="154"/>
-      <c r="H3" s="154"/>
-      <c r="I3" s="154"/>
-      <c r="J3" s="151" t="str">
+      <c r="A3" s="121"/>
+      <c r="B3" s="122"/>
+      <c r="C3" s="122"/>
+      <c r="D3" s="122"/>
+      <c r="E3" s="129" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="129"/>
+      <c r="G3" s="129"/>
+      <c r="H3" s="129"/>
+      <c r="I3" s="129"/>
+      <c r="J3" s="126" t="str">
         <f>表紙!$AV$2</f>
         <v>XXX-XX-XXX</v>
       </c>
-      <c r="K3" s="151"/>
-      <c r="L3" s="151"/>
-      <c r="M3" s="151"/>
-      <c r="N3" s="151"/>
-      <c r="O3" s="151"/>
-      <c r="P3" s="151"/>
-      <c r="Q3" s="138"/>
-      <c r="R3" s="138"/>
-      <c r="S3" s="138"/>
-      <c r="T3" s="138"/>
-      <c r="U3" s="138"/>
-      <c r="V3" s="138"/>
-      <c r="W3" s="138"/>
-      <c r="X3" s="138"/>
-      <c r="Y3" s="138"/>
-      <c r="Z3" s="138"/>
-      <c r="AA3" s="138"/>
-      <c r="AB3" s="138"/>
-      <c r="AC3" s="138"/>
-      <c r="AD3" s="138"/>
-      <c r="AE3" s="138"/>
-      <c r="AF3" s="138"/>
-      <c r="AG3" s="138"/>
-      <c r="AH3" s="138"/>
-      <c r="AI3" s="138"/>
-      <c r="AJ3" s="138"/>
-      <c r="AK3" s="138"/>
-      <c r="AL3" s="140" t="s">
-        <v>39</v>
-      </c>
-      <c r="AM3" s="140"/>
-      <c r="AN3" s="140"/>
-      <c r="AO3" s="122"/>
-      <c r="AP3" s="123"/>
-      <c r="AQ3" s="123"/>
-      <c r="AR3" s="123"/>
-      <c r="AS3" s="122"/>
-      <c r="AT3" s="123"/>
-      <c r="AU3" s="123"/>
-      <c r="AV3" s="123"/>
-      <c r="AW3" s="122"/>
-      <c r="AX3" s="123"/>
-      <c r="AY3" s="123"/>
-      <c r="AZ3" s="124"/>
+      <c r="K3" s="126"/>
+      <c r="L3" s="126"/>
+      <c r="M3" s="126"/>
+      <c r="N3" s="126"/>
+      <c r="O3" s="126"/>
+      <c r="P3" s="126"/>
+      <c r="Q3" s="103"/>
+      <c r="R3" s="103"/>
+      <c r="S3" s="103"/>
+      <c r="T3" s="103"/>
+      <c r="U3" s="103"/>
+      <c r="V3" s="103"/>
+      <c r="W3" s="103"/>
+      <c r="X3" s="103"/>
+      <c r="Y3" s="103"/>
+      <c r="Z3" s="103"/>
+      <c r="AA3" s="103"/>
+      <c r="AB3" s="103"/>
+      <c r="AC3" s="103"/>
+      <c r="AD3" s="103"/>
+      <c r="AE3" s="103"/>
+      <c r="AF3" s="103"/>
+      <c r="AG3" s="103"/>
+      <c r="AH3" s="103"/>
+      <c r="AI3" s="103"/>
+      <c r="AJ3" s="103"/>
+      <c r="AK3" s="103"/>
+      <c r="AL3" s="105" t="s">
+        <v>27</v>
+      </c>
+      <c r="AM3" s="105"/>
+      <c r="AN3" s="105"/>
+      <c r="AO3" s="107"/>
+      <c r="AP3" s="108"/>
+      <c r="AQ3" s="108"/>
+      <c r="AR3" s="108"/>
+      <c r="AS3" s="107"/>
+      <c r="AT3" s="108"/>
+      <c r="AU3" s="108"/>
+      <c r="AV3" s="108"/>
+      <c r="AW3" s="107"/>
+      <c r="AX3" s="108"/>
+      <c r="AY3" s="108"/>
+      <c r="AZ3" s="111"/>
     </row>
     <row r="4" spans="1:52" ht="5.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:52" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="125" t="s">
+      <c r="A5" s="112" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="113"/>
+      <c r="C5" s="113"/>
+      <c r="D5" s="113"/>
+      <c r="E5" s="113"/>
+      <c r="F5" s="113"/>
+      <c r="G5" s="113"/>
+      <c r="H5" s="113"/>
+      <c r="I5" s="123"/>
+      <c r="J5" s="123"/>
+      <c r="K5" s="123"/>
+      <c r="L5" s="123"/>
+      <c r="M5" s="123"/>
+      <c r="N5" s="123"/>
+      <c r="O5" s="123"/>
+      <c r="P5" s="123"/>
+      <c r="Q5" s="123"/>
+      <c r="R5" s="123"/>
+      <c r="S5" s="123"/>
+      <c r="T5" s="123"/>
+      <c r="U5" s="123"/>
+      <c r="V5" s="123"/>
+      <c r="W5" s="123"/>
+      <c r="X5" s="124"/>
+      <c r="Y5" s="112" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z5" s="113"/>
+      <c r="AA5" s="113"/>
+      <c r="AB5" s="113"/>
+      <c r="AC5" s="113"/>
+      <c r="AD5" s="113"/>
+      <c r="AE5" s="113"/>
+      <c r="AF5" s="113"/>
+      <c r="AG5" s="109"/>
+      <c r="AH5" s="109"/>
+      <c r="AI5" s="109"/>
+      <c r="AJ5" s="109"/>
+      <c r="AK5" s="109"/>
+      <c r="AL5" s="110"/>
+      <c r="AM5" s="112" t="s">
+        <v>30</v>
+      </c>
+      <c r="AN5" s="113"/>
+      <c r="AO5" s="113"/>
+      <c r="AP5" s="113"/>
+      <c r="AQ5" s="113"/>
+      <c r="AR5" s="113"/>
+      <c r="AS5" s="113"/>
+      <c r="AT5" s="113"/>
+      <c r="AU5" s="109"/>
+      <c r="AV5" s="109"/>
+      <c r="AW5" s="109"/>
+      <c r="AX5" s="109"/>
+      <c r="AY5" s="109"/>
+      <c r="AZ5" s="110"/>
+    </row>
+    <row r="6" spans="1:52" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="125" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="85"/>
+      <c r="C6" s="85" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="85"/>
+      <c r="E6" s="85"/>
+      <c r="F6" s="85"/>
+      <c r="G6" s="85" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6" s="85"/>
+      <c r="I6" s="85" t="s">
+        <v>34</v>
+      </c>
+      <c r="J6" s="85"/>
+      <c r="K6" s="85"/>
+      <c r="L6" s="85"/>
+      <c r="M6" s="85"/>
+      <c r="N6" s="85"/>
+      <c r="O6" s="85"/>
+      <c r="P6" s="85" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q6" s="85"/>
+      <c r="R6" s="85"/>
+      <c r="S6" s="85"/>
+      <c r="T6" s="85"/>
+      <c r="U6" s="85"/>
+      <c r="V6" s="85"/>
+      <c r="W6" s="85" t="s">
+        <v>36</v>
+      </c>
+      <c r="X6" s="85"/>
+      <c r="Y6" s="85"/>
+      <c r="Z6" s="85"/>
+      <c r="AA6" s="85"/>
+      <c r="AB6" s="85"/>
+      <c r="AC6" s="85" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD6" s="85"/>
+      <c r="AE6" s="85"/>
+      <c r="AF6" s="85" t="s">
+        <v>38</v>
+      </c>
+      <c r="AG6" s="85"/>
+      <c r="AH6" s="85"/>
+      <c r="AI6" s="85" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ6" s="85"/>
+      <c r="AK6" s="85"/>
+      <c r="AL6" s="85" t="s">
         <v>40</v>
       </c>
-      <c r="B5" s="126"/>
-      <c r="C5" s="126"/>
-      <c r="D5" s="126"/>
-      <c r="E5" s="126"/>
-      <c r="F5" s="126"/>
-      <c r="G5" s="126"/>
-      <c r="H5" s="126"/>
-      <c r="I5" s="148"/>
-      <c r="J5" s="148"/>
-      <c r="K5" s="148"/>
-      <c r="L5" s="148"/>
-      <c r="M5" s="148"/>
-      <c r="N5" s="148"/>
-      <c r="O5" s="148"/>
-      <c r="P5" s="148"/>
-      <c r="Q5" s="148"/>
-      <c r="R5" s="148"/>
-      <c r="S5" s="148"/>
-      <c r="T5" s="148"/>
-      <c r="U5" s="148"/>
-      <c r="V5" s="148"/>
-      <c r="W5" s="148"/>
-      <c r="X5" s="149"/>
-      <c r="Y5" s="125" t="s">
+      <c r="AM6" s="85"/>
+      <c r="AN6" s="85" t="s">
         <v>41</v>
       </c>
-      <c r="Z5" s="126"/>
-      <c r="AA5" s="126"/>
-      <c r="AB5" s="126"/>
-      <c r="AC5" s="126"/>
-      <c r="AD5" s="126"/>
-      <c r="AE5" s="126"/>
-      <c r="AF5" s="126"/>
-      <c r="AG5" s="120"/>
-      <c r="AH5" s="120"/>
-      <c r="AI5" s="120"/>
-      <c r="AJ5" s="120"/>
-      <c r="AK5" s="120"/>
-      <c r="AL5" s="121"/>
-      <c r="AM5" s="125" t="s">
+      <c r="AO6" s="85"/>
+      <c r="AP6" s="85"/>
+      <c r="AQ6" s="85"/>
+      <c r="AR6" s="85" t="s">
         <v>42</v>
       </c>
-      <c r="AN5" s="126"/>
-      <c r="AO5" s="126"/>
-      <c r="AP5" s="126"/>
-      <c r="AQ5" s="126"/>
-      <c r="AR5" s="126"/>
-      <c r="AS5" s="126"/>
-      <c r="AT5" s="126"/>
-      <c r="AU5" s="120"/>
-      <c r="AV5" s="120"/>
-      <c r="AW5" s="120"/>
-      <c r="AX5" s="120"/>
-      <c r="AY5" s="120"/>
-      <c r="AZ5" s="121"/>
-    </row>
-    <row r="6" spans="1:52" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="150" t="s">
-        <v>43</v>
-      </c>
-      <c r="B6" s="117"/>
-      <c r="C6" s="117" t="s">
-        <v>44</v>
-      </c>
-      <c r="D6" s="117"/>
-      <c r="E6" s="117"/>
-      <c r="F6" s="117"/>
-      <c r="G6" s="117" t="s">
-        <v>45</v>
-      </c>
-      <c r="H6" s="117"/>
-      <c r="I6" s="117" t="s">
+      <c r="AS6" s="85"/>
+      <c r="AT6" s="85"/>
+      <c r="AU6" s="85"/>
+      <c r="AV6" s="85"/>
+      <c r="AW6" s="85"/>
+      <c r="AX6" s="85"/>
+      <c r="AY6" s="85"/>
+      <c r="AZ6" s="93"/>
+    </row>
+    <row r="7" spans="1:52" ht="90" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="94">
+        <v>1</v>
+      </c>
+      <c r="B7" s="95"/>
+      <c r="C7" s="89" t="s">
+        <v>79</v>
+      </c>
+      <c r="D7" s="89"/>
+      <c r="E7" s="89"/>
+      <c r="F7" s="89"/>
+      <c r="G7" s="88" t="s">
         <v>46</v>
       </c>
-      <c r="J6" s="117"/>
-      <c r="K6" s="117"/>
-      <c r="L6" s="117"/>
-      <c r="M6" s="117"/>
-      <c r="N6" s="117"/>
-      <c r="O6" s="117"/>
-      <c r="P6" s="117" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q6" s="117"/>
-      <c r="R6" s="117"/>
-      <c r="S6" s="117"/>
-      <c r="T6" s="117"/>
-      <c r="U6" s="117"/>
-      <c r="V6" s="117"/>
-      <c r="W6" s="117" t="s">
-        <v>48</v>
-      </c>
-      <c r="X6" s="117"/>
-      <c r="Y6" s="117"/>
-      <c r="Z6" s="117"/>
-      <c r="AA6" s="117"/>
-      <c r="AB6" s="117"/>
-      <c r="AC6" s="117" t="s">
-        <v>49</v>
-      </c>
-      <c r="AD6" s="117"/>
-      <c r="AE6" s="117"/>
-      <c r="AF6" s="117" t="s">
-        <v>50</v>
-      </c>
-      <c r="AG6" s="117"/>
-      <c r="AH6" s="117"/>
-      <c r="AI6" s="117" t="s">
-        <v>51</v>
-      </c>
-      <c r="AJ6" s="117"/>
-      <c r="AK6" s="117"/>
-      <c r="AL6" s="117" t="s">
-        <v>52</v>
-      </c>
-      <c r="AM6" s="117"/>
-      <c r="AN6" s="117" t="s">
-        <v>53</v>
-      </c>
-      <c r="AO6" s="117"/>
-      <c r="AP6" s="117"/>
-      <c r="AQ6" s="117"/>
-      <c r="AR6" s="117" t="s">
-        <v>54</v>
-      </c>
-      <c r="AS6" s="117"/>
-      <c r="AT6" s="117"/>
-      <c r="AU6" s="117"/>
-      <c r="AV6" s="117"/>
-      <c r="AW6" s="117"/>
-      <c r="AX6" s="117"/>
-      <c r="AY6" s="117"/>
-      <c r="AZ6" s="118"/>
-    </row>
-    <row r="7" spans="1:52" ht="90" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="155">
-        <v>1</v>
-      </c>
-      <c r="B7" s="156"/>
-      <c r="C7" s="129" t="s">
-        <v>93</v>
-      </c>
-      <c r="D7" s="129"/>
-      <c r="E7" s="129"/>
-      <c r="F7" s="129"/>
-      <c r="G7" s="128" t="s">
-        <v>58</v>
-      </c>
-      <c r="H7" s="128"/>
-      <c r="I7" s="129" t="s">
-        <v>94</v>
-      </c>
-      <c r="J7" s="129"/>
-      <c r="K7" s="129"/>
-      <c r="L7" s="129"/>
-      <c r="M7" s="129"/>
-      <c r="N7" s="129"/>
-      <c r="O7" s="129"/>
-      <c r="P7" s="129" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q7" s="129"/>
-      <c r="R7" s="129"/>
-      <c r="S7" s="129"/>
-      <c r="T7" s="129"/>
-      <c r="U7" s="129"/>
-      <c r="V7" s="129"/>
-      <c r="W7" s="129" t="s">
+      <c r="H7" s="88"/>
+      <c r="I7" s="89" t="s">
+        <v>80</v>
+      </c>
+      <c r="J7" s="89"/>
+      <c r="K7" s="89"/>
+      <c r="L7" s="89"/>
+      <c r="M7" s="89"/>
+      <c r="N7" s="89"/>
+      <c r="O7" s="89"/>
+      <c r="P7" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q7" s="89"/>
+      <c r="R7" s="89"/>
+      <c r="S7" s="89"/>
+      <c r="T7" s="89"/>
+      <c r="U7" s="89"/>
+      <c r="V7" s="89"/>
+      <c r="W7" s="89" t="s">
+        <v>82</v>
+      </c>
+      <c r="X7" s="89"/>
+      <c r="Y7" s="89"/>
+      <c r="Z7" s="89"/>
+      <c r="AA7" s="89"/>
+      <c r="AB7" s="89"/>
+      <c r="AC7" s="89" t="s">
         <v>96</v>
       </c>
-      <c r="X7" s="129"/>
-      <c r="Y7" s="129"/>
-      <c r="Z7" s="129"/>
-      <c r="AA7" s="129"/>
-      <c r="AB7" s="129"/>
-      <c r="AC7" s="129"/>
-      <c r="AD7" s="129"/>
-      <c r="AE7" s="129"/>
-      <c r="AF7" s="128" t="s">
-        <v>92</v>
-      </c>
-      <c r="AG7" s="128"/>
-      <c r="AH7" s="128"/>
-      <c r="AI7" s="127"/>
-      <c r="AJ7" s="127"/>
-      <c r="AK7" s="127"/>
-      <c r="AL7" s="128"/>
-      <c r="AM7" s="128"/>
-      <c r="AN7" s="129"/>
-      <c r="AO7" s="129"/>
-      <c r="AP7" s="129"/>
-      <c r="AQ7" s="129"/>
-      <c r="AR7" s="129"/>
-      <c r="AS7" s="129"/>
-      <c r="AT7" s="129"/>
-      <c r="AU7" s="129"/>
-      <c r="AV7" s="129"/>
-      <c r="AW7" s="129"/>
-      <c r="AX7" s="129"/>
-      <c r="AY7" s="129"/>
-      <c r="AZ7" s="130"/>
+      <c r="AD7" s="89"/>
+      <c r="AE7" s="89"/>
+      <c r="AF7" s="88" t="s">
+        <v>78</v>
+      </c>
+      <c r="AG7" s="88"/>
+      <c r="AH7" s="88"/>
+      <c r="AI7" s="114"/>
+      <c r="AJ7" s="114"/>
+      <c r="AK7" s="114"/>
+      <c r="AL7" s="88" t="s">
+        <v>103</v>
+      </c>
+      <c r="AM7" s="88"/>
+      <c r="AN7" s="89"/>
+      <c r="AO7" s="89"/>
+      <c r="AP7" s="89"/>
+      <c r="AQ7" s="89"/>
+      <c r="AR7" s="89"/>
+      <c r="AS7" s="89"/>
+      <c r="AT7" s="89"/>
+      <c r="AU7" s="89"/>
+      <c r="AV7" s="89"/>
+      <c r="AW7" s="89"/>
+      <c r="AX7" s="89"/>
+      <c r="AY7" s="89"/>
+      <c r="AZ7" s="90"/>
     </row>
     <row r="8" spans="1:52" ht="90" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="157">
+      <c r="A8" s="115">
         <v>2</v>
       </c>
-      <c r="B8" s="158"/>
-      <c r="C8" s="114" t="s">
-        <v>93</v>
-      </c>
-      <c r="D8" s="114"/>
-      <c r="E8" s="114"/>
-      <c r="F8" s="114"/>
-      <c r="G8" s="119" t="s">
-        <v>58</v>
-      </c>
-      <c r="H8" s="119"/>
-      <c r="I8" s="114" t="s">
-        <v>106</v>
-      </c>
-      <c r="J8" s="114"/>
-      <c r="K8" s="114"/>
-      <c r="L8" s="114"/>
-      <c r="M8" s="114"/>
-      <c r="N8" s="114"/>
-      <c r="O8" s="114"/>
-      <c r="P8" s="114" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q8" s="114"/>
-      <c r="R8" s="114"/>
-      <c r="S8" s="114"/>
-      <c r="T8" s="114"/>
-      <c r="U8" s="114"/>
-      <c r="V8" s="114"/>
-      <c r="W8" s="114" t="s">
+      <c r="B8" s="116"/>
+      <c r="C8" s="86" t="s">
+        <v>79</v>
+      </c>
+      <c r="D8" s="86"/>
+      <c r="E8" s="86"/>
+      <c r="F8" s="86"/>
+      <c r="G8" s="87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" s="87"/>
+      <c r="I8" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="J8" s="86"/>
+      <c r="K8" s="86"/>
+      <c r="L8" s="86"/>
+      <c r="M8" s="86"/>
+      <c r="N8" s="86"/>
+      <c r="O8" s="86"/>
+      <c r="P8" s="86" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q8" s="86"/>
+      <c r="R8" s="86"/>
+      <c r="S8" s="86"/>
+      <c r="T8" s="86"/>
+      <c r="U8" s="86"/>
+      <c r="V8" s="86"/>
+      <c r="W8" s="86" t="s">
+        <v>88</v>
+      </c>
+      <c r="X8" s="86"/>
+      <c r="Y8" s="86"/>
+      <c r="Z8" s="86"/>
+      <c r="AA8" s="86"/>
+      <c r="AB8" s="86"/>
+      <c r="AC8" s="86" t="s">
+        <v>97</v>
+      </c>
+      <c r="AD8" s="86"/>
+      <c r="AE8" s="86"/>
+      <c r="AF8" s="87" t="s">
+        <v>78</v>
+      </c>
+      <c r="AG8" s="87"/>
+      <c r="AH8" s="87"/>
+      <c r="AI8" s="92"/>
+      <c r="AJ8" s="92"/>
+      <c r="AK8" s="92"/>
+      <c r="AL8" s="87" t="s">
         <v>103</v>
       </c>
-      <c r="X8" s="114"/>
-      <c r="Y8" s="114"/>
-      <c r="Z8" s="114"/>
-      <c r="AA8" s="114"/>
-      <c r="AB8" s="114"/>
-      <c r="AC8" s="114"/>
-      <c r="AD8" s="114"/>
-      <c r="AE8" s="114"/>
-      <c r="AF8" s="119" t="s">
-        <v>92</v>
-      </c>
-      <c r="AG8" s="119"/>
-      <c r="AH8" s="119"/>
-      <c r="AI8" s="116"/>
-      <c r="AJ8" s="116"/>
-      <c r="AK8" s="116"/>
-      <c r="AL8" s="119"/>
-      <c r="AM8" s="119"/>
-      <c r="AN8" s="114"/>
-      <c r="AO8" s="114"/>
-      <c r="AP8" s="114"/>
-      <c r="AQ8" s="114"/>
-      <c r="AR8" s="114"/>
-      <c r="AS8" s="114"/>
-      <c r="AT8" s="114"/>
-      <c r="AU8" s="114"/>
-      <c r="AV8" s="114"/>
-      <c r="AW8" s="114"/>
-      <c r="AX8" s="114"/>
-      <c r="AY8" s="114"/>
-      <c r="AZ8" s="115"/>
+      <c r="AM8" s="87"/>
+      <c r="AN8" s="86"/>
+      <c r="AO8" s="86"/>
+      <c r="AP8" s="86"/>
+      <c r="AQ8" s="86"/>
+      <c r="AR8" s="86"/>
+      <c r="AS8" s="86"/>
+      <c r="AT8" s="86"/>
+      <c r="AU8" s="86"/>
+      <c r="AV8" s="86"/>
+      <c r="AW8" s="86"/>
+      <c r="AX8" s="86"/>
+      <c r="AY8" s="86"/>
+      <c r="AZ8" s="91"/>
     </row>
     <row r="9" spans="1:52" ht="90" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="157">
+      <c r="A9" s="115">
         <f t="shared" ref="A9" si="0">IF(G9="","",ROW()-ROW($A$6))</f>
         <v>3</v>
       </c>
-      <c r="B9" s="158"/>
-      <c r="C9" s="114" t="s">
-        <v>97</v>
-      </c>
-      <c r="D9" s="114"/>
-      <c r="E9" s="114"/>
-      <c r="F9" s="114"/>
-      <c r="G9" s="119" t="s">
-        <v>58</v>
-      </c>
-      <c r="H9" s="119"/>
-      <c r="I9" s="114" t="s">
-        <v>107</v>
-      </c>
-      <c r="J9" s="114"/>
-      <c r="K9" s="114"/>
-      <c r="L9" s="114"/>
-      <c r="M9" s="114"/>
-      <c r="N9" s="114"/>
-      <c r="O9" s="114"/>
-      <c r="P9" s="114" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q9" s="114"/>
-      <c r="R9" s="114"/>
-      <c r="S9" s="114"/>
-      <c r="T9" s="114"/>
-      <c r="U9" s="114"/>
-      <c r="V9" s="114"/>
-      <c r="W9" s="114" t="s">
-        <v>100</v>
-      </c>
-      <c r="X9" s="114"/>
-      <c r="Y9" s="114"/>
-      <c r="Z9" s="114"/>
-      <c r="AA9" s="114"/>
-      <c r="AB9" s="114"/>
-      <c r="AC9" s="114"/>
-      <c r="AD9" s="114"/>
-      <c r="AE9" s="114"/>
-      <c r="AF9" s="119" t="s">
+      <c r="B9" s="116"/>
+      <c r="C9" s="86" t="s">
+        <v>83</v>
+      </c>
+      <c r="D9" s="86"/>
+      <c r="E9" s="86"/>
+      <c r="F9" s="86"/>
+      <c r="G9" s="87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" s="87"/>
+      <c r="I9" s="86" t="s">
         <v>92</v>
       </c>
-      <c r="AG9" s="119"/>
-      <c r="AH9" s="119"/>
-      <c r="AI9" s="116"/>
-      <c r="AJ9" s="116"/>
-      <c r="AK9" s="116"/>
-      <c r="AL9" s="119"/>
-      <c r="AM9" s="119"/>
-      <c r="AN9" s="114"/>
-      <c r="AO9" s="114"/>
-      <c r="AP9" s="114"/>
-      <c r="AQ9" s="114"/>
-      <c r="AR9" s="114"/>
-      <c r="AS9" s="114"/>
-      <c r="AT9" s="114"/>
-      <c r="AU9" s="114"/>
-      <c r="AV9" s="114"/>
-      <c r="AW9" s="114"/>
-      <c r="AX9" s="114"/>
-      <c r="AY9" s="114"/>
-      <c r="AZ9" s="115"/>
+      <c r="J9" s="86"/>
+      <c r="K9" s="86"/>
+      <c r="L9" s="86"/>
+      <c r="M9" s="86"/>
+      <c r="N9" s="86"/>
+      <c r="O9" s="86"/>
+      <c r="P9" s="86" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q9" s="86"/>
+      <c r="R9" s="86"/>
+      <c r="S9" s="86"/>
+      <c r="T9" s="86"/>
+      <c r="U9" s="86"/>
+      <c r="V9" s="86"/>
+      <c r="W9" s="86" t="s">
+        <v>86</v>
+      </c>
+      <c r="X9" s="86"/>
+      <c r="Y9" s="86"/>
+      <c r="Z9" s="86"/>
+      <c r="AA9" s="86"/>
+      <c r="AB9" s="86"/>
+      <c r="AC9" s="86" t="s">
+        <v>98</v>
+      </c>
+      <c r="AD9" s="86"/>
+      <c r="AE9" s="86"/>
+      <c r="AF9" s="87" t="s">
+        <v>78</v>
+      </c>
+      <c r="AG9" s="87"/>
+      <c r="AH9" s="87"/>
+      <c r="AI9" s="92"/>
+      <c r="AJ9" s="92"/>
+      <c r="AK9" s="92"/>
+      <c r="AL9" s="87" t="s">
+        <v>103</v>
+      </c>
+      <c r="AM9" s="87"/>
+      <c r="AN9" s="86"/>
+      <c r="AO9" s="86"/>
+      <c r="AP9" s="86"/>
+      <c r="AQ9" s="86"/>
+      <c r="AR9" s="86"/>
+      <c r="AS9" s="86"/>
+      <c r="AT9" s="86"/>
+      <c r="AU9" s="86"/>
+      <c r="AV9" s="86"/>
+      <c r="AW9" s="86"/>
+      <c r="AX9" s="86"/>
+      <c r="AY9" s="86"/>
+      <c r="AZ9" s="91"/>
     </row>
     <row r="10" spans="1:52" ht="90" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="157">
+      <c r="A10" s="115">
         <f t="shared" ref="A10" si="1">IF(G10="","",ROW()-ROW($A$6))</f>
         <v>4</v>
       </c>
-      <c r="B10" s="158"/>
-      <c r="C10" s="114" t="s">
-        <v>98</v>
-      </c>
-      <c r="D10" s="114"/>
-      <c r="E10" s="114"/>
-      <c r="F10" s="114"/>
-      <c r="G10" s="119" t="s">
-        <v>58</v>
-      </c>
-      <c r="H10" s="119"/>
-      <c r="I10" s="114" t="s">
-        <v>108</v>
-      </c>
-      <c r="J10" s="114"/>
-      <c r="K10" s="114"/>
-      <c r="L10" s="114"/>
-      <c r="M10" s="114"/>
-      <c r="N10" s="114"/>
-      <c r="O10" s="114"/>
-      <c r="P10" s="114" t="s">
+      <c r="B10" s="116"/>
+      <c r="C10" s="86" t="s">
+        <v>84</v>
+      </c>
+      <c r="D10" s="86"/>
+      <c r="E10" s="86"/>
+      <c r="F10" s="86"/>
+      <c r="G10" s="87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" s="87"/>
+      <c r="I10" s="86" t="s">
+        <v>93</v>
+      </c>
+      <c r="J10" s="86"/>
+      <c r="K10" s="86"/>
+      <c r="L10" s="86"/>
+      <c r="M10" s="86"/>
+      <c r="N10" s="86"/>
+      <c r="O10" s="86"/>
+      <c r="P10" s="86" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q10" s="86"/>
+      <c r="R10" s="86"/>
+      <c r="S10" s="86"/>
+      <c r="T10" s="86"/>
+      <c r="U10" s="86"/>
+      <c r="V10" s="86"/>
+      <c r="W10" s="86" t="s">
+        <v>89</v>
+      </c>
+      <c r="X10" s="86"/>
+      <c r="Y10" s="86"/>
+      <c r="Z10" s="86"/>
+      <c r="AA10" s="86"/>
+      <c r="AB10" s="86"/>
+      <c r="AC10" s="86" t="s">
         <v>99</v>
       </c>
-      <c r="Q10" s="114"/>
-      <c r="R10" s="114"/>
-      <c r="S10" s="114"/>
-      <c r="T10" s="114"/>
-      <c r="U10" s="114"/>
-      <c r="V10" s="114"/>
-      <c r="W10" s="114" t="s">
-        <v>104</v>
-      </c>
-      <c r="X10" s="114"/>
-      <c r="Y10" s="114"/>
-      <c r="Z10" s="114"/>
-      <c r="AA10" s="114"/>
-      <c r="AB10" s="114"/>
-      <c r="AC10" s="114"/>
-      <c r="AD10" s="114"/>
-      <c r="AE10" s="114"/>
-      <c r="AF10" s="119" t="s">
-        <v>92</v>
-      </c>
-      <c r="AG10" s="119"/>
-      <c r="AH10" s="119"/>
-      <c r="AI10" s="116"/>
-      <c r="AJ10" s="116"/>
-      <c r="AK10" s="116"/>
-      <c r="AL10" s="119"/>
-      <c r="AM10" s="119"/>
-      <c r="AN10" s="114"/>
-      <c r="AO10" s="114"/>
-      <c r="AP10" s="114"/>
-      <c r="AQ10" s="114"/>
-      <c r="AR10" s="114"/>
-      <c r="AS10" s="114"/>
-      <c r="AT10" s="114"/>
-      <c r="AU10" s="114"/>
-      <c r="AV10" s="114"/>
-      <c r="AW10" s="114"/>
-      <c r="AX10" s="114"/>
-      <c r="AY10" s="114"/>
-      <c r="AZ10" s="115"/>
+      <c r="AD10" s="86"/>
+      <c r="AE10" s="86"/>
+      <c r="AF10" s="87" t="s">
+        <v>78</v>
+      </c>
+      <c r="AG10" s="87"/>
+      <c r="AH10" s="87"/>
+      <c r="AI10" s="92"/>
+      <c r="AJ10" s="92"/>
+      <c r="AK10" s="92"/>
+      <c r="AL10" s="87" t="s">
+        <v>103</v>
+      </c>
+      <c r="AM10" s="87"/>
+      <c r="AN10" s="86"/>
+      <c r="AO10" s="86"/>
+      <c r="AP10" s="86"/>
+      <c r="AQ10" s="86"/>
+      <c r="AR10" s="86"/>
+      <c r="AS10" s="86"/>
+      <c r="AT10" s="86"/>
+      <c r="AU10" s="86"/>
+      <c r="AV10" s="86"/>
+      <c r="AW10" s="86"/>
+      <c r="AX10" s="86"/>
+      <c r="AY10" s="86"/>
+      <c r="AZ10" s="91"/>
     </row>
     <row r="11" spans="1:52" ht="90" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="157">
+      <c r="A11" s="115">
         <f t="shared" ref="A11" si="2">IF(G11="","",ROW()-ROW($A$6))</f>
         <v>5</v>
       </c>
-      <c r="B11" s="158"/>
-      <c r="C11" s="114" t="s">
-        <v>93</v>
-      </c>
-      <c r="D11" s="114"/>
-      <c r="E11" s="114"/>
-      <c r="F11" s="114"/>
-      <c r="G11" s="119" t="s">
-        <v>58</v>
-      </c>
-      <c r="H11" s="119"/>
-      <c r="I11" s="114" t="s">
-        <v>109</v>
-      </c>
-      <c r="J11" s="114"/>
-      <c r="K11" s="114"/>
-      <c r="L11" s="114"/>
-      <c r="M11" s="114"/>
-      <c r="N11" s="114"/>
-      <c r="O11" s="114"/>
-      <c r="P11" s="114" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q11" s="114"/>
-      <c r="R11" s="114"/>
-      <c r="S11" s="114"/>
-      <c r="T11" s="114"/>
-      <c r="U11" s="114"/>
-      <c r="V11" s="114"/>
-      <c r="W11" s="114" t="s">
-        <v>105</v>
-      </c>
-      <c r="X11" s="114"/>
-      <c r="Y11" s="114"/>
-      <c r="Z11" s="114"/>
-      <c r="AA11" s="114"/>
-      <c r="AB11" s="114"/>
-      <c r="AC11" s="114"/>
-      <c r="AD11" s="114"/>
-      <c r="AE11" s="114"/>
-      <c r="AF11" s="119" t="s">
-        <v>92</v>
-      </c>
-      <c r="AG11" s="119"/>
-      <c r="AH11" s="119"/>
-      <c r="AI11" s="116"/>
-      <c r="AJ11" s="116"/>
-      <c r="AK11" s="116"/>
-      <c r="AL11" s="119"/>
-      <c r="AM11" s="119"/>
-      <c r="AN11" s="114"/>
-      <c r="AO11" s="114"/>
-      <c r="AP11" s="114"/>
-      <c r="AQ11" s="114"/>
-      <c r="AR11" s="114"/>
-      <c r="AS11" s="114"/>
-      <c r="AT11" s="114"/>
-      <c r="AU11" s="114"/>
-      <c r="AV11" s="114"/>
-      <c r="AW11" s="114"/>
-      <c r="AX11" s="114"/>
-      <c r="AY11" s="114"/>
-      <c r="AZ11" s="115"/>
+      <c r="B11" s="116"/>
+      <c r="C11" s="86" t="s">
+        <v>79</v>
+      </c>
+      <c r="D11" s="86"/>
+      <c r="E11" s="86"/>
+      <c r="F11" s="86"/>
+      <c r="G11" s="87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" s="87"/>
+      <c r="I11" s="86" t="s">
+        <v>94</v>
+      </c>
+      <c r="J11" s="86"/>
+      <c r="K11" s="86"/>
+      <c r="L11" s="86"/>
+      <c r="M11" s="86"/>
+      <c r="N11" s="86"/>
+      <c r="O11" s="86"/>
+      <c r="P11" s="86" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q11" s="86"/>
+      <c r="R11" s="86"/>
+      <c r="S11" s="86"/>
+      <c r="T11" s="86"/>
+      <c r="U11" s="86"/>
+      <c r="V11" s="86"/>
+      <c r="W11" s="86" t="s">
+        <v>90</v>
+      </c>
+      <c r="X11" s="86"/>
+      <c r="Y11" s="86"/>
+      <c r="Z11" s="86"/>
+      <c r="AA11" s="86"/>
+      <c r="AB11" s="86"/>
+      <c r="AC11" s="86" t="s">
+        <v>100</v>
+      </c>
+      <c r="AD11" s="86"/>
+      <c r="AE11" s="86"/>
+      <c r="AF11" s="87" t="s">
+        <v>78</v>
+      </c>
+      <c r="AG11" s="87"/>
+      <c r="AH11" s="87"/>
+      <c r="AI11" s="92"/>
+      <c r="AJ11" s="92"/>
+      <c r="AK11" s="92"/>
+      <c r="AL11" s="87" t="s">
+        <v>103</v>
+      </c>
+      <c r="AM11" s="87"/>
+      <c r="AN11" s="86"/>
+      <c r="AO11" s="86"/>
+      <c r="AP11" s="86"/>
+      <c r="AQ11" s="86"/>
+      <c r="AR11" s="86"/>
+      <c r="AS11" s="86"/>
+      <c r="AT11" s="86"/>
+      <c r="AU11" s="86"/>
+      <c r="AV11" s="86"/>
+      <c r="AW11" s="86"/>
+      <c r="AX11" s="86"/>
+      <c r="AY11" s="86"/>
+      <c r="AZ11" s="91"/>
     </row>
     <row r="12" spans="1:52" ht="90" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="157">
+      <c r="A12" s="115">
         <f t="shared" ref="A12:A16" si="3">IF(G12="","",ROW()-ROW($A$6))</f>
         <v>6</v>
       </c>
-      <c r="B12" s="158"/>
-      <c r="C12" s="114" t="s">
-        <v>97</v>
-      </c>
-      <c r="D12" s="114"/>
-      <c r="E12" s="114"/>
-      <c r="F12" s="114"/>
-      <c r="G12" s="119" t="s">
-        <v>58</v>
-      </c>
-      <c r="H12" s="119"/>
-      <c r="I12" s="114" t="s">
-        <v>110</v>
-      </c>
-      <c r="J12" s="114"/>
-      <c r="K12" s="114"/>
-      <c r="L12" s="114"/>
-      <c r="M12" s="114"/>
-      <c r="N12" s="114"/>
-      <c r="O12" s="114"/>
-      <c r="P12" s="114" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q12" s="114"/>
-      <c r="R12" s="114"/>
-      <c r="S12" s="114"/>
-      <c r="T12" s="114"/>
-      <c r="U12" s="114"/>
-      <c r="V12" s="114"/>
-      <c r="W12" s="114" t="s">
+      <c r="B12" s="116"/>
+      <c r="C12" s="86" t="s">
+        <v>83</v>
+      </c>
+      <c r="D12" s="86"/>
+      <c r="E12" s="86"/>
+      <c r="F12" s="86"/>
+      <c r="G12" s="87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" s="87"/>
+      <c r="I12" s="86" t="s">
+        <v>95</v>
+      </c>
+      <c r="J12" s="86"/>
+      <c r="K12" s="86"/>
+      <c r="L12" s="86"/>
+      <c r="M12" s="86"/>
+      <c r="N12" s="86"/>
+      <c r="O12" s="86"/>
+      <c r="P12" s="86" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q12" s="86"/>
+      <c r="R12" s="86"/>
+      <c r="S12" s="86"/>
+      <c r="T12" s="86"/>
+      <c r="U12" s="86"/>
+      <c r="V12" s="86"/>
+      <c r="W12" s="86" t="s">
+        <v>87</v>
+      </c>
+      <c r="X12" s="86"/>
+      <c r="Y12" s="86"/>
+      <c r="Z12" s="86"/>
+      <c r="AA12" s="86"/>
+      <c r="AB12" s="86"/>
+      <c r="AC12" s="86" t="s">
         <v>101</v>
       </c>
-      <c r="X12" s="114"/>
-      <c r="Y12" s="114"/>
-      <c r="Z12" s="114"/>
-      <c r="AA12" s="114"/>
-      <c r="AB12" s="114"/>
-      <c r="AC12" s="114"/>
-      <c r="AD12" s="114"/>
-      <c r="AE12" s="114"/>
-      <c r="AF12" s="119" t="s">
-        <v>92</v>
-      </c>
-      <c r="AG12" s="119"/>
-      <c r="AH12" s="119"/>
-      <c r="AI12" s="116"/>
-      <c r="AJ12" s="116"/>
-      <c r="AK12" s="116"/>
-      <c r="AL12" s="119"/>
-      <c r="AM12" s="119"/>
-      <c r="AN12" s="114"/>
-      <c r="AO12" s="114"/>
-      <c r="AP12" s="114"/>
-      <c r="AQ12" s="114"/>
-      <c r="AR12" s="114"/>
-      <c r="AS12" s="114"/>
-      <c r="AT12" s="114"/>
-      <c r="AU12" s="114"/>
-      <c r="AV12" s="114"/>
-      <c r="AW12" s="114"/>
-      <c r="AX12" s="114"/>
-      <c r="AY12" s="114"/>
-      <c r="AZ12" s="115"/>
+      <c r="AD12" s="86"/>
+      <c r="AE12" s="86"/>
+      <c r="AF12" s="87" t="s">
+        <v>78</v>
+      </c>
+      <c r="AG12" s="87"/>
+      <c r="AH12" s="87"/>
+      <c r="AI12" s="92"/>
+      <c r="AJ12" s="92"/>
+      <c r="AK12" s="92"/>
+      <c r="AL12" s="87" t="s">
+        <v>103</v>
+      </c>
+      <c r="AM12" s="87"/>
+      <c r="AN12" s="86"/>
+      <c r="AO12" s="86"/>
+      <c r="AP12" s="86"/>
+      <c r="AQ12" s="86"/>
+      <c r="AR12" s="86"/>
+      <c r="AS12" s="86"/>
+      <c r="AT12" s="86"/>
+      <c r="AU12" s="86"/>
+      <c r="AV12" s="86"/>
+      <c r="AW12" s="86"/>
+      <c r="AX12" s="86"/>
+      <c r="AY12" s="86"/>
+      <c r="AZ12" s="91"/>
     </row>
     <row r="13" spans="1:52" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="157" t="str">
+      <c r="A13" s="115" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="B13" s="158"/>
-      <c r="C13" s="114"/>
-      <c r="D13" s="114"/>
-      <c r="E13" s="114"/>
-      <c r="F13" s="114"/>
-      <c r="G13" s="119"/>
-      <c r="H13" s="119"/>
-      <c r="I13" s="114"/>
-      <c r="J13" s="114"/>
-      <c r="K13" s="114"/>
-      <c r="L13" s="114"/>
-      <c r="M13" s="114"/>
-      <c r="N13" s="114"/>
-      <c r="O13" s="114"/>
-      <c r="P13" s="114"/>
-      <c r="Q13" s="114"/>
-      <c r="R13" s="114"/>
-      <c r="S13" s="114"/>
-      <c r="T13" s="114"/>
-      <c r="U13" s="114"/>
-      <c r="V13" s="114"/>
-      <c r="W13" s="114"/>
-      <c r="X13" s="114"/>
-      <c r="Y13" s="114"/>
-      <c r="Z13" s="114"/>
-      <c r="AA13" s="114"/>
-      <c r="AB13" s="114"/>
-      <c r="AC13" s="114"/>
-      <c r="AD13" s="114"/>
-      <c r="AE13" s="114"/>
-      <c r="AF13" s="119"/>
-      <c r="AG13" s="119"/>
-      <c r="AH13" s="119"/>
-      <c r="AI13" s="116"/>
-      <c r="AJ13" s="116"/>
-      <c r="AK13" s="116"/>
-      <c r="AL13" s="119"/>
-      <c r="AM13" s="119"/>
-      <c r="AN13" s="114"/>
-      <c r="AO13" s="114"/>
-      <c r="AP13" s="114"/>
-      <c r="AQ13" s="114"/>
-      <c r="AR13" s="114"/>
-      <c r="AS13" s="114"/>
-      <c r="AT13" s="114"/>
-      <c r="AU13" s="114"/>
-      <c r="AV13" s="114"/>
-      <c r="AW13" s="114"/>
-      <c r="AX13" s="114"/>
-      <c r="AY13" s="114"/>
-      <c r="AZ13" s="115"/>
+      <c r="B13" s="116"/>
+      <c r="C13" s="86"/>
+      <c r="D13" s="86"/>
+      <c r="E13" s="86"/>
+      <c r="F13" s="86"/>
+      <c r="G13" s="87"/>
+      <c r="H13" s="87"/>
+      <c r="I13" s="86"/>
+      <c r="J13" s="86"/>
+      <c r="K13" s="86"/>
+      <c r="L13" s="86"/>
+      <c r="M13" s="86"/>
+      <c r="N13" s="86"/>
+      <c r="O13" s="86"/>
+      <c r="P13" s="86"/>
+      <c r="Q13" s="86"/>
+      <c r="R13" s="86"/>
+      <c r="S13" s="86"/>
+      <c r="T13" s="86"/>
+      <c r="U13" s="86"/>
+      <c r="V13" s="86"/>
+      <c r="W13" s="86"/>
+      <c r="X13" s="86"/>
+      <c r="Y13" s="86"/>
+      <c r="Z13" s="86"/>
+      <c r="AA13" s="86"/>
+      <c r="AB13" s="86"/>
+      <c r="AC13" s="86"/>
+      <c r="AD13" s="86"/>
+      <c r="AE13" s="86"/>
+      <c r="AF13" s="87"/>
+      <c r="AG13" s="87"/>
+      <c r="AH13" s="87"/>
+      <c r="AI13" s="92"/>
+      <c r="AJ13" s="92"/>
+      <c r="AK13" s="92"/>
+      <c r="AL13" s="87"/>
+      <c r="AM13" s="87"/>
+      <c r="AN13" s="86"/>
+      <c r="AO13" s="86"/>
+      <c r="AP13" s="86"/>
+      <c r="AQ13" s="86"/>
+      <c r="AR13" s="86"/>
+      <c r="AS13" s="86"/>
+      <c r="AT13" s="86"/>
+      <c r="AU13" s="86"/>
+      <c r="AV13" s="86"/>
+      <c r="AW13" s="86"/>
+      <c r="AX13" s="86"/>
+      <c r="AY13" s="86"/>
+      <c r="AZ13" s="91"/>
     </row>
     <row r="14" spans="1:52" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="157" t="str">
+      <c r="A14" s="115" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="B14" s="158"/>
-      <c r="C14" s="114"/>
-      <c r="D14" s="114"/>
-      <c r="E14" s="114"/>
-      <c r="F14" s="114"/>
-      <c r="G14" s="119"/>
-      <c r="H14" s="119"/>
-      <c r="I14" s="114"/>
-      <c r="J14" s="114"/>
-      <c r="K14" s="114"/>
-      <c r="L14" s="114"/>
-      <c r="M14" s="114"/>
-      <c r="N14" s="114"/>
-      <c r="O14" s="114"/>
-      <c r="P14" s="114"/>
-      <c r="Q14" s="114"/>
-      <c r="R14" s="114"/>
-      <c r="S14" s="114"/>
-      <c r="T14" s="114"/>
-      <c r="U14" s="114"/>
-      <c r="V14" s="114"/>
-      <c r="W14" s="114"/>
-      <c r="X14" s="114"/>
-      <c r="Y14" s="114"/>
-      <c r="Z14" s="114"/>
-      <c r="AA14" s="114"/>
-      <c r="AB14" s="114"/>
-      <c r="AC14" s="114"/>
-      <c r="AD14" s="114"/>
-      <c r="AE14" s="114"/>
-      <c r="AF14" s="119"/>
-      <c r="AG14" s="119"/>
-      <c r="AH14" s="119"/>
-      <c r="AI14" s="116"/>
-      <c r="AJ14" s="116"/>
-      <c r="AK14" s="116"/>
-      <c r="AL14" s="119"/>
-      <c r="AM14" s="119"/>
-      <c r="AN14" s="114"/>
-      <c r="AO14" s="114"/>
-      <c r="AP14" s="114"/>
-      <c r="AQ14" s="114"/>
-      <c r="AR14" s="114"/>
-      <c r="AS14" s="114"/>
-      <c r="AT14" s="114"/>
-      <c r="AU14" s="114"/>
-      <c r="AV14" s="114"/>
-      <c r="AW14" s="114"/>
-      <c r="AX14" s="114"/>
-      <c r="AY14" s="114"/>
-      <c r="AZ14" s="115"/>
+      <c r="B14" s="116"/>
+      <c r="C14" s="86"/>
+      <c r="D14" s="86"/>
+      <c r="E14" s="86"/>
+      <c r="F14" s="86"/>
+      <c r="G14" s="87"/>
+      <c r="H14" s="87"/>
+      <c r="I14" s="86"/>
+      <c r="J14" s="86"/>
+      <c r="K14" s="86"/>
+      <c r="L14" s="86"/>
+      <c r="M14" s="86"/>
+      <c r="N14" s="86"/>
+      <c r="O14" s="86"/>
+      <c r="P14" s="86"/>
+      <c r="Q14" s="86"/>
+      <c r="R14" s="86"/>
+      <c r="S14" s="86"/>
+      <c r="T14" s="86"/>
+      <c r="U14" s="86"/>
+      <c r="V14" s="86"/>
+      <c r="W14" s="86"/>
+      <c r="X14" s="86"/>
+      <c r="Y14" s="86"/>
+      <c r="Z14" s="86"/>
+      <c r="AA14" s="86"/>
+      <c r="AB14" s="86"/>
+      <c r="AC14" s="86"/>
+      <c r="AD14" s="86"/>
+      <c r="AE14" s="86"/>
+      <c r="AF14" s="87"/>
+      <c r="AG14" s="87"/>
+      <c r="AH14" s="87"/>
+      <c r="AI14" s="92"/>
+      <c r="AJ14" s="92"/>
+      <c r="AK14" s="92"/>
+      <c r="AL14" s="87"/>
+      <c r="AM14" s="87"/>
+      <c r="AN14" s="86"/>
+      <c r="AO14" s="86"/>
+      <c r="AP14" s="86"/>
+      <c r="AQ14" s="86"/>
+      <c r="AR14" s="86"/>
+      <c r="AS14" s="86"/>
+      <c r="AT14" s="86"/>
+      <c r="AU14" s="86"/>
+      <c r="AV14" s="86"/>
+      <c r="AW14" s="86"/>
+      <c r="AX14" s="86"/>
+      <c r="AY14" s="86"/>
+      <c r="AZ14" s="91"/>
     </row>
     <row r="15" spans="1:52" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="157" t="str">
+      <c r="A15" s="115" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="B15" s="158"/>
-      <c r="C15" s="114"/>
-      <c r="D15" s="114"/>
-      <c r="E15" s="114"/>
-      <c r="F15" s="114"/>
-      <c r="G15" s="119"/>
-      <c r="H15" s="119"/>
-      <c r="I15" s="114"/>
-      <c r="J15" s="114"/>
-      <c r="K15" s="114"/>
-      <c r="L15" s="114"/>
-      <c r="M15" s="114"/>
-      <c r="N15" s="114"/>
-      <c r="O15" s="114"/>
-      <c r="P15" s="114"/>
-      <c r="Q15" s="114"/>
-      <c r="R15" s="114"/>
-      <c r="S15" s="114"/>
-      <c r="T15" s="114"/>
-      <c r="U15" s="114"/>
-      <c r="V15" s="114"/>
-      <c r="W15" s="114"/>
-      <c r="X15" s="114"/>
-      <c r="Y15" s="114"/>
-      <c r="Z15" s="114"/>
-      <c r="AA15" s="114"/>
-      <c r="AB15" s="114"/>
-      <c r="AC15" s="114"/>
-      <c r="AD15" s="114"/>
-      <c r="AE15" s="114"/>
-      <c r="AF15" s="119"/>
-      <c r="AG15" s="119"/>
-      <c r="AH15" s="119"/>
-      <c r="AI15" s="116"/>
-      <c r="AJ15" s="116"/>
-      <c r="AK15" s="116"/>
-      <c r="AL15" s="119"/>
-      <c r="AM15" s="119"/>
-      <c r="AN15" s="114"/>
-      <c r="AO15" s="114"/>
-      <c r="AP15" s="114"/>
-      <c r="AQ15" s="114"/>
-      <c r="AR15" s="114"/>
-      <c r="AS15" s="114"/>
-      <c r="AT15" s="114"/>
-      <c r="AU15" s="114"/>
-      <c r="AV15" s="114"/>
-      <c r="AW15" s="114"/>
-      <c r="AX15" s="114"/>
-      <c r="AY15" s="114"/>
-      <c r="AZ15" s="115"/>
+      <c r="B15" s="116"/>
+      <c r="C15" s="86"/>
+      <c r="D15" s="86"/>
+      <c r="E15" s="86"/>
+      <c r="F15" s="86"/>
+      <c r="G15" s="87"/>
+      <c r="H15" s="87"/>
+      <c r="I15" s="86"/>
+      <c r="J15" s="86"/>
+      <c r="K15" s="86"/>
+      <c r="L15" s="86"/>
+      <c r="M15" s="86"/>
+      <c r="N15" s="86"/>
+      <c r="O15" s="86"/>
+      <c r="P15" s="86"/>
+      <c r="Q15" s="86"/>
+      <c r="R15" s="86"/>
+      <c r="S15" s="86"/>
+      <c r="T15" s="86"/>
+      <c r="U15" s="86"/>
+      <c r="V15" s="86"/>
+      <c r="W15" s="86"/>
+      <c r="X15" s="86"/>
+      <c r="Y15" s="86"/>
+      <c r="Z15" s="86"/>
+      <c r="AA15" s="86"/>
+      <c r="AB15" s="86"/>
+      <c r="AC15" s="86"/>
+      <c r="AD15" s="86"/>
+      <c r="AE15" s="86"/>
+      <c r="AF15" s="87"/>
+      <c r="AG15" s="87"/>
+      <c r="AH15" s="87"/>
+      <c r="AI15" s="92"/>
+      <c r="AJ15" s="92"/>
+      <c r="AK15" s="92"/>
+      <c r="AL15" s="87"/>
+      <c r="AM15" s="87"/>
+      <c r="AN15" s="86"/>
+      <c r="AO15" s="86"/>
+      <c r="AP15" s="86"/>
+      <c r="AQ15" s="86"/>
+      <c r="AR15" s="86"/>
+      <c r="AS15" s="86"/>
+      <c r="AT15" s="86"/>
+      <c r="AU15" s="86"/>
+      <c r="AV15" s="86"/>
+      <c r="AW15" s="86"/>
+      <c r="AX15" s="86"/>
+      <c r="AY15" s="86"/>
+      <c r="AZ15" s="91"/>
     </row>
     <row r="16" spans="1:52" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="162" t="str">
+      <c r="A16" s="133" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="B16" s="163"/>
-      <c r="C16" s="160"/>
-      <c r="D16" s="160"/>
-      <c r="E16" s="160"/>
-      <c r="F16" s="160"/>
-      <c r="G16" s="159"/>
-      <c r="H16" s="159"/>
-      <c r="I16" s="160"/>
-      <c r="J16" s="160"/>
-      <c r="K16" s="160"/>
-      <c r="L16" s="160"/>
-      <c r="M16" s="160"/>
-      <c r="N16" s="160"/>
-      <c r="O16" s="160"/>
-      <c r="P16" s="160"/>
-      <c r="Q16" s="160"/>
-      <c r="R16" s="160"/>
-      <c r="S16" s="160"/>
-      <c r="T16" s="160"/>
-      <c r="U16" s="160"/>
-      <c r="V16" s="160"/>
-      <c r="W16" s="160"/>
-      <c r="X16" s="160"/>
-      <c r="Y16" s="160"/>
-      <c r="Z16" s="160"/>
-      <c r="AA16" s="160"/>
-      <c r="AB16" s="160"/>
-      <c r="AC16" s="160"/>
-      <c r="AD16" s="160"/>
-      <c r="AE16" s="160"/>
-      <c r="AF16" s="159"/>
-      <c r="AG16" s="159"/>
-      <c r="AH16" s="159"/>
-      <c r="AI16" s="164"/>
-      <c r="AJ16" s="164"/>
-      <c r="AK16" s="164"/>
-      <c r="AL16" s="159"/>
-      <c r="AM16" s="159"/>
-      <c r="AN16" s="160"/>
-      <c r="AO16" s="160"/>
-      <c r="AP16" s="160"/>
-      <c r="AQ16" s="160"/>
-      <c r="AR16" s="160"/>
-      <c r="AS16" s="160"/>
-      <c r="AT16" s="160"/>
-      <c r="AU16" s="160"/>
-      <c r="AV16" s="160"/>
-      <c r="AW16" s="160"/>
-      <c r="AX16" s="160"/>
-      <c r="AY16" s="160"/>
-      <c r="AZ16" s="161"/>
+      <c r="B16" s="134"/>
+      <c r="C16" s="131"/>
+      <c r="D16" s="131"/>
+      <c r="E16" s="131"/>
+      <c r="F16" s="131"/>
+      <c r="G16" s="130"/>
+      <c r="H16" s="130"/>
+      <c r="I16" s="131"/>
+      <c r="J16" s="131"/>
+      <c r="K16" s="131"/>
+      <c r="L16" s="131"/>
+      <c r="M16" s="131"/>
+      <c r="N16" s="131"/>
+      <c r="O16" s="131"/>
+      <c r="P16" s="131"/>
+      <c r="Q16" s="131"/>
+      <c r="R16" s="131"/>
+      <c r="S16" s="131"/>
+      <c r="T16" s="131"/>
+      <c r="U16" s="131"/>
+      <c r="V16" s="131"/>
+      <c r="W16" s="131"/>
+      <c r="X16" s="131"/>
+      <c r="Y16" s="131"/>
+      <c r="Z16" s="131"/>
+      <c r="AA16" s="131"/>
+      <c r="AB16" s="131"/>
+      <c r="AC16" s="131"/>
+      <c r="AD16" s="131"/>
+      <c r="AE16" s="131"/>
+      <c r="AF16" s="130"/>
+      <c r="AG16" s="130"/>
+      <c r="AH16" s="130"/>
+      <c r="AI16" s="135"/>
+      <c r="AJ16" s="135"/>
+      <c r="AK16" s="135"/>
+      <c r="AL16" s="130"/>
+      <c r="AM16" s="130"/>
+      <c r="AN16" s="131"/>
+      <c r="AO16" s="131"/>
+      <c r="AP16" s="131"/>
+      <c r="AQ16" s="131"/>
+      <c r="AR16" s="131"/>
+      <c r="AS16" s="131"/>
+      <c r="AT16" s="131"/>
+      <c r="AU16" s="131"/>
+      <c r="AV16" s="131"/>
+      <c r="AW16" s="131"/>
+      <c r="AX16" s="131"/>
+      <c r="AY16" s="131"/>
+      <c r="AZ16" s="132"/>
     </row>
   </sheetData>
   <mergeCells count="160">
@@ -6676,8 +5684,6 @@
     <mergeCell ref="AC10:AE10"/>
     <mergeCell ref="AF10:AH10"/>
     <mergeCell ref="AI10:AK10"/>
-    <mergeCell ref="AN8:AQ8"/>
-    <mergeCell ref="AR8:AZ8"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="C8:F8"/>
     <mergeCell ref="G8:H8"/>
@@ -6711,8 +5717,6 @@
     <mergeCell ref="J3:P3"/>
     <mergeCell ref="E1:P2"/>
     <mergeCell ref="E3:I3"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="G6:H6"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="C7:F7"/>
     <mergeCell ref="G7:H7"/>
@@ -6735,8 +5739,6 @@
     <mergeCell ref="AG5:AL5"/>
     <mergeCell ref="AM5:AT5"/>
     <mergeCell ref="AI7:AK7"/>
-    <mergeCell ref="AL7:AM7"/>
-    <mergeCell ref="AN7:AQ7"/>
     <mergeCell ref="AR7:AZ7"/>
     <mergeCell ref="AF6:AH6"/>
     <mergeCell ref="AN9:AQ9"/>
@@ -6745,6 +5747,10 @@
     <mergeCell ref="AR6:AZ6"/>
     <mergeCell ref="AN6:AQ6"/>
     <mergeCell ref="AL6:AM6"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="AN8:AQ8"/>
+    <mergeCell ref="AR8:AZ8"/>
     <mergeCell ref="W6:AB6"/>
     <mergeCell ref="P6:V6"/>
     <mergeCell ref="AC9:AE9"/>
@@ -6752,6 +5758,8 @@
     <mergeCell ref="P9:V9"/>
     <mergeCell ref="W9:AB9"/>
     <mergeCell ref="AF9:AH9"/>
+    <mergeCell ref="AL7:AM7"/>
+    <mergeCell ref="AN7:AQ7"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="1">
@@ -6767,7 +5775,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AZ35"/>
   <sheetViews>
@@ -6781,284 +5789,284 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="142" t="s">
-        <v>34</v>
-      </c>
-      <c r="B1" s="143"/>
-      <c r="C1" s="143"/>
-      <c r="D1" s="143"/>
-      <c r="E1" s="152" t="str">
+      <c r="A1" s="117" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="118"/>
+      <c r="C1" s="118"/>
+      <c r="D1" s="118"/>
+      <c r="E1" s="127" t="str">
         <f>表紙!O7</f>
-        <v>QuizSheet
+        <v>QuizSheet改修(要件ex)
 単体テスト仕様書</v>
       </c>
-      <c r="F1" s="152"/>
-      <c r="G1" s="152"/>
-      <c r="H1" s="152"/>
-      <c r="I1" s="152"/>
-      <c r="J1" s="152"/>
-      <c r="K1" s="152"/>
-      <c r="L1" s="152"/>
-      <c r="M1" s="152"/>
-      <c r="N1" s="152"/>
-      <c r="O1" s="152"/>
-      <c r="P1" s="152"/>
-      <c r="Q1" s="141" t="s">
-        <v>20</v>
-      </c>
-      <c r="R1" s="141"/>
-      <c r="S1" s="141"/>
-      <c r="T1" s="141"/>
-      <c r="U1" s="141"/>
-      <c r="V1" s="141"/>
-      <c r="W1" s="141"/>
-      <c r="X1" s="141" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y1" s="141"/>
-      <c r="Z1" s="141"/>
-      <c r="AA1" s="141"/>
-      <c r="AB1" s="141"/>
-      <c r="AC1" s="141"/>
-      <c r="AD1" s="141"/>
-      <c r="AE1" s="141" t="s">
-        <v>36</v>
-      </c>
-      <c r="AF1" s="141"/>
-      <c r="AG1" s="141"/>
-      <c r="AH1" s="141"/>
-      <c r="AI1" s="141"/>
-      <c r="AJ1" s="141"/>
-      <c r="AK1" s="141"/>
-      <c r="AL1" s="131" t="s">
+      <c r="F1" s="127"/>
+      <c r="G1" s="127"/>
+      <c r="H1" s="127"/>
+      <c r="I1" s="127"/>
+      <c r="J1" s="127"/>
+      <c r="K1" s="127"/>
+      <c r="L1" s="127"/>
+      <c r="M1" s="127"/>
+      <c r="N1" s="127"/>
+      <c r="O1" s="127"/>
+      <c r="P1" s="127"/>
+      <c r="Q1" s="106" t="s">
+        <v>8</v>
+      </c>
+      <c r="R1" s="106"/>
+      <c r="S1" s="106"/>
+      <c r="T1" s="106"/>
+      <c r="U1" s="106"/>
+      <c r="V1" s="106"/>
+      <c r="W1" s="106"/>
+      <c r="X1" s="106" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="106"/>
+      <c r="Z1" s="106"/>
+      <c r="AA1" s="106"/>
+      <c r="AB1" s="106"/>
+      <c r="AC1" s="106"/>
+      <c r="AD1" s="106"/>
+      <c r="AE1" s="106" t="s">
+        <v>24</v>
+      </c>
+      <c r="AF1" s="106"/>
+      <c r="AG1" s="106"/>
+      <c r="AH1" s="106"/>
+      <c r="AI1" s="106"/>
+      <c r="AJ1" s="106"/>
+      <c r="AK1" s="106"/>
+      <c r="AL1" s="96" t="s">
         <v>0</v>
       </c>
-      <c r="AM1" s="131"/>
-      <c r="AN1" s="131"/>
-      <c r="AO1" s="131" t="s">
-        <v>4</v>
-      </c>
-      <c r="AP1" s="132"/>
-      <c r="AQ1" s="132"/>
-      <c r="AR1" s="132"/>
-      <c r="AS1" s="131" t="s">
-        <v>5</v>
-      </c>
-      <c r="AT1" s="132"/>
-      <c r="AU1" s="132"/>
-      <c r="AV1" s="132"/>
-      <c r="AW1" s="131" t="s">
-        <v>6</v>
-      </c>
-      <c r="AX1" s="132"/>
-      <c r="AY1" s="132"/>
-      <c r="AZ1" s="136"/>
+      <c r="AM1" s="96"/>
+      <c r="AN1" s="96"/>
+      <c r="AO1" s="96" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP1" s="97"/>
+      <c r="AQ1" s="97"/>
+      <c r="AR1" s="97"/>
+      <c r="AS1" s="96" t="s">
+        <v>2</v>
+      </c>
+      <c r="AT1" s="97"/>
+      <c r="AU1" s="97"/>
+      <c r="AV1" s="97"/>
+      <c r="AW1" s="96" t="s">
+        <v>3</v>
+      </c>
+      <c r="AX1" s="97"/>
+      <c r="AY1" s="97"/>
+      <c r="AZ1" s="101"/>
     </row>
     <row r="2" spans="1:52" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="144"/>
-      <c r="B2" s="145"/>
-      <c r="C2" s="145"/>
-      <c r="D2" s="145"/>
-      <c r="E2" s="153"/>
-      <c r="F2" s="153"/>
-      <c r="G2" s="153"/>
-      <c r="H2" s="153"/>
-      <c r="I2" s="153"/>
-      <c r="J2" s="153"/>
-      <c r="K2" s="153"/>
-      <c r="L2" s="153"/>
-      <c r="M2" s="153"/>
-      <c r="N2" s="153"/>
-      <c r="O2" s="153"/>
-      <c r="P2" s="153"/>
-      <c r="Q2" s="137" t="str">
+      <c r="A2" s="119"/>
+      <c r="B2" s="120"/>
+      <c r="C2" s="120"/>
+      <c r="D2" s="120"/>
+      <c r="E2" s="128"/>
+      <c r="F2" s="128"/>
+      <c r="G2" s="128"/>
+      <c r="H2" s="128"/>
+      <c r="I2" s="128"/>
+      <c r="J2" s="128"/>
+      <c r="K2" s="128"/>
+      <c r="L2" s="128"/>
+      <c r="M2" s="128"/>
+      <c r="N2" s="128"/>
+      <c r="O2" s="128"/>
+      <c r="P2" s="128"/>
+      <c r="Q2" s="102" t="str">
         <f>表紙!X22</f>
         <v>QuizSheet</v>
       </c>
-      <c r="R2" s="137"/>
-      <c r="S2" s="137"/>
-      <c r="T2" s="137"/>
-      <c r="U2" s="137"/>
-      <c r="V2" s="137"/>
-      <c r="W2" s="137"/>
-      <c r="X2" s="137" t="str">
+      <c r="R2" s="102"/>
+      <c r="S2" s="102"/>
+      <c r="T2" s="102"/>
+      <c r="U2" s="102"/>
+      <c r="V2" s="102"/>
+      <c r="W2" s="102"/>
+      <c r="X2" s="102" t="str">
         <f>IF(表紙!X23="","",表紙!X23)</f>
         <v>問題出題画面</v>
       </c>
-      <c r="Y2" s="137"/>
-      <c r="Z2" s="137"/>
-      <c r="AA2" s="137"/>
-      <c r="AB2" s="137"/>
-      <c r="AC2" s="137"/>
-      <c r="AD2" s="137"/>
-      <c r="AE2" s="137" t="str">
+      <c r="Y2" s="102"/>
+      <c r="Z2" s="102"/>
+      <c r="AA2" s="102"/>
+      <c r="AB2" s="102"/>
+      <c r="AC2" s="102"/>
+      <c r="AD2" s="102"/>
+      <c r="AE2" s="102" t="str">
         <f>IF(表紙!X24="","",表紙!X24)</f>
-        <v>最終結果画面への遷移</v>
-      </c>
-      <c r="AF2" s="137"/>
-      <c r="AG2" s="137"/>
-      <c r="AH2" s="137"/>
-      <c r="AI2" s="137"/>
-      <c r="AJ2" s="137"/>
-      <c r="AK2" s="137"/>
-      <c r="AL2" s="139" t="s">
-        <v>37</v>
-      </c>
-      <c r="AM2" s="139"/>
-      <c r="AN2" s="139"/>
-      <c r="AO2" s="133"/>
-      <c r="AP2" s="134"/>
-      <c r="AQ2" s="134"/>
-      <c r="AR2" s="134"/>
-      <c r="AS2" s="133"/>
-      <c r="AT2" s="134"/>
-      <c r="AU2" s="134"/>
-      <c r="AV2" s="134"/>
-      <c r="AW2" s="133"/>
-      <c r="AX2" s="134"/>
-      <c r="AY2" s="134"/>
-      <c r="AZ2" s="135"/>
+        <v>最終結果画面への遷移・問題番号表示</v>
+      </c>
+      <c r="AF2" s="102"/>
+      <c r="AG2" s="102"/>
+      <c r="AH2" s="102"/>
+      <c r="AI2" s="102"/>
+      <c r="AJ2" s="102"/>
+      <c r="AK2" s="102"/>
+      <c r="AL2" s="104" t="s">
+        <v>25</v>
+      </c>
+      <c r="AM2" s="104"/>
+      <c r="AN2" s="104"/>
+      <c r="AO2" s="98"/>
+      <c r="AP2" s="99"/>
+      <c r="AQ2" s="99"/>
+      <c r="AR2" s="99"/>
+      <c r="AS2" s="98"/>
+      <c r="AT2" s="99"/>
+      <c r="AU2" s="99"/>
+      <c r="AV2" s="99"/>
+      <c r="AW2" s="98"/>
+      <c r="AX2" s="99"/>
+      <c r="AY2" s="99"/>
+      <c r="AZ2" s="100"/>
     </row>
     <row r="3" spans="1:52" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="146"/>
-      <c r="B3" s="147"/>
-      <c r="C3" s="147"/>
-      <c r="D3" s="147"/>
-      <c r="E3" s="154" t="s">
-        <v>38</v>
-      </c>
-      <c r="F3" s="154"/>
-      <c r="G3" s="154"/>
-      <c r="H3" s="154"/>
-      <c r="I3" s="154"/>
-      <c r="J3" s="151" t="str">
+      <c r="A3" s="121"/>
+      <c r="B3" s="122"/>
+      <c r="C3" s="122"/>
+      <c r="D3" s="122"/>
+      <c r="E3" s="129" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="129"/>
+      <c r="G3" s="129"/>
+      <c r="H3" s="129"/>
+      <c r="I3" s="129"/>
+      <c r="J3" s="126" t="str">
         <f>表紙!$AV$2</f>
         <v>XXX-XX-XXX</v>
       </c>
-      <c r="K3" s="151"/>
-      <c r="L3" s="151"/>
-      <c r="M3" s="151"/>
-      <c r="N3" s="151"/>
-      <c r="O3" s="151"/>
-      <c r="P3" s="151"/>
-      <c r="Q3" s="138"/>
-      <c r="R3" s="138"/>
-      <c r="S3" s="138"/>
-      <c r="T3" s="138"/>
-      <c r="U3" s="138"/>
-      <c r="V3" s="138"/>
-      <c r="W3" s="138"/>
-      <c r="X3" s="138"/>
-      <c r="Y3" s="138"/>
-      <c r="Z3" s="138"/>
-      <c r="AA3" s="138"/>
-      <c r="AB3" s="138"/>
-      <c r="AC3" s="138"/>
-      <c r="AD3" s="138"/>
-      <c r="AE3" s="138"/>
-      <c r="AF3" s="138"/>
-      <c r="AG3" s="138"/>
-      <c r="AH3" s="138"/>
-      <c r="AI3" s="138"/>
-      <c r="AJ3" s="138"/>
-      <c r="AK3" s="138"/>
-      <c r="AL3" s="140" t="s">
-        <v>39</v>
-      </c>
-      <c r="AM3" s="140"/>
-      <c r="AN3" s="140"/>
-      <c r="AO3" s="122"/>
-      <c r="AP3" s="123"/>
-      <c r="AQ3" s="123"/>
-      <c r="AR3" s="123"/>
-      <c r="AS3" s="122"/>
-      <c r="AT3" s="123"/>
-      <c r="AU3" s="123"/>
-      <c r="AV3" s="123"/>
-      <c r="AW3" s="122"/>
-      <c r="AX3" s="123"/>
-      <c r="AY3" s="123"/>
-      <c r="AZ3" s="124"/>
+      <c r="K3" s="126"/>
+      <c r="L3" s="126"/>
+      <c r="M3" s="126"/>
+      <c r="N3" s="126"/>
+      <c r="O3" s="126"/>
+      <c r="P3" s="126"/>
+      <c r="Q3" s="103"/>
+      <c r="R3" s="103"/>
+      <c r="S3" s="103"/>
+      <c r="T3" s="103"/>
+      <c r="U3" s="103"/>
+      <c r="V3" s="103"/>
+      <c r="W3" s="103"/>
+      <c r="X3" s="103"/>
+      <c r="Y3" s="103"/>
+      <c r="Z3" s="103"/>
+      <c r="AA3" s="103"/>
+      <c r="AB3" s="103"/>
+      <c r="AC3" s="103"/>
+      <c r="AD3" s="103"/>
+      <c r="AE3" s="103"/>
+      <c r="AF3" s="103"/>
+      <c r="AG3" s="103"/>
+      <c r="AH3" s="103"/>
+      <c r="AI3" s="103"/>
+      <c r="AJ3" s="103"/>
+      <c r="AK3" s="103"/>
+      <c r="AL3" s="105" t="s">
+        <v>27</v>
+      </c>
+      <c r="AM3" s="105"/>
+      <c r="AN3" s="105"/>
+      <c r="AO3" s="107"/>
+      <c r="AP3" s="108"/>
+      <c r="AQ3" s="108"/>
+      <c r="AR3" s="108"/>
+      <c r="AS3" s="107"/>
+      <c r="AT3" s="108"/>
+      <c r="AU3" s="108"/>
+      <c r="AV3" s="108"/>
+      <c r="AW3" s="107"/>
+      <c r="AX3" s="108"/>
+      <c r="AY3" s="108"/>
+      <c r="AZ3" s="111"/>
     </row>
     <row r="4" spans="1:52" ht="5.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:52" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="175" t="s">
-        <v>40</v>
-      </c>
-      <c r="B5" s="176"/>
-      <c r="C5" s="176"/>
-      <c r="D5" s="176"/>
-      <c r="E5" s="176"/>
-      <c r="F5" s="176"/>
-      <c r="G5" s="176"/>
-      <c r="H5" s="176"/>
-      <c r="I5" s="177"/>
-      <c r="J5" s="177"/>
-      <c r="K5" s="177"/>
-      <c r="L5" s="177"/>
-      <c r="M5" s="177"/>
-      <c r="N5" s="177"/>
-      <c r="O5" s="177"/>
-      <c r="P5" s="177"/>
-      <c r="Q5" s="177"/>
-      <c r="R5" s="177"/>
-      <c r="S5" s="177"/>
-      <c r="T5" s="177"/>
-      <c r="U5" s="177"/>
-      <c r="V5" s="177"/>
-      <c r="W5" s="177"/>
-      <c r="X5" s="178"/>
-      <c r="Y5" s="175" t="s">
-        <v>41</v>
-      </c>
-      <c r="Z5" s="176"/>
-      <c r="AA5" s="176"/>
-      <c r="AB5" s="176"/>
-      <c r="AC5" s="176"/>
-      <c r="AD5" s="176"/>
-      <c r="AE5" s="176"/>
-      <c r="AF5" s="176"/>
-      <c r="AG5" s="169"/>
-      <c r="AH5" s="169"/>
-      <c r="AI5" s="169"/>
-      <c r="AJ5" s="169"/>
-      <c r="AK5" s="169"/>
-      <c r="AL5" s="170"/>
-      <c r="AM5" s="175" t="s">
-        <v>42</v>
-      </c>
-      <c r="AN5" s="176"/>
-      <c r="AO5" s="176"/>
-      <c r="AP5" s="176"/>
-      <c r="AQ5" s="176"/>
-      <c r="AR5" s="176"/>
-      <c r="AS5" s="176"/>
-      <c r="AT5" s="176"/>
-      <c r="AU5" s="169"/>
-      <c r="AV5" s="169"/>
-      <c r="AW5" s="169"/>
-      <c r="AX5" s="169"/>
-      <c r="AY5" s="169"/>
-      <c r="AZ5" s="170"/>
+      <c r="A5" s="146" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="147"/>
+      <c r="C5" s="147"/>
+      <c r="D5" s="147"/>
+      <c r="E5" s="147"/>
+      <c r="F5" s="147"/>
+      <c r="G5" s="147"/>
+      <c r="H5" s="147"/>
+      <c r="I5" s="148"/>
+      <c r="J5" s="148"/>
+      <c r="K5" s="148"/>
+      <c r="L5" s="148"/>
+      <c r="M5" s="148"/>
+      <c r="N5" s="148"/>
+      <c r="O5" s="148"/>
+      <c r="P5" s="148"/>
+      <c r="Q5" s="148"/>
+      <c r="R5" s="148"/>
+      <c r="S5" s="148"/>
+      <c r="T5" s="148"/>
+      <c r="U5" s="148"/>
+      <c r="V5" s="148"/>
+      <c r="W5" s="148"/>
+      <c r="X5" s="149"/>
+      <c r="Y5" s="146" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z5" s="147"/>
+      <c r="AA5" s="147"/>
+      <c r="AB5" s="147"/>
+      <c r="AC5" s="147"/>
+      <c r="AD5" s="147"/>
+      <c r="AE5" s="147"/>
+      <c r="AF5" s="147"/>
+      <c r="AG5" s="140"/>
+      <c r="AH5" s="140"/>
+      <c r="AI5" s="140"/>
+      <c r="AJ5" s="140"/>
+      <c r="AK5" s="140"/>
+      <c r="AL5" s="141"/>
+      <c r="AM5" s="146" t="s">
+        <v>30</v>
+      </c>
+      <c r="AN5" s="147"/>
+      <c r="AO5" s="147"/>
+      <c r="AP5" s="147"/>
+      <c r="AQ5" s="147"/>
+      <c r="AR5" s="147"/>
+      <c r="AS5" s="147"/>
+      <c r="AT5" s="147"/>
+      <c r="AU5" s="140"/>
+      <c r="AV5" s="140"/>
+      <c r="AW5" s="140"/>
+      <c r="AX5" s="140"/>
+      <c r="AY5" s="140"/>
+      <c r="AZ5" s="141"/>
     </row>
     <row r="6" spans="1:52" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="171" t="s">
+      <c r="A6" s="142" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="143"/>
+      <c r="C6" s="143" t="s">
         <v>43</v>
       </c>
-      <c r="B6" s="172"/>
-      <c r="C6" s="172" t="s">
-        <v>55</v>
-      </c>
-      <c r="D6" s="172"/>
-      <c r="E6" s="172"/>
-      <c r="F6" s="172"/>
-      <c r="G6" s="172"/>
-      <c r="H6" s="172"/>
-      <c r="I6" s="172"/>
-      <c r="J6" s="172"/>
-      <c r="K6" s="172"/>
-      <c r="L6" s="172"/>
-      <c r="M6" s="172"/>
+      <c r="D6" s="143"/>
+      <c r="E6" s="143"/>
+      <c r="F6" s="143"/>
+      <c r="G6" s="143"/>
+      <c r="H6" s="143"/>
+      <c r="I6" s="143"/>
+      <c r="J6" s="143"/>
+      <c r="K6" s="143"/>
+      <c r="L6" s="143"/>
+      <c r="M6" s="143"/>
       <c r="N6" s="43"/>
       <c r="O6" s="44"/>
       <c r="P6" s="44"/>
@@ -7100,21 +6108,21 @@
       <c r="AZ6" s="46"/>
     </row>
     <row r="7" spans="1:52" ht="81" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="173"/>
-      <c r="B7" s="174"/>
-      <c r="C7" s="180" t="s">
-        <v>56</v>
-      </c>
-      <c r="D7" s="180"/>
-      <c r="E7" s="180"/>
-      <c r="F7" s="180"/>
-      <c r="G7" s="180"/>
-      <c r="H7" s="180"/>
-      <c r="I7" s="180"/>
-      <c r="J7" s="180"/>
-      <c r="K7" s="180"/>
-      <c r="L7" s="180"/>
-      <c r="M7" s="180"/>
+      <c r="A7" s="144"/>
+      <c r="B7" s="145"/>
+      <c r="C7" s="151" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="151"/>
+      <c r="E7" s="151"/>
+      <c r="F7" s="151"/>
+      <c r="G7" s="151"/>
+      <c r="H7" s="151"/>
+      <c r="I7" s="151"/>
+      <c r="J7" s="151"/>
+      <c r="K7" s="151"/>
+      <c r="L7" s="151"/>
+      <c r="M7" s="151"/>
       <c r="N7" s="31"/>
       <c r="O7" s="32"/>
       <c r="P7" s="32"/>
@@ -7156,22 +6164,22 @@
       <c r="AZ7" s="34"/>
     </row>
     <row r="8" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="167" t="str">
+      <c r="A8" s="138" t="str">
         <f>IF(C8="","",ROW()-ROW($A$7))</f>
         <v/>
       </c>
-      <c r="B8" s="168"/>
-      <c r="C8" s="179"/>
-      <c r="D8" s="179"/>
-      <c r="E8" s="179"/>
-      <c r="F8" s="179"/>
-      <c r="G8" s="179"/>
-      <c r="H8" s="179"/>
-      <c r="I8" s="179"/>
-      <c r="J8" s="179"/>
-      <c r="K8" s="179"/>
-      <c r="L8" s="179"/>
-      <c r="M8" s="179"/>
+      <c r="B8" s="139"/>
+      <c r="C8" s="150"/>
+      <c r="D8" s="150"/>
+      <c r="E8" s="150"/>
+      <c r="F8" s="150"/>
+      <c r="G8" s="150"/>
+      <c r="H8" s="150"/>
+      <c r="I8" s="150"/>
+      <c r="J8" s="150"/>
+      <c r="K8" s="150"/>
+      <c r="L8" s="150"/>
+      <c r="M8" s="150"/>
       <c r="N8" s="35"/>
       <c r="O8" s="36"/>
       <c r="P8" s="36"/>
@@ -7213,19 +6221,19 @@
       <c r="AZ8" s="38"/>
     </row>
     <row r="9" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="167"/>
-      <c r="B9" s="168"/>
-      <c r="C9" s="179"/>
-      <c r="D9" s="179"/>
-      <c r="E9" s="179"/>
-      <c r="F9" s="179"/>
-      <c r="G9" s="179"/>
-      <c r="H9" s="179"/>
-      <c r="I9" s="179"/>
-      <c r="J9" s="179"/>
-      <c r="K9" s="179"/>
-      <c r="L9" s="179"/>
-      <c r="M9" s="179"/>
+      <c r="A9" s="138"/>
+      <c r="B9" s="139"/>
+      <c r="C9" s="150"/>
+      <c r="D9" s="150"/>
+      <c r="E9" s="150"/>
+      <c r="F9" s="150"/>
+      <c r="G9" s="150"/>
+      <c r="H9" s="150"/>
+      <c r="I9" s="150"/>
+      <c r="J9" s="150"/>
+      <c r="K9" s="150"/>
+      <c r="L9" s="150"/>
+      <c r="M9" s="150"/>
       <c r="N9" s="35"/>
       <c r="O9" s="36"/>
       <c r="P9" s="36"/>
@@ -7267,19 +6275,19 @@
       <c r="AZ9" s="38"/>
     </row>
     <row r="10" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="167"/>
-      <c r="B10" s="168"/>
-      <c r="C10" s="179"/>
-      <c r="D10" s="179"/>
-      <c r="E10" s="179"/>
-      <c r="F10" s="179"/>
-      <c r="G10" s="179"/>
-      <c r="H10" s="179"/>
-      <c r="I10" s="179"/>
-      <c r="J10" s="179"/>
-      <c r="K10" s="179"/>
-      <c r="L10" s="179"/>
-      <c r="M10" s="179"/>
+      <c r="A10" s="138"/>
+      <c r="B10" s="139"/>
+      <c r="C10" s="150"/>
+      <c r="D10" s="150"/>
+      <c r="E10" s="150"/>
+      <c r="F10" s="150"/>
+      <c r="G10" s="150"/>
+      <c r="H10" s="150"/>
+      <c r="I10" s="150"/>
+      <c r="J10" s="150"/>
+      <c r="K10" s="150"/>
+      <c r="L10" s="150"/>
+      <c r="M10" s="150"/>
       <c r="N10" s="35"/>
       <c r="O10" s="36"/>
       <c r="P10" s="36"/>
@@ -7321,19 +6329,19 @@
       <c r="AZ10" s="38"/>
     </row>
     <row r="11" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="167"/>
-      <c r="B11" s="168"/>
-      <c r="C11" s="179"/>
-      <c r="D11" s="179"/>
-      <c r="E11" s="179"/>
-      <c r="F11" s="179"/>
-      <c r="G11" s="179"/>
-      <c r="H11" s="179"/>
-      <c r="I11" s="179"/>
-      <c r="J11" s="179"/>
-      <c r="K11" s="179"/>
-      <c r="L11" s="179"/>
-      <c r="M11" s="179"/>
+      <c r="A11" s="138"/>
+      <c r="B11" s="139"/>
+      <c r="C11" s="150"/>
+      <c r="D11" s="150"/>
+      <c r="E11" s="150"/>
+      <c r="F11" s="150"/>
+      <c r="G11" s="150"/>
+      <c r="H11" s="150"/>
+      <c r="I11" s="150"/>
+      <c r="J11" s="150"/>
+      <c r="K11" s="150"/>
+      <c r="L11" s="150"/>
+      <c r="M11" s="150"/>
       <c r="N11" s="35"/>
       <c r="O11" s="36"/>
       <c r="P11" s="36"/>
@@ -7375,19 +6383,19 @@
       <c r="AZ11" s="38"/>
     </row>
     <row r="12" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="167"/>
-      <c r="B12" s="168"/>
-      <c r="C12" s="179"/>
-      <c r="D12" s="179"/>
-      <c r="E12" s="179"/>
-      <c r="F12" s="179"/>
-      <c r="G12" s="179"/>
-      <c r="H12" s="179"/>
-      <c r="I12" s="179"/>
-      <c r="J12" s="179"/>
-      <c r="K12" s="179"/>
-      <c r="L12" s="179"/>
-      <c r="M12" s="179"/>
+      <c r="A12" s="138"/>
+      <c r="B12" s="139"/>
+      <c r="C12" s="150"/>
+      <c r="D12" s="150"/>
+      <c r="E12" s="150"/>
+      <c r="F12" s="150"/>
+      <c r="G12" s="150"/>
+      <c r="H12" s="150"/>
+      <c r="I12" s="150"/>
+      <c r="J12" s="150"/>
+      <c r="K12" s="150"/>
+      <c r="L12" s="150"/>
+      <c r="M12" s="150"/>
       <c r="N12" s="35"/>
       <c r="O12" s="36"/>
       <c r="P12" s="36"/>
@@ -7429,19 +6437,19 @@
       <c r="AZ12" s="38"/>
     </row>
     <row r="13" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="167"/>
-      <c r="B13" s="168"/>
-      <c r="C13" s="179"/>
-      <c r="D13" s="179"/>
-      <c r="E13" s="179"/>
-      <c r="F13" s="179"/>
-      <c r="G13" s="179"/>
-      <c r="H13" s="179"/>
-      <c r="I13" s="179"/>
-      <c r="J13" s="179"/>
-      <c r="K13" s="179"/>
-      <c r="L13" s="179"/>
-      <c r="M13" s="179"/>
+      <c r="A13" s="138"/>
+      <c r="B13" s="139"/>
+      <c r="C13" s="150"/>
+      <c r="D13" s="150"/>
+      <c r="E13" s="150"/>
+      <c r="F13" s="150"/>
+      <c r="G13" s="150"/>
+      <c r="H13" s="150"/>
+      <c r="I13" s="150"/>
+      <c r="J13" s="150"/>
+      <c r="K13" s="150"/>
+      <c r="L13" s="150"/>
+      <c r="M13" s="150"/>
       <c r="N13" s="35"/>
       <c r="O13" s="36"/>
       <c r="P13" s="36"/>
@@ -7483,19 +6491,19 @@
       <c r="AZ13" s="38"/>
     </row>
     <row r="14" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="167"/>
-      <c r="B14" s="168"/>
-      <c r="C14" s="179"/>
-      <c r="D14" s="179"/>
-      <c r="E14" s="179"/>
-      <c r="F14" s="179"/>
-      <c r="G14" s="179"/>
-      <c r="H14" s="179"/>
-      <c r="I14" s="179"/>
-      <c r="J14" s="179"/>
-      <c r="K14" s="179"/>
-      <c r="L14" s="179"/>
-      <c r="M14" s="179"/>
+      <c r="A14" s="138"/>
+      <c r="B14" s="139"/>
+      <c r="C14" s="150"/>
+      <c r="D14" s="150"/>
+      <c r="E14" s="150"/>
+      <c r="F14" s="150"/>
+      <c r="G14" s="150"/>
+      <c r="H14" s="150"/>
+      <c r="I14" s="150"/>
+      <c r="J14" s="150"/>
+      <c r="K14" s="150"/>
+      <c r="L14" s="150"/>
+      <c r="M14" s="150"/>
       <c r="N14" s="35"/>
       <c r="O14" s="36"/>
       <c r="P14" s="36"/>
@@ -7537,19 +6545,19 @@
       <c r="AZ14" s="38"/>
     </row>
     <row r="15" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="167"/>
-      <c r="B15" s="168"/>
-      <c r="C15" s="179"/>
-      <c r="D15" s="179"/>
-      <c r="E15" s="179"/>
-      <c r="F15" s="179"/>
-      <c r="G15" s="179"/>
-      <c r="H15" s="179"/>
-      <c r="I15" s="179"/>
-      <c r="J15" s="179"/>
-      <c r="K15" s="179"/>
-      <c r="L15" s="179"/>
-      <c r="M15" s="179"/>
+      <c r="A15" s="138"/>
+      <c r="B15" s="139"/>
+      <c r="C15" s="150"/>
+      <c r="D15" s="150"/>
+      <c r="E15" s="150"/>
+      <c r="F15" s="150"/>
+      <c r="G15" s="150"/>
+      <c r="H15" s="150"/>
+      <c r="I15" s="150"/>
+      <c r="J15" s="150"/>
+      <c r="K15" s="150"/>
+      <c r="L15" s="150"/>
+      <c r="M15" s="150"/>
       <c r="N15" s="35"/>
       <c r="O15" s="36"/>
       <c r="P15" s="36"/>
@@ -7591,19 +6599,19 @@
       <c r="AZ15" s="38"/>
     </row>
     <row r="16" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="167"/>
-      <c r="B16" s="168"/>
-      <c r="C16" s="179"/>
-      <c r="D16" s="179"/>
-      <c r="E16" s="179"/>
-      <c r="F16" s="179"/>
-      <c r="G16" s="179"/>
-      <c r="H16" s="179"/>
-      <c r="I16" s="179"/>
-      <c r="J16" s="179"/>
-      <c r="K16" s="179"/>
-      <c r="L16" s="179"/>
-      <c r="M16" s="179"/>
+      <c r="A16" s="138"/>
+      <c r="B16" s="139"/>
+      <c r="C16" s="150"/>
+      <c r="D16" s="150"/>
+      <c r="E16" s="150"/>
+      <c r="F16" s="150"/>
+      <c r="G16" s="150"/>
+      <c r="H16" s="150"/>
+      <c r="I16" s="150"/>
+      <c r="J16" s="150"/>
+      <c r="K16" s="150"/>
+      <c r="L16" s="150"/>
+      <c r="M16" s="150"/>
       <c r="N16" s="35"/>
       <c r="O16" s="36"/>
       <c r="P16" s="36"/>
@@ -7645,19 +6653,19 @@
       <c r="AZ16" s="38"/>
     </row>
     <row r="17" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="167"/>
-      <c r="B17" s="168"/>
-      <c r="C17" s="179"/>
-      <c r="D17" s="179"/>
-      <c r="E17" s="179"/>
-      <c r="F17" s="179"/>
-      <c r="G17" s="179"/>
-      <c r="H17" s="179"/>
-      <c r="I17" s="179"/>
-      <c r="J17" s="179"/>
-      <c r="K17" s="179"/>
-      <c r="L17" s="179"/>
-      <c r="M17" s="179"/>
+      <c r="A17" s="138"/>
+      <c r="B17" s="139"/>
+      <c r="C17" s="150"/>
+      <c r="D17" s="150"/>
+      <c r="E17" s="150"/>
+      <c r="F17" s="150"/>
+      <c r="G17" s="150"/>
+      <c r="H17" s="150"/>
+      <c r="I17" s="150"/>
+      <c r="J17" s="150"/>
+      <c r="K17" s="150"/>
+      <c r="L17" s="150"/>
+      <c r="M17" s="150"/>
       <c r="N17" s="35"/>
       <c r="O17" s="36"/>
       <c r="P17" s="36"/>
@@ -7699,19 +6707,19 @@
       <c r="AZ17" s="38"/>
     </row>
     <row r="18" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="167"/>
-      <c r="B18" s="168"/>
-      <c r="C18" s="179"/>
-      <c r="D18" s="179"/>
-      <c r="E18" s="179"/>
-      <c r="F18" s="179"/>
-      <c r="G18" s="179"/>
-      <c r="H18" s="179"/>
-      <c r="I18" s="179"/>
-      <c r="J18" s="179"/>
-      <c r="K18" s="179"/>
-      <c r="L18" s="179"/>
-      <c r="M18" s="179"/>
+      <c r="A18" s="138"/>
+      <c r="B18" s="139"/>
+      <c r="C18" s="150"/>
+      <c r="D18" s="150"/>
+      <c r="E18" s="150"/>
+      <c r="F18" s="150"/>
+      <c r="G18" s="150"/>
+      <c r="H18" s="150"/>
+      <c r="I18" s="150"/>
+      <c r="J18" s="150"/>
+      <c r="K18" s="150"/>
+      <c r="L18" s="150"/>
+      <c r="M18" s="150"/>
       <c r="N18" s="35"/>
       <c r="O18" s="36"/>
       <c r="P18" s="36"/>
@@ -7753,19 +6761,19 @@
       <c r="AZ18" s="38"/>
     </row>
     <row r="19" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="167"/>
-      <c r="B19" s="168"/>
-      <c r="C19" s="179"/>
-      <c r="D19" s="179"/>
-      <c r="E19" s="179"/>
-      <c r="F19" s="179"/>
-      <c r="G19" s="179"/>
-      <c r="H19" s="179"/>
-      <c r="I19" s="179"/>
-      <c r="J19" s="179"/>
-      <c r="K19" s="179"/>
-      <c r="L19" s="179"/>
-      <c r="M19" s="179"/>
+      <c r="A19" s="138"/>
+      <c r="B19" s="139"/>
+      <c r="C19" s="150"/>
+      <c r="D19" s="150"/>
+      <c r="E19" s="150"/>
+      <c r="F19" s="150"/>
+      <c r="G19" s="150"/>
+      <c r="H19" s="150"/>
+      <c r="I19" s="150"/>
+      <c r="J19" s="150"/>
+      <c r="K19" s="150"/>
+      <c r="L19" s="150"/>
+      <c r="M19" s="150"/>
       <c r="N19" s="35"/>
       <c r="O19" s="36"/>
       <c r="P19" s="36"/>
@@ -7807,19 +6815,19 @@
       <c r="AZ19" s="38"/>
     </row>
     <row r="20" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="167"/>
-      <c r="B20" s="168"/>
-      <c r="C20" s="179"/>
-      <c r="D20" s="179"/>
-      <c r="E20" s="179"/>
-      <c r="F20" s="179"/>
-      <c r="G20" s="179"/>
-      <c r="H20" s="179"/>
-      <c r="I20" s="179"/>
-      <c r="J20" s="179"/>
-      <c r="K20" s="179"/>
-      <c r="L20" s="179"/>
-      <c r="M20" s="179"/>
+      <c r="A20" s="138"/>
+      <c r="B20" s="139"/>
+      <c r="C20" s="150"/>
+      <c r="D20" s="150"/>
+      <c r="E20" s="150"/>
+      <c r="F20" s="150"/>
+      <c r="G20" s="150"/>
+      <c r="H20" s="150"/>
+      <c r="I20" s="150"/>
+      <c r="J20" s="150"/>
+      <c r="K20" s="150"/>
+      <c r="L20" s="150"/>
+      <c r="M20" s="150"/>
       <c r="N20" s="35"/>
       <c r="O20" s="36"/>
       <c r="P20" s="36"/>
@@ -7861,19 +6869,19 @@
       <c r="AZ20" s="38"/>
     </row>
     <row r="21" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="167"/>
-      <c r="B21" s="168"/>
-      <c r="C21" s="179"/>
-      <c r="D21" s="179"/>
-      <c r="E21" s="179"/>
-      <c r="F21" s="179"/>
-      <c r="G21" s="179"/>
-      <c r="H21" s="179"/>
-      <c r="I21" s="179"/>
-      <c r="J21" s="179"/>
-      <c r="K21" s="179"/>
-      <c r="L21" s="179"/>
-      <c r="M21" s="179"/>
+      <c r="A21" s="138"/>
+      <c r="B21" s="139"/>
+      <c r="C21" s="150"/>
+      <c r="D21" s="150"/>
+      <c r="E21" s="150"/>
+      <c r="F21" s="150"/>
+      <c r="G21" s="150"/>
+      <c r="H21" s="150"/>
+      <c r="I21" s="150"/>
+      <c r="J21" s="150"/>
+      <c r="K21" s="150"/>
+      <c r="L21" s="150"/>
+      <c r="M21" s="150"/>
       <c r="N21" s="35"/>
       <c r="O21" s="36"/>
       <c r="P21" s="36"/>
@@ -7915,19 +6923,19 @@
       <c r="AZ21" s="38"/>
     </row>
     <row r="22" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="167"/>
-      <c r="B22" s="168"/>
-      <c r="C22" s="179"/>
-      <c r="D22" s="179"/>
-      <c r="E22" s="179"/>
-      <c r="F22" s="179"/>
-      <c r="G22" s="179"/>
-      <c r="H22" s="179"/>
-      <c r="I22" s="179"/>
-      <c r="J22" s="179"/>
-      <c r="K22" s="179"/>
-      <c r="L22" s="179"/>
-      <c r="M22" s="179"/>
+      <c r="A22" s="138"/>
+      <c r="B22" s="139"/>
+      <c r="C22" s="150"/>
+      <c r="D22" s="150"/>
+      <c r="E22" s="150"/>
+      <c r="F22" s="150"/>
+      <c r="G22" s="150"/>
+      <c r="H22" s="150"/>
+      <c r="I22" s="150"/>
+      <c r="J22" s="150"/>
+      <c r="K22" s="150"/>
+      <c r="L22" s="150"/>
+      <c r="M22" s="150"/>
       <c r="N22" s="35"/>
       <c r="O22" s="36"/>
       <c r="P22" s="36"/>
@@ -7969,19 +6977,19 @@
       <c r="AZ22" s="38"/>
     </row>
     <row r="23" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="167"/>
-      <c r="B23" s="168"/>
-      <c r="C23" s="179"/>
-      <c r="D23" s="179"/>
-      <c r="E23" s="179"/>
-      <c r="F23" s="179"/>
-      <c r="G23" s="179"/>
-      <c r="H23" s="179"/>
-      <c r="I23" s="179"/>
-      <c r="J23" s="179"/>
-      <c r="K23" s="179"/>
-      <c r="L23" s="179"/>
-      <c r="M23" s="179"/>
+      <c r="A23" s="138"/>
+      <c r="B23" s="139"/>
+      <c r="C23" s="150"/>
+      <c r="D23" s="150"/>
+      <c r="E23" s="150"/>
+      <c r="F23" s="150"/>
+      <c r="G23" s="150"/>
+      <c r="H23" s="150"/>
+      <c r="I23" s="150"/>
+      <c r="J23" s="150"/>
+      <c r="K23" s="150"/>
+      <c r="L23" s="150"/>
+      <c r="M23" s="150"/>
       <c r="N23" s="35"/>
       <c r="O23" s="36"/>
       <c r="P23" s="36"/>
@@ -8023,19 +7031,19 @@
       <c r="AZ23" s="38"/>
     </row>
     <row r="24" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="167"/>
-      <c r="B24" s="168"/>
-      <c r="C24" s="179"/>
-      <c r="D24" s="179"/>
-      <c r="E24" s="179"/>
-      <c r="F24" s="179"/>
-      <c r="G24" s="179"/>
-      <c r="H24" s="179"/>
-      <c r="I24" s="179"/>
-      <c r="J24" s="179"/>
-      <c r="K24" s="179"/>
-      <c r="L24" s="179"/>
-      <c r="M24" s="179"/>
+      <c r="A24" s="138"/>
+      <c r="B24" s="139"/>
+      <c r="C24" s="150"/>
+      <c r="D24" s="150"/>
+      <c r="E24" s="150"/>
+      <c r="F24" s="150"/>
+      <c r="G24" s="150"/>
+      <c r="H24" s="150"/>
+      <c r="I24" s="150"/>
+      <c r="J24" s="150"/>
+      <c r="K24" s="150"/>
+      <c r="L24" s="150"/>
+      <c r="M24" s="150"/>
       <c r="N24" s="35"/>
       <c r="O24" s="36"/>
       <c r="P24" s="36"/>
@@ -8077,19 +7085,19 @@
       <c r="AZ24" s="38"/>
     </row>
     <row r="25" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="167"/>
-      <c r="B25" s="168"/>
-      <c r="C25" s="179"/>
-      <c r="D25" s="179"/>
-      <c r="E25" s="179"/>
-      <c r="F25" s="179"/>
-      <c r="G25" s="179"/>
-      <c r="H25" s="179"/>
-      <c r="I25" s="179"/>
-      <c r="J25" s="179"/>
-      <c r="K25" s="179"/>
-      <c r="L25" s="179"/>
-      <c r="M25" s="179"/>
+      <c r="A25" s="138"/>
+      <c r="B25" s="139"/>
+      <c r="C25" s="150"/>
+      <c r="D25" s="150"/>
+      <c r="E25" s="150"/>
+      <c r="F25" s="150"/>
+      <c r="G25" s="150"/>
+      <c r="H25" s="150"/>
+      <c r="I25" s="150"/>
+      <c r="J25" s="150"/>
+      <c r="K25" s="150"/>
+      <c r="L25" s="150"/>
+      <c r="M25" s="150"/>
       <c r="N25" s="35"/>
       <c r="O25" s="36"/>
       <c r="P25" s="36"/>
@@ -8131,19 +7139,19 @@
       <c r="AZ25" s="38"/>
     </row>
     <row r="26" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="167"/>
-      <c r="B26" s="168"/>
-      <c r="C26" s="179"/>
-      <c r="D26" s="179"/>
-      <c r="E26" s="179"/>
-      <c r="F26" s="179"/>
-      <c r="G26" s="179"/>
-      <c r="H26" s="179"/>
-      <c r="I26" s="179"/>
-      <c r="J26" s="179"/>
-      <c r="K26" s="179"/>
-      <c r="L26" s="179"/>
-      <c r="M26" s="179"/>
+      <c r="A26" s="138"/>
+      <c r="B26" s="139"/>
+      <c r="C26" s="150"/>
+      <c r="D26" s="150"/>
+      <c r="E26" s="150"/>
+      <c r="F26" s="150"/>
+      <c r="G26" s="150"/>
+      <c r="H26" s="150"/>
+      <c r="I26" s="150"/>
+      <c r="J26" s="150"/>
+      <c r="K26" s="150"/>
+      <c r="L26" s="150"/>
+      <c r="M26" s="150"/>
       <c r="N26" s="35"/>
       <c r="O26" s="36"/>
       <c r="P26" s="36"/>
@@ -8185,19 +7193,19 @@
       <c r="AZ26" s="38"/>
     </row>
     <row r="27" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="167"/>
-      <c r="B27" s="168"/>
-      <c r="C27" s="179"/>
-      <c r="D27" s="179"/>
-      <c r="E27" s="179"/>
-      <c r="F27" s="179"/>
-      <c r="G27" s="179"/>
-      <c r="H27" s="179"/>
-      <c r="I27" s="179"/>
-      <c r="J27" s="179"/>
-      <c r="K27" s="179"/>
-      <c r="L27" s="179"/>
-      <c r="M27" s="179"/>
+      <c r="A27" s="138"/>
+      <c r="B27" s="139"/>
+      <c r="C27" s="150"/>
+      <c r="D27" s="150"/>
+      <c r="E27" s="150"/>
+      <c r="F27" s="150"/>
+      <c r="G27" s="150"/>
+      <c r="H27" s="150"/>
+      <c r="I27" s="150"/>
+      <c r="J27" s="150"/>
+      <c r="K27" s="150"/>
+      <c r="L27" s="150"/>
+      <c r="M27" s="150"/>
       <c r="N27" s="35"/>
       <c r="O27" s="36"/>
       <c r="P27" s="36"/>
@@ -8239,19 +7247,19 @@
       <c r="AZ27" s="38"/>
     </row>
     <row r="28" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="167"/>
-      <c r="B28" s="168"/>
-      <c r="C28" s="179"/>
-      <c r="D28" s="179"/>
-      <c r="E28" s="179"/>
-      <c r="F28" s="179"/>
-      <c r="G28" s="179"/>
-      <c r="H28" s="179"/>
-      <c r="I28" s="179"/>
-      <c r="J28" s="179"/>
-      <c r="K28" s="179"/>
-      <c r="L28" s="179"/>
-      <c r="M28" s="179"/>
+      <c r="A28" s="138"/>
+      <c r="B28" s="139"/>
+      <c r="C28" s="150"/>
+      <c r="D28" s="150"/>
+      <c r="E28" s="150"/>
+      <c r="F28" s="150"/>
+      <c r="G28" s="150"/>
+      <c r="H28" s="150"/>
+      <c r="I28" s="150"/>
+      <c r="J28" s="150"/>
+      <c r="K28" s="150"/>
+      <c r="L28" s="150"/>
+      <c r="M28" s="150"/>
       <c r="N28" s="35"/>
       <c r="O28" s="36"/>
       <c r="P28" s="36"/>
@@ -8293,19 +7301,19 @@
       <c r="AZ28" s="38"/>
     </row>
     <row r="29" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="167"/>
-      <c r="B29" s="168"/>
-      <c r="C29" s="179"/>
-      <c r="D29" s="179"/>
-      <c r="E29" s="179"/>
-      <c r="F29" s="179"/>
-      <c r="G29" s="179"/>
-      <c r="H29" s="179"/>
-      <c r="I29" s="179"/>
-      <c r="J29" s="179"/>
-      <c r="K29" s="179"/>
-      <c r="L29" s="179"/>
-      <c r="M29" s="179"/>
+      <c r="A29" s="138"/>
+      <c r="B29" s="139"/>
+      <c r="C29" s="150"/>
+      <c r="D29" s="150"/>
+      <c r="E29" s="150"/>
+      <c r="F29" s="150"/>
+      <c r="G29" s="150"/>
+      <c r="H29" s="150"/>
+      <c r="I29" s="150"/>
+      <c r="J29" s="150"/>
+      <c r="K29" s="150"/>
+      <c r="L29" s="150"/>
+      <c r="M29" s="150"/>
       <c r="N29" s="35"/>
       <c r="O29" s="36"/>
       <c r="P29" s="36"/>
@@ -8347,19 +7355,19 @@
       <c r="AZ29" s="38"/>
     </row>
     <row r="30" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="167"/>
-      <c r="B30" s="168"/>
-      <c r="C30" s="179"/>
-      <c r="D30" s="179"/>
-      <c r="E30" s="179"/>
-      <c r="F30" s="179"/>
-      <c r="G30" s="179"/>
-      <c r="H30" s="179"/>
-      <c r="I30" s="179"/>
-      <c r="J30" s="179"/>
-      <c r="K30" s="179"/>
-      <c r="L30" s="179"/>
-      <c r="M30" s="179"/>
+      <c r="A30" s="138"/>
+      <c r="B30" s="139"/>
+      <c r="C30" s="150"/>
+      <c r="D30" s="150"/>
+      <c r="E30" s="150"/>
+      <c r="F30" s="150"/>
+      <c r="G30" s="150"/>
+      <c r="H30" s="150"/>
+      <c r="I30" s="150"/>
+      <c r="J30" s="150"/>
+      <c r="K30" s="150"/>
+      <c r="L30" s="150"/>
+      <c r="M30" s="150"/>
       <c r="N30" s="35"/>
       <c r="O30" s="36"/>
       <c r="P30" s="36"/>
@@ -8401,19 +7409,19 @@
       <c r="AZ30" s="38"/>
     </row>
     <row r="31" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="167"/>
-      <c r="B31" s="168"/>
-      <c r="C31" s="179"/>
-      <c r="D31" s="179"/>
-      <c r="E31" s="179"/>
-      <c r="F31" s="179"/>
-      <c r="G31" s="179"/>
-      <c r="H31" s="179"/>
-      <c r="I31" s="179"/>
-      <c r="J31" s="179"/>
-      <c r="K31" s="179"/>
-      <c r="L31" s="179"/>
-      <c r="M31" s="179"/>
+      <c r="A31" s="138"/>
+      <c r="B31" s="139"/>
+      <c r="C31" s="150"/>
+      <c r="D31" s="150"/>
+      <c r="E31" s="150"/>
+      <c r="F31" s="150"/>
+      <c r="G31" s="150"/>
+      <c r="H31" s="150"/>
+      <c r="I31" s="150"/>
+      <c r="J31" s="150"/>
+      <c r="K31" s="150"/>
+      <c r="L31" s="150"/>
+      <c r="M31" s="150"/>
       <c r="N31" s="35"/>
       <c r="O31" s="36"/>
       <c r="P31" s="36"/>
@@ -8455,19 +7463,19 @@
       <c r="AZ31" s="38"/>
     </row>
     <row r="32" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="167"/>
-      <c r="B32" s="168"/>
-      <c r="C32" s="179"/>
-      <c r="D32" s="179"/>
-      <c r="E32" s="179"/>
-      <c r="F32" s="179"/>
-      <c r="G32" s="179"/>
-      <c r="H32" s="179"/>
-      <c r="I32" s="179"/>
-      <c r="J32" s="179"/>
-      <c r="K32" s="179"/>
-      <c r="L32" s="179"/>
-      <c r="M32" s="179"/>
+      <c r="A32" s="138"/>
+      <c r="B32" s="139"/>
+      <c r="C32" s="150"/>
+      <c r="D32" s="150"/>
+      <c r="E32" s="150"/>
+      <c r="F32" s="150"/>
+      <c r="G32" s="150"/>
+      <c r="H32" s="150"/>
+      <c r="I32" s="150"/>
+      <c r="J32" s="150"/>
+      <c r="K32" s="150"/>
+      <c r="L32" s="150"/>
+      <c r="M32" s="150"/>
       <c r="N32" s="35"/>
       <c r="O32" s="36"/>
       <c r="P32" s="36"/>
@@ -8509,19 +7517,19 @@
       <c r="AZ32" s="38"/>
     </row>
     <row r="33" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="167"/>
-      <c r="B33" s="168"/>
-      <c r="C33" s="179"/>
-      <c r="D33" s="179"/>
-      <c r="E33" s="179"/>
-      <c r="F33" s="179"/>
-      <c r="G33" s="179"/>
-      <c r="H33" s="179"/>
-      <c r="I33" s="179"/>
-      <c r="J33" s="179"/>
-      <c r="K33" s="179"/>
-      <c r="L33" s="179"/>
-      <c r="M33" s="179"/>
+      <c r="A33" s="138"/>
+      <c r="B33" s="139"/>
+      <c r="C33" s="150"/>
+      <c r="D33" s="150"/>
+      <c r="E33" s="150"/>
+      <c r="F33" s="150"/>
+      <c r="G33" s="150"/>
+      <c r="H33" s="150"/>
+      <c r="I33" s="150"/>
+      <c r="J33" s="150"/>
+      <c r="K33" s="150"/>
+      <c r="L33" s="150"/>
+      <c r="M33" s="150"/>
       <c r="N33" s="35"/>
       <c r="O33" s="36"/>
       <c r="P33" s="36"/>
@@ -8563,19 +7571,19 @@
       <c r="AZ33" s="38"/>
     </row>
     <row r="34" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="167"/>
-      <c r="B34" s="168"/>
-      <c r="C34" s="179"/>
-      <c r="D34" s="179"/>
-      <c r="E34" s="179"/>
-      <c r="F34" s="179"/>
-      <c r="G34" s="179"/>
-      <c r="H34" s="179"/>
-      <c r="I34" s="179"/>
-      <c r="J34" s="179"/>
-      <c r="K34" s="179"/>
-      <c r="L34" s="179"/>
-      <c r="M34" s="179"/>
+      <c r="A34" s="138"/>
+      <c r="B34" s="139"/>
+      <c r="C34" s="150"/>
+      <c r="D34" s="150"/>
+      <c r="E34" s="150"/>
+      <c r="F34" s="150"/>
+      <c r="G34" s="150"/>
+      <c r="H34" s="150"/>
+      <c r="I34" s="150"/>
+      <c r="J34" s="150"/>
+      <c r="K34" s="150"/>
+      <c r="L34" s="150"/>
+      <c r="M34" s="150"/>
       <c r="N34" s="35"/>
       <c r="O34" s="36"/>
       <c r="P34" s="36"/>
@@ -8617,19 +7625,19 @@
       <c r="AZ34" s="38"/>
     </row>
     <row r="35" spans="1:52" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="165"/>
-      <c r="B35" s="166"/>
-      <c r="C35" s="181"/>
-      <c r="D35" s="181"/>
-      <c r="E35" s="181"/>
-      <c r="F35" s="181"/>
-      <c r="G35" s="181"/>
-      <c r="H35" s="181"/>
-      <c r="I35" s="181"/>
-      <c r="J35" s="181"/>
-      <c r="K35" s="181"/>
-      <c r="L35" s="181"/>
-      <c r="M35" s="181"/>
+      <c r="A35" s="136"/>
+      <c r="B35" s="137"/>
+      <c r="C35" s="152"/>
+      <c r="D35" s="152"/>
+      <c r="E35" s="152"/>
+      <c r="F35" s="152"/>
+      <c r="G35" s="152"/>
+      <c r="H35" s="152"/>
+      <c r="I35" s="152"/>
+      <c r="J35" s="152"/>
+      <c r="K35" s="152"/>
+      <c r="L35" s="152"/>
+      <c r="M35" s="152"/>
       <c r="N35" s="39"/>
       <c r="O35" s="40"/>
       <c r="P35" s="40"/>
@@ -8770,7 +7778,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:AZ35"/>
   <sheetViews>
@@ -8784,407 +7792,407 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="142" t="s">
-        <v>34</v>
-      </c>
-      <c r="B1" s="143"/>
-      <c r="C1" s="143"/>
-      <c r="D1" s="143"/>
-      <c r="E1" s="152" t="str">
+      <c r="A1" s="117" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="118"/>
+      <c r="C1" s="118"/>
+      <c r="D1" s="118"/>
+      <c r="E1" s="127" t="str">
         <f>表紙!O7</f>
-        <v>QuizSheet
+        <v>QuizSheet改修(要件ex)
 単体テスト仕様書</v>
       </c>
-      <c r="F1" s="152"/>
-      <c r="G1" s="152"/>
-      <c r="H1" s="152"/>
-      <c r="I1" s="152"/>
-      <c r="J1" s="152"/>
-      <c r="K1" s="152"/>
-      <c r="L1" s="152"/>
-      <c r="M1" s="152"/>
-      <c r="N1" s="152"/>
-      <c r="O1" s="152"/>
-      <c r="P1" s="152"/>
-      <c r="Q1" s="141" t="s">
-        <v>20</v>
-      </c>
-      <c r="R1" s="141"/>
-      <c r="S1" s="141"/>
-      <c r="T1" s="141"/>
-      <c r="U1" s="141"/>
-      <c r="V1" s="141"/>
-      <c r="W1" s="141"/>
-      <c r="X1" s="141" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y1" s="141"/>
-      <c r="Z1" s="141"/>
-      <c r="AA1" s="141"/>
-      <c r="AB1" s="141"/>
-      <c r="AC1" s="141"/>
-      <c r="AD1" s="141"/>
-      <c r="AE1" s="141" t="s">
-        <v>36</v>
-      </c>
-      <c r="AF1" s="141"/>
-      <c r="AG1" s="141"/>
-      <c r="AH1" s="141"/>
-      <c r="AI1" s="141"/>
-      <c r="AJ1" s="141"/>
-      <c r="AK1" s="141"/>
-      <c r="AL1" s="131" t="s">
+      <c r="F1" s="127"/>
+      <c r="G1" s="127"/>
+      <c r="H1" s="127"/>
+      <c r="I1" s="127"/>
+      <c r="J1" s="127"/>
+      <c r="K1" s="127"/>
+      <c r="L1" s="127"/>
+      <c r="M1" s="127"/>
+      <c r="N1" s="127"/>
+      <c r="O1" s="127"/>
+      <c r="P1" s="127"/>
+      <c r="Q1" s="106" t="s">
+        <v>8</v>
+      </c>
+      <c r="R1" s="106"/>
+      <c r="S1" s="106"/>
+      <c r="T1" s="106"/>
+      <c r="U1" s="106"/>
+      <c r="V1" s="106"/>
+      <c r="W1" s="106"/>
+      <c r="X1" s="106" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="106"/>
+      <c r="Z1" s="106"/>
+      <c r="AA1" s="106"/>
+      <c r="AB1" s="106"/>
+      <c r="AC1" s="106"/>
+      <c r="AD1" s="106"/>
+      <c r="AE1" s="106" t="s">
+        <v>24</v>
+      </c>
+      <c r="AF1" s="106"/>
+      <c r="AG1" s="106"/>
+      <c r="AH1" s="106"/>
+      <c r="AI1" s="106"/>
+      <c r="AJ1" s="106"/>
+      <c r="AK1" s="106"/>
+      <c r="AL1" s="96" t="s">
         <v>0</v>
       </c>
-      <c r="AM1" s="131"/>
-      <c r="AN1" s="131"/>
-      <c r="AO1" s="131" t="s">
-        <v>4</v>
-      </c>
-      <c r="AP1" s="132"/>
-      <c r="AQ1" s="132"/>
-      <c r="AR1" s="132"/>
-      <c r="AS1" s="131" t="s">
-        <v>5</v>
-      </c>
-      <c r="AT1" s="132"/>
-      <c r="AU1" s="132"/>
-      <c r="AV1" s="132"/>
-      <c r="AW1" s="131" t="s">
-        <v>6</v>
-      </c>
-      <c r="AX1" s="132"/>
-      <c r="AY1" s="132"/>
-      <c r="AZ1" s="136"/>
+      <c r="AM1" s="96"/>
+      <c r="AN1" s="96"/>
+      <c r="AO1" s="96" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP1" s="97"/>
+      <c r="AQ1" s="97"/>
+      <c r="AR1" s="97"/>
+      <c r="AS1" s="96" t="s">
+        <v>2</v>
+      </c>
+      <c r="AT1" s="97"/>
+      <c r="AU1" s="97"/>
+      <c r="AV1" s="97"/>
+      <c r="AW1" s="96" t="s">
+        <v>3</v>
+      </c>
+      <c r="AX1" s="97"/>
+      <c r="AY1" s="97"/>
+      <c r="AZ1" s="101"/>
     </row>
     <row r="2" spans="1:52" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="144"/>
-      <c r="B2" s="145"/>
-      <c r="C2" s="145"/>
-      <c r="D2" s="145"/>
-      <c r="E2" s="153"/>
-      <c r="F2" s="153"/>
-      <c r="G2" s="153"/>
-      <c r="H2" s="153"/>
-      <c r="I2" s="153"/>
-      <c r="J2" s="153"/>
-      <c r="K2" s="153"/>
-      <c r="L2" s="153"/>
-      <c r="M2" s="153"/>
-      <c r="N2" s="153"/>
-      <c r="O2" s="153"/>
-      <c r="P2" s="153"/>
-      <c r="Q2" s="137" t="str">
+      <c r="A2" s="119"/>
+      <c r="B2" s="120"/>
+      <c r="C2" s="120"/>
+      <c r="D2" s="120"/>
+      <c r="E2" s="128"/>
+      <c r="F2" s="128"/>
+      <c r="G2" s="128"/>
+      <c r="H2" s="128"/>
+      <c r="I2" s="128"/>
+      <c r="J2" s="128"/>
+      <c r="K2" s="128"/>
+      <c r="L2" s="128"/>
+      <c r="M2" s="128"/>
+      <c r="N2" s="128"/>
+      <c r="O2" s="128"/>
+      <c r="P2" s="128"/>
+      <c r="Q2" s="102" t="str">
         <f>表紙!X22</f>
         <v>QuizSheet</v>
       </c>
-      <c r="R2" s="137"/>
-      <c r="S2" s="137"/>
-      <c r="T2" s="137"/>
-      <c r="U2" s="137"/>
-      <c r="V2" s="137"/>
-      <c r="W2" s="137"/>
-      <c r="X2" s="137" t="str">
+      <c r="R2" s="102"/>
+      <c r="S2" s="102"/>
+      <c r="T2" s="102"/>
+      <c r="U2" s="102"/>
+      <c r="V2" s="102"/>
+      <c r="W2" s="102"/>
+      <c r="X2" s="102" t="str">
         <f>IF(表紙!X23="","",表紙!X23)</f>
         <v>問題出題画面</v>
       </c>
-      <c r="Y2" s="137"/>
-      <c r="Z2" s="137"/>
-      <c r="AA2" s="137"/>
-      <c r="AB2" s="137"/>
-      <c r="AC2" s="137"/>
-      <c r="AD2" s="137"/>
-      <c r="AE2" s="137" t="str">
+      <c r="Y2" s="102"/>
+      <c r="Z2" s="102"/>
+      <c r="AA2" s="102"/>
+      <c r="AB2" s="102"/>
+      <c r="AC2" s="102"/>
+      <c r="AD2" s="102"/>
+      <c r="AE2" s="102" t="str">
         <f>IF(表紙!X24="","",表紙!X24)</f>
-        <v>最終結果画面への遷移</v>
-      </c>
-      <c r="AF2" s="137"/>
-      <c r="AG2" s="137"/>
-      <c r="AH2" s="137"/>
-      <c r="AI2" s="137"/>
-      <c r="AJ2" s="137"/>
-      <c r="AK2" s="137"/>
-      <c r="AL2" s="139" t="s">
-        <v>37</v>
-      </c>
-      <c r="AM2" s="139"/>
-      <c r="AN2" s="139"/>
-      <c r="AO2" s="133"/>
-      <c r="AP2" s="134"/>
-      <c r="AQ2" s="134"/>
-      <c r="AR2" s="134"/>
-      <c r="AS2" s="133"/>
-      <c r="AT2" s="134"/>
-      <c r="AU2" s="134"/>
-      <c r="AV2" s="134"/>
-      <c r="AW2" s="133"/>
-      <c r="AX2" s="134"/>
-      <c r="AY2" s="134"/>
-      <c r="AZ2" s="135"/>
+        <v>最終結果画面への遷移・問題番号表示</v>
+      </c>
+      <c r="AF2" s="102"/>
+      <c r="AG2" s="102"/>
+      <c r="AH2" s="102"/>
+      <c r="AI2" s="102"/>
+      <c r="AJ2" s="102"/>
+      <c r="AK2" s="102"/>
+      <c r="AL2" s="104" t="s">
+        <v>25</v>
+      </c>
+      <c r="AM2" s="104"/>
+      <c r="AN2" s="104"/>
+      <c r="AO2" s="98"/>
+      <c r="AP2" s="99"/>
+      <c r="AQ2" s="99"/>
+      <c r="AR2" s="99"/>
+      <c r="AS2" s="98"/>
+      <c r="AT2" s="99"/>
+      <c r="AU2" s="99"/>
+      <c r="AV2" s="99"/>
+      <c r="AW2" s="98"/>
+      <c r="AX2" s="99"/>
+      <c r="AY2" s="99"/>
+      <c r="AZ2" s="100"/>
     </row>
     <row r="3" spans="1:52" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="146"/>
-      <c r="B3" s="147"/>
-      <c r="C3" s="147"/>
-      <c r="D3" s="147"/>
-      <c r="E3" s="154" t="s">
-        <v>38</v>
-      </c>
-      <c r="F3" s="154"/>
-      <c r="G3" s="154"/>
-      <c r="H3" s="154"/>
-      <c r="I3" s="154"/>
-      <c r="J3" s="151" t="str">
+      <c r="A3" s="121"/>
+      <c r="B3" s="122"/>
+      <c r="C3" s="122"/>
+      <c r="D3" s="122"/>
+      <c r="E3" s="129" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="129"/>
+      <c r="G3" s="129"/>
+      <c r="H3" s="129"/>
+      <c r="I3" s="129"/>
+      <c r="J3" s="126" t="str">
         <f>表紙!$AV$2</f>
         <v>XXX-XX-XXX</v>
       </c>
-      <c r="K3" s="151"/>
-      <c r="L3" s="151"/>
-      <c r="M3" s="151"/>
-      <c r="N3" s="151"/>
-      <c r="O3" s="151"/>
-      <c r="P3" s="151"/>
-      <c r="Q3" s="138"/>
-      <c r="R3" s="138"/>
-      <c r="S3" s="138"/>
-      <c r="T3" s="138"/>
-      <c r="U3" s="138"/>
-      <c r="V3" s="138"/>
-      <c r="W3" s="138"/>
-      <c r="X3" s="138"/>
-      <c r="Y3" s="138"/>
-      <c r="Z3" s="138"/>
-      <c r="AA3" s="138"/>
-      <c r="AB3" s="138"/>
-      <c r="AC3" s="138"/>
-      <c r="AD3" s="138"/>
-      <c r="AE3" s="138"/>
-      <c r="AF3" s="138"/>
-      <c r="AG3" s="138"/>
-      <c r="AH3" s="138"/>
-      <c r="AI3" s="138"/>
-      <c r="AJ3" s="138"/>
-      <c r="AK3" s="138"/>
-      <c r="AL3" s="140" t="s">
-        <v>39</v>
-      </c>
-      <c r="AM3" s="140"/>
-      <c r="AN3" s="140"/>
-      <c r="AO3" s="122"/>
-      <c r="AP3" s="123"/>
-      <c r="AQ3" s="123"/>
-      <c r="AR3" s="123"/>
-      <c r="AS3" s="122"/>
-      <c r="AT3" s="123"/>
-      <c r="AU3" s="123"/>
-      <c r="AV3" s="123"/>
-      <c r="AW3" s="122"/>
-      <c r="AX3" s="123"/>
-      <c r="AY3" s="123"/>
-      <c r="AZ3" s="124"/>
+      <c r="K3" s="126"/>
+      <c r="L3" s="126"/>
+      <c r="M3" s="126"/>
+      <c r="N3" s="126"/>
+      <c r="O3" s="126"/>
+      <c r="P3" s="126"/>
+      <c r="Q3" s="103"/>
+      <c r="R3" s="103"/>
+      <c r="S3" s="103"/>
+      <c r="T3" s="103"/>
+      <c r="U3" s="103"/>
+      <c r="V3" s="103"/>
+      <c r="W3" s="103"/>
+      <c r="X3" s="103"/>
+      <c r="Y3" s="103"/>
+      <c r="Z3" s="103"/>
+      <c r="AA3" s="103"/>
+      <c r="AB3" s="103"/>
+      <c r="AC3" s="103"/>
+      <c r="AD3" s="103"/>
+      <c r="AE3" s="103"/>
+      <c r="AF3" s="103"/>
+      <c r="AG3" s="103"/>
+      <c r="AH3" s="103"/>
+      <c r="AI3" s="103"/>
+      <c r="AJ3" s="103"/>
+      <c r="AK3" s="103"/>
+      <c r="AL3" s="105" t="s">
+        <v>27</v>
+      </c>
+      <c r="AM3" s="105"/>
+      <c r="AN3" s="105"/>
+      <c r="AO3" s="107"/>
+      <c r="AP3" s="108"/>
+      <c r="AQ3" s="108"/>
+      <c r="AR3" s="108"/>
+      <c r="AS3" s="107"/>
+      <c r="AT3" s="108"/>
+      <c r="AU3" s="108"/>
+      <c r="AV3" s="108"/>
+      <c r="AW3" s="107"/>
+      <c r="AX3" s="108"/>
+      <c r="AY3" s="108"/>
+      <c r="AZ3" s="111"/>
     </row>
     <row r="4" spans="1:52" ht="5.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:52" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="175" t="s">
-        <v>40</v>
-      </c>
-      <c r="B5" s="176"/>
-      <c r="C5" s="176"/>
-      <c r="D5" s="176"/>
-      <c r="E5" s="176"/>
-      <c r="F5" s="176"/>
-      <c r="G5" s="176"/>
-      <c r="H5" s="176"/>
-      <c r="I5" s="177" t="s">
+      <c r="A5" s="146" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="147"/>
+      <c r="C5" s="147"/>
+      <c r="D5" s="147"/>
+      <c r="E5" s="147"/>
+      <c r="F5" s="147"/>
+      <c r="G5" s="147"/>
+      <c r="H5" s="147"/>
+      <c r="I5" s="148" t="s">
+        <v>45</v>
+      </c>
+      <c r="J5" s="148"/>
+      <c r="K5" s="148"/>
+      <c r="L5" s="148"/>
+      <c r="M5" s="148"/>
+      <c r="N5" s="148"/>
+      <c r="O5" s="148"/>
+      <c r="P5" s="148"/>
+      <c r="Q5" s="148"/>
+      <c r="R5" s="148"/>
+      <c r="S5" s="148"/>
+      <c r="T5" s="148"/>
+      <c r="U5" s="148"/>
+      <c r="V5" s="148"/>
+      <c r="W5" s="148"/>
+      <c r="X5" s="149"/>
+      <c r="Y5" s="146" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z5" s="147"/>
+      <c r="AA5" s="147"/>
+      <c r="AB5" s="147"/>
+      <c r="AC5" s="147"/>
+      <c r="AD5" s="147"/>
+      <c r="AE5" s="147"/>
+      <c r="AF5" s="147"/>
+      <c r="AG5" s="140">
+        <v>40116</v>
+      </c>
+      <c r="AH5" s="140"/>
+      <c r="AI5" s="140"/>
+      <c r="AJ5" s="140"/>
+      <c r="AK5" s="140"/>
+      <c r="AL5" s="141"/>
+      <c r="AM5" s="146" t="s">
+        <v>30</v>
+      </c>
+      <c r="AN5" s="147"/>
+      <c r="AO5" s="147"/>
+      <c r="AP5" s="147"/>
+      <c r="AQ5" s="147"/>
+      <c r="AR5" s="147"/>
+      <c r="AS5" s="147"/>
+      <c r="AT5" s="147"/>
+      <c r="AU5" s="140">
+        <v>40121</v>
+      </c>
+      <c r="AV5" s="140"/>
+      <c r="AW5" s="140"/>
+      <c r="AX5" s="140"/>
+      <c r="AY5" s="140"/>
+      <c r="AZ5" s="141"/>
+    </row>
+    <row r="6" spans="1:52" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="142" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="143"/>
+      <c r="C6" s="143" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" s="143"/>
+      <c r="E6" s="143"/>
+      <c r="F6" s="143"/>
+      <c r="G6" s="143"/>
+      <c r="H6" s="143"/>
+      <c r="I6" s="143"/>
+      <c r="J6" s="143"/>
+      <c r="K6" s="143"/>
+      <c r="L6" s="143"/>
+      <c r="M6" s="143"/>
+      <c r="N6" s="143" t="s">
+        <v>47</v>
+      </c>
+      <c r="O6" s="143"/>
+      <c r="P6" s="143"/>
+      <c r="Q6" s="143"/>
+      <c r="R6" s="143"/>
+      <c r="S6" s="143"/>
+      <c r="T6" s="143"/>
+      <c r="U6" s="143"/>
+      <c r="V6" s="143"/>
+      <c r="W6" s="143"/>
+      <c r="X6" s="143"/>
+      <c r="Y6" s="143" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z6" s="143"/>
+      <c r="AA6" s="143"/>
+      <c r="AB6" s="143" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC6" s="143"/>
+      <c r="AD6" s="143"/>
+      <c r="AE6" s="143" t="s">
+        <v>50</v>
+      </c>
+      <c r="AF6" s="143"/>
+      <c r="AG6" s="143"/>
+      <c r="AH6" s="143"/>
+      <c r="AI6" s="143"/>
+      <c r="AJ6" s="153"/>
+      <c r="AK6" s="153"/>
+      <c r="AL6" s="153"/>
+      <c r="AM6" s="153"/>
+      <c r="AN6" s="153"/>
+      <c r="AO6" s="153"/>
+      <c r="AP6" s="153"/>
+      <c r="AQ6" s="153"/>
+      <c r="AR6" s="153"/>
+      <c r="AS6" s="153"/>
+      <c r="AT6" s="153"/>
+      <c r="AU6" s="153"/>
+      <c r="AV6" s="153"/>
+      <c r="AW6" s="153"/>
+      <c r="AX6" s="153"/>
+      <c r="AY6" s="153"/>
+      <c r="AZ6" s="154"/>
+    </row>
+    <row r="7" spans="1:52" ht="81" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="144"/>
+      <c r="B7" s="145"/>
+      <c r="C7" s="151" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="151"/>
+      <c r="E7" s="151"/>
+      <c r="F7" s="151"/>
+      <c r="G7" s="151"/>
+      <c r="H7" s="151"/>
+      <c r="I7" s="151"/>
+      <c r="J7" s="151"/>
+      <c r="K7" s="151"/>
+      <c r="L7" s="151"/>
+      <c r="M7" s="151"/>
+      <c r="N7" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="O7" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="P7" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q7" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="R7" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="S7" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="T7" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="J5" s="177"/>
-      <c r="K5" s="177"/>
-      <c r="L5" s="177"/>
-      <c r="M5" s="177"/>
-      <c r="N5" s="177"/>
-      <c r="O5" s="177"/>
-      <c r="P5" s="177"/>
-      <c r="Q5" s="177"/>
-      <c r="R5" s="177"/>
-      <c r="S5" s="177"/>
-      <c r="T5" s="177"/>
-      <c r="U5" s="177"/>
-      <c r="V5" s="177"/>
-      <c r="W5" s="177"/>
-      <c r="X5" s="178"/>
-      <c r="Y5" s="175" t="s">
-        <v>41</v>
-      </c>
-      <c r="Z5" s="176"/>
-      <c r="AA5" s="176"/>
-      <c r="AB5" s="176"/>
-      <c r="AC5" s="176"/>
-      <c r="AD5" s="176"/>
-      <c r="AE5" s="176"/>
-      <c r="AF5" s="176"/>
-      <c r="AG5" s="169">
-        <v>40116</v>
-      </c>
-      <c r="AH5" s="169"/>
-      <c r="AI5" s="169"/>
-      <c r="AJ5" s="169"/>
-      <c r="AK5" s="169"/>
-      <c r="AL5" s="170"/>
-      <c r="AM5" s="175" t="s">
-        <v>42</v>
-      </c>
-      <c r="AN5" s="176"/>
-      <c r="AO5" s="176"/>
-      <c r="AP5" s="176"/>
-      <c r="AQ5" s="176"/>
-      <c r="AR5" s="176"/>
-      <c r="AS5" s="176"/>
-      <c r="AT5" s="176"/>
-      <c r="AU5" s="169">
-        <v>40121</v>
-      </c>
-      <c r="AV5" s="169"/>
-      <c r="AW5" s="169"/>
-      <c r="AX5" s="169"/>
-      <c r="AY5" s="169"/>
-      <c r="AZ5" s="170"/>
-    </row>
-    <row r="6" spans="1:52" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="171" t="s">
-        <v>43</v>
-      </c>
-      <c r="B6" s="172"/>
-      <c r="C6" s="172" t="s">
-        <v>55</v>
-      </c>
-      <c r="D6" s="172"/>
-      <c r="E6" s="172"/>
-      <c r="F6" s="172"/>
-      <c r="G6" s="172"/>
-      <c r="H6" s="172"/>
-      <c r="I6" s="172"/>
-      <c r="J6" s="172"/>
-      <c r="K6" s="172"/>
-      <c r="L6" s="172"/>
-      <c r="M6" s="172"/>
-      <c r="N6" s="172" t="s">
+      <c r="U7" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="V7" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="O6" s="172"/>
-      <c r="P6" s="172"/>
-      <c r="Q6" s="172"/>
-      <c r="R6" s="172"/>
-      <c r="S6" s="172"/>
-      <c r="T6" s="172"/>
-      <c r="U6" s="172"/>
-      <c r="V6" s="172"/>
-      <c r="W6" s="172"/>
-      <c r="X6" s="172"/>
-      <c r="Y6" s="172" t="s">
+      <c r="W7" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="Z6" s="172"/>
-      <c r="AA6" s="172"/>
-      <c r="AB6" s="172" t="s">
+      <c r="X7" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="AC6" s="172"/>
-      <c r="AD6" s="172"/>
-      <c r="AE6" s="172" t="s">
+      <c r="Y7" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="AF6" s="172"/>
-      <c r="AG6" s="172"/>
-      <c r="AH6" s="172"/>
-      <c r="AI6" s="172"/>
-      <c r="AJ6" s="182"/>
-      <c r="AK6" s="182"/>
-      <c r="AL6" s="182"/>
-      <c r="AM6" s="182"/>
-      <c r="AN6" s="182"/>
-      <c r="AO6" s="182"/>
-      <c r="AP6" s="182"/>
-      <c r="AQ6" s="182"/>
-      <c r="AR6" s="182"/>
-      <c r="AS6" s="182"/>
-      <c r="AT6" s="182"/>
-      <c r="AU6" s="182"/>
-      <c r="AV6" s="182"/>
-      <c r="AW6" s="182"/>
-      <c r="AX6" s="182"/>
-      <c r="AY6" s="182"/>
-      <c r="AZ6" s="183"/>
-    </row>
-    <row r="7" spans="1:52" ht="81" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="173"/>
-      <c r="B7" s="174"/>
-      <c r="C7" s="180" t="s">
-        <v>56</v>
-      </c>
-      <c r="D7" s="180"/>
-      <c r="E7" s="180"/>
-      <c r="F7" s="180"/>
-      <c r="G7" s="180"/>
-      <c r="H7" s="180"/>
-      <c r="I7" s="180"/>
-      <c r="J7" s="180"/>
-      <c r="K7" s="180"/>
-      <c r="L7" s="180"/>
-      <c r="M7" s="180"/>
-      <c r="N7" s="31" t="s">
+      <c r="Z7" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="O7" s="32" t="s">
+      <c r="AA7" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="P7" s="32" t="s">
+      <c r="AB7" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="Q7" s="32" t="s">
+      <c r="AC7" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="R7" s="32" t="s">
+      <c r="AD7" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="S7" s="32" t="s">
+      <c r="AE7" s="31" t="s">
         <v>68</v>
-      </c>
-      <c r="T7" s="32" t="s">
-        <v>69</v>
-      </c>
-      <c r="U7" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="V7" s="32" t="s">
-        <v>71</v>
-      </c>
-      <c r="W7" s="32" t="s">
-        <v>72</v>
-      </c>
-      <c r="X7" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="Y7" s="31" t="s">
-        <v>74</v>
-      </c>
-      <c r="Z7" s="32" t="s">
-        <v>75</v>
-      </c>
-      <c r="AA7" s="33" t="s">
-        <v>76</v>
-      </c>
-      <c r="AB7" s="31" t="s">
-        <v>77</v>
-      </c>
-      <c r="AC7" s="32" t="s">
-        <v>78</v>
-      </c>
-      <c r="AD7" s="33" t="s">
-        <v>79</v>
-      </c>
-      <c r="AE7" s="31" t="s">
-        <v>80</v>
       </c>
       <c r="AF7" s="32"/>
       <c r="AG7" s="32"/>
@@ -9209,77 +8217,77 @@
       <c r="AZ7" s="34"/>
     </row>
     <row r="8" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="167">
+      <c r="A8" s="138">
         <f>IF(C8="","",ROW()-ROW($A$7))</f>
         <v>1</v>
       </c>
-      <c r="B8" s="168"/>
-      <c r="C8" s="179" t="s">
-        <v>81</v>
-      </c>
-      <c r="D8" s="179"/>
-      <c r="E8" s="179"/>
-      <c r="F8" s="179"/>
-      <c r="G8" s="179"/>
-      <c r="H8" s="179"/>
-      <c r="I8" s="179"/>
-      <c r="J8" s="179"/>
-      <c r="K8" s="179"/>
-      <c r="L8" s="179"/>
-      <c r="M8" s="179"/>
+      <c r="B8" s="139"/>
+      <c r="C8" s="150" t="s">
+        <v>69</v>
+      </c>
+      <c r="D8" s="150"/>
+      <c r="E8" s="150"/>
+      <c r="F8" s="150"/>
+      <c r="G8" s="150"/>
+      <c r="H8" s="150"/>
+      <c r="I8" s="150"/>
+      <c r="J8" s="150"/>
+      <c r="K8" s="150"/>
+      <c r="L8" s="150"/>
+      <c r="M8" s="150"/>
       <c r="N8" s="35" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="O8" s="36" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="P8" s="36" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="Q8" s="36" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="R8" s="36" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="S8" s="36" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="T8" s="36" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="U8" s="36" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="V8" s="36" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="W8" s="36" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="X8" s="37" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="Y8" s="35" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="Z8" s="36" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AA8" s="37" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AB8" s="35" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AC8" s="36" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AD8" s="37" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AE8" s="35" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="AF8" s="36"/>
       <c r="AG8" s="36"/>
@@ -9304,77 +8312,77 @@
       <c r="AZ8" s="38"/>
     </row>
     <row r="9" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="167">
+      <c r="A9" s="138">
         <f t="shared" ref="A9:A35" si="0">IF(C9="","",ROW()-ROW($A$7))</f>
         <v>2</v>
       </c>
-      <c r="B9" s="168"/>
-      <c r="C9" s="179" t="s">
-        <v>83</v>
-      </c>
-      <c r="D9" s="179"/>
-      <c r="E9" s="179"/>
-      <c r="F9" s="179"/>
-      <c r="G9" s="179"/>
-      <c r="H9" s="179"/>
-      <c r="I9" s="179"/>
-      <c r="J9" s="179"/>
-      <c r="K9" s="179"/>
-      <c r="L9" s="179"/>
-      <c r="M9" s="179"/>
+      <c r="B9" s="139"/>
+      <c r="C9" s="150" t="s">
+        <v>71</v>
+      </c>
+      <c r="D9" s="150"/>
+      <c r="E9" s="150"/>
+      <c r="F9" s="150"/>
+      <c r="G9" s="150"/>
+      <c r="H9" s="150"/>
+      <c r="I9" s="150"/>
+      <c r="J9" s="150"/>
+      <c r="K9" s="150"/>
+      <c r="L9" s="150"/>
+      <c r="M9" s="150"/>
       <c r="N9" s="35" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="O9" s="36" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="P9" s="36" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="Q9" s="36" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="R9" s="36" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="S9" s="36" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="T9" s="36" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="U9" s="36" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="V9" s="36" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="W9" s="36" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="X9" s="37" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="Y9" s="35" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="Z9" s="36" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AA9" s="37" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AB9" s="35" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AC9" s="36" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AD9" s="37" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AE9" s="35" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="AF9" s="36"/>
       <c r="AG9" s="36"/>
@@ -9399,77 +8407,77 @@
       <c r="AZ9" s="38"/>
     </row>
     <row r="10" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="167">
+      <c r="A10" s="138">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B10" s="168"/>
-      <c r="C10" s="179" t="s">
-        <v>84</v>
-      </c>
-      <c r="D10" s="179"/>
-      <c r="E10" s="179"/>
-      <c r="F10" s="179"/>
-      <c r="G10" s="179"/>
-      <c r="H10" s="179"/>
-      <c r="I10" s="179"/>
-      <c r="J10" s="179"/>
-      <c r="K10" s="179"/>
-      <c r="L10" s="179"/>
-      <c r="M10" s="179"/>
+      <c r="B10" s="139"/>
+      <c r="C10" s="150" t="s">
+        <v>72</v>
+      </c>
+      <c r="D10" s="150"/>
+      <c r="E10" s="150"/>
+      <c r="F10" s="150"/>
+      <c r="G10" s="150"/>
+      <c r="H10" s="150"/>
+      <c r="I10" s="150"/>
+      <c r="J10" s="150"/>
+      <c r="K10" s="150"/>
+      <c r="L10" s="150"/>
+      <c r="M10" s="150"/>
       <c r="N10" s="35" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="O10" s="36" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="P10" s="36" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="Q10" s="36" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="R10" s="36" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="S10" s="36" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="T10" s="36" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="U10" s="36" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="V10" s="36" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="W10" s="36" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="X10" s="37" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="Y10" s="35" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="Z10" s="36" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AA10" s="37" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AB10" s="35" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AC10" s="36" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AD10" s="37" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AE10" s="35" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="AF10" s="36"/>
       <c r="AG10" s="36"/>
@@ -9494,77 +8502,77 @@
       <c r="AZ10" s="38"/>
     </row>
     <row r="11" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="167">
+      <c r="A11" s="138">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B11" s="168"/>
-      <c r="C11" s="179" t="s">
-        <v>85</v>
-      </c>
-      <c r="D11" s="179"/>
-      <c r="E11" s="179"/>
-      <c r="F11" s="179"/>
-      <c r="G11" s="179"/>
-      <c r="H11" s="179"/>
-      <c r="I11" s="179"/>
-      <c r="J11" s="179"/>
-      <c r="K11" s="179"/>
-      <c r="L11" s="179"/>
-      <c r="M11" s="179"/>
+      <c r="B11" s="139"/>
+      <c r="C11" s="150" t="s">
+        <v>73</v>
+      </c>
+      <c r="D11" s="150"/>
+      <c r="E11" s="150"/>
+      <c r="F11" s="150"/>
+      <c r="G11" s="150"/>
+      <c r="H11" s="150"/>
+      <c r="I11" s="150"/>
+      <c r="J11" s="150"/>
+      <c r="K11" s="150"/>
+      <c r="L11" s="150"/>
+      <c r="M11" s="150"/>
       <c r="N11" s="35" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="O11" s="36" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="P11" s="36" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="Q11" s="36" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="R11" s="36" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="S11" s="36" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="T11" s="36" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="U11" s="36" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="V11" s="36" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="W11" s="36" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="X11" s="37" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="Y11" s="35" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="Z11" s="36" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="AA11" s="37" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AB11" s="35" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AC11" s="36" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AD11" s="37" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AE11" s="35" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="AF11" s="36"/>
       <c r="AG11" s="36"/>
@@ -9589,77 +8597,77 @@
       <c r="AZ11" s="38"/>
     </row>
     <row r="12" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="167">
+      <c r="A12" s="138">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B12" s="168"/>
-      <c r="C12" s="179" t="s">
-        <v>86</v>
-      </c>
-      <c r="D12" s="179"/>
-      <c r="E12" s="179"/>
-      <c r="F12" s="179"/>
-      <c r="G12" s="179"/>
-      <c r="H12" s="179"/>
-      <c r="I12" s="179"/>
-      <c r="J12" s="179"/>
-      <c r="K12" s="179"/>
-      <c r="L12" s="179"/>
-      <c r="M12" s="179"/>
+      <c r="B12" s="139"/>
+      <c r="C12" s="150" t="s">
+        <v>74</v>
+      </c>
+      <c r="D12" s="150"/>
+      <c r="E12" s="150"/>
+      <c r="F12" s="150"/>
+      <c r="G12" s="150"/>
+      <c r="H12" s="150"/>
+      <c r="I12" s="150"/>
+      <c r="J12" s="150"/>
+      <c r="K12" s="150"/>
+      <c r="L12" s="150"/>
+      <c r="M12" s="150"/>
       <c r="N12" s="35" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="O12" s="36" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="P12" s="36" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="Q12" s="36" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="R12" s="36" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="S12" s="36" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="T12" s="36" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="U12" s="36" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="V12" s="36" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="W12" s="36" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="X12" s="37" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="Y12" s="35" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="Z12" s="36" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AA12" s="37" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AB12" s="35" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AC12" s="36" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="AD12" s="37" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AE12" s="35" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="AF12" s="36"/>
       <c r="AG12" s="36"/>
@@ -9684,22 +8692,22 @@
       <c r="AZ12" s="38"/>
     </row>
     <row r="13" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="167" t="str">
+      <c r="A13" s="138" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="B13" s="168"/>
-      <c r="C13" s="179"/>
-      <c r="D13" s="179"/>
-      <c r="E13" s="179"/>
-      <c r="F13" s="179"/>
-      <c r="G13" s="179"/>
-      <c r="H13" s="179"/>
-      <c r="I13" s="179"/>
-      <c r="J13" s="179"/>
-      <c r="K13" s="179"/>
-      <c r="L13" s="179"/>
-      <c r="M13" s="179"/>
+      <c r="B13" s="139"/>
+      <c r="C13" s="150"/>
+      <c r="D13" s="150"/>
+      <c r="E13" s="150"/>
+      <c r="F13" s="150"/>
+      <c r="G13" s="150"/>
+      <c r="H13" s="150"/>
+      <c r="I13" s="150"/>
+      <c r="J13" s="150"/>
+      <c r="K13" s="150"/>
+      <c r="L13" s="150"/>
+      <c r="M13" s="150"/>
       <c r="N13" s="35"/>
       <c r="O13" s="36"/>
       <c r="P13" s="36"/>
@@ -9741,22 +8749,22 @@
       <c r="AZ13" s="38"/>
     </row>
     <row r="14" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="167" t="str">
+      <c r="A14" s="138" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="B14" s="168"/>
-      <c r="C14" s="179"/>
-      <c r="D14" s="179"/>
-      <c r="E14" s="179"/>
-      <c r="F14" s="179"/>
-      <c r="G14" s="179"/>
-      <c r="H14" s="179"/>
-      <c r="I14" s="179"/>
-      <c r="J14" s="179"/>
-      <c r="K14" s="179"/>
-      <c r="L14" s="179"/>
-      <c r="M14" s="179"/>
+      <c r="B14" s="139"/>
+      <c r="C14" s="150"/>
+      <c r="D14" s="150"/>
+      <c r="E14" s="150"/>
+      <c r="F14" s="150"/>
+      <c r="G14" s="150"/>
+      <c r="H14" s="150"/>
+      <c r="I14" s="150"/>
+      <c r="J14" s="150"/>
+      <c r="K14" s="150"/>
+      <c r="L14" s="150"/>
+      <c r="M14" s="150"/>
       <c r="N14" s="35"/>
       <c r="O14" s="36"/>
       <c r="P14" s="36"/>
@@ -9798,22 +8806,22 @@
       <c r="AZ14" s="38"/>
     </row>
     <row r="15" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="167" t="str">
+      <c r="A15" s="138" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="B15" s="168"/>
-      <c r="C15" s="179"/>
-      <c r="D15" s="179"/>
-      <c r="E15" s="179"/>
-      <c r="F15" s="179"/>
-      <c r="G15" s="179"/>
-      <c r="H15" s="179"/>
-      <c r="I15" s="179"/>
-      <c r="J15" s="179"/>
-      <c r="K15" s="179"/>
-      <c r="L15" s="179"/>
-      <c r="M15" s="179"/>
+      <c r="B15" s="139"/>
+      <c r="C15" s="150"/>
+      <c r="D15" s="150"/>
+      <c r="E15" s="150"/>
+      <c r="F15" s="150"/>
+      <c r="G15" s="150"/>
+      <c r="H15" s="150"/>
+      <c r="I15" s="150"/>
+      <c r="J15" s="150"/>
+      <c r="K15" s="150"/>
+      <c r="L15" s="150"/>
+      <c r="M15" s="150"/>
       <c r="N15" s="35"/>
       <c r="O15" s="36"/>
       <c r="P15" s="36"/>
@@ -9855,22 +8863,22 @@
       <c r="AZ15" s="38"/>
     </row>
     <row r="16" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="167" t="str">
+      <c r="A16" s="138" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="B16" s="168"/>
-      <c r="C16" s="179"/>
-      <c r="D16" s="179"/>
-      <c r="E16" s="179"/>
-      <c r="F16" s="179"/>
-      <c r="G16" s="179"/>
-      <c r="H16" s="179"/>
-      <c r="I16" s="179"/>
-      <c r="J16" s="179"/>
-      <c r="K16" s="179"/>
-      <c r="L16" s="179"/>
-      <c r="M16" s="179"/>
+      <c r="B16" s="139"/>
+      <c r="C16" s="150"/>
+      <c r="D16" s="150"/>
+      <c r="E16" s="150"/>
+      <c r="F16" s="150"/>
+      <c r="G16" s="150"/>
+      <c r="H16" s="150"/>
+      <c r="I16" s="150"/>
+      <c r="J16" s="150"/>
+      <c r="K16" s="150"/>
+      <c r="L16" s="150"/>
+      <c r="M16" s="150"/>
       <c r="N16" s="35"/>
       <c r="O16" s="36"/>
       <c r="P16" s="36"/>
@@ -9912,22 +8920,22 @@
       <c r="AZ16" s="38"/>
     </row>
     <row r="17" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="167" t="str">
+      <c r="A17" s="138" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="B17" s="168"/>
-      <c r="C17" s="179"/>
-      <c r="D17" s="179"/>
-      <c r="E17" s="179"/>
-      <c r="F17" s="179"/>
-      <c r="G17" s="179"/>
-      <c r="H17" s="179"/>
-      <c r="I17" s="179"/>
-      <c r="J17" s="179"/>
-      <c r="K17" s="179"/>
-      <c r="L17" s="179"/>
-      <c r="M17" s="179"/>
+      <c r="B17" s="139"/>
+      <c r="C17" s="150"/>
+      <c r="D17" s="150"/>
+      <c r="E17" s="150"/>
+      <c r="F17" s="150"/>
+      <c r="G17" s="150"/>
+      <c r="H17" s="150"/>
+      <c r="I17" s="150"/>
+      <c r="J17" s="150"/>
+      <c r="K17" s="150"/>
+      <c r="L17" s="150"/>
+      <c r="M17" s="150"/>
       <c r="N17" s="35"/>
       <c r="O17" s="36"/>
       <c r="P17" s="36"/>
@@ -9969,22 +8977,22 @@
       <c r="AZ17" s="38"/>
     </row>
     <row r="18" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="167" t="str">
+      <c r="A18" s="138" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="B18" s="168"/>
-      <c r="C18" s="179"/>
-      <c r="D18" s="179"/>
-      <c r="E18" s="179"/>
-      <c r="F18" s="179"/>
-      <c r="G18" s="179"/>
-      <c r="H18" s="179"/>
-      <c r="I18" s="179"/>
-      <c r="J18" s="179"/>
-      <c r="K18" s="179"/>
-      <c r="L18" s="179"/>
-      <c r="M18" s="179"/>
+      <c r="B18" s="139"/>
+      <c r="C18" s="150"/>
+      <c r="D18" s="150"/>
+      <c r="E18" s="150"/>
+      <c r="F18" s="150"/>
+      <c r="G18" s="150"/>
+      <c r="H18" s="150"/>
+      <c r="I18" s="150"/>
+      <c r="J18" s="150"/>
+      <c r="K18" s="150"/>
+      <c r="L18" s="150"/>
+      <c r="M18" s="150"/>
       <c r="N18" s="35"/>
       <c r="O18" s="36"/>
       <c r="P18" s="36"/>
@@ -10026,22 +9034,22 @@
       <c r="AZ18" s="38"/>
     </row>
     <row r="19" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="167" t="str">
+      <c r="A19" s="138" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="B19" s="168"/>
-      <c r="C19" s="179"/>
-      <c r="D19" s="179"/>
-      <c r="E19" s="179"/>
-      <c r="F19" s="179"/>
-      <c r="G19" s="179"/>
-      <c r="H19" s="179"/>
-      <c r="I19" s="179"/>
-      <c r="J19" s="179"/>
-      <c r="K19" s="179"/>
-      <c r="L19" s="179"/>
-      <c r="M19" s="179"/>
+      <c r="B19" s="139"/>
+      <c r="C19" s="150"/>
+      <c r="D19" s="150"/>
+      <c r="E19" s="150"/>
+      <c r="F19" s="150"/>
+      <c r="G19" s="150"/>
+      <c r="H19" s="150"/>
+      <c r="I19" s="150"/>
+      <c r="J19" s="150"/>
+      <c r="K19" s="150"/>
+      <c r="L19" s="150"/>
+      <c r="M19" s="150"/>
       <c r="N19" s="35"/>
       <c r="O19" s="36"/>
       <c r="P19" s="36"/>
@@ -10083,22 +9091,22 @@
       <c r="AZ19" s="38"/>
     </row>
     <row r="20" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="167" t="str">
+      <c r="A20" s="138" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="B20" s="168"/>
-      <c r="C20" s="179"/>
-      <c r="D20" s="179"/>
-      <c r="E20" s="179"/>
-      <c r="F20" s="179"/>
-      <c r="G20" s="179"/>
-      <c r="H20" s="179"/>
-      <c r="I20" s="179"/>
-      <c r="J20" s="179"/>
-      <c r="K20" s="179"/>
-      <c r="L20" s="179"/>
-      <c r="M20" s="179"/>
+      <c r="B20" s="139"/>
+      <c r="C20" s="150"/>
+      <c r="D20" s="150"/>
+      <c r="E20" s="150"/>
+      <c r="F20" s="150"/>
+      <c r="G20" s="150"/>
+      <c r="H20" s="150"/>
+      <c r="I20" s="150"/>
+      <c r="J20" s="150"/>
+      <c r="K20" s="150"/>
+      <c r="L20" s="150"/>
+      <c r="M20" s="150"/>
       <c r="N20" s="35"/>
       <c r="O20" s="36"/>
       <c r="P20" s="36"/>
@@ -10140,22 +9148,22 @@
       <c r="AZ20" s="38"/>
     </row>
     <row r="21" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="167" t="str">
+      <c r="A21" s="138" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="B21" s="168"/>
-      <c r="C21" s="179"/>
-      <c r="D21" s="179"/>
-      <c r="E21" s="179"/>
-      <c r="F21" s="179"/>
-      <c r="G21" s="179"/>
-      <c r="H21" s="179"/>
-      <c r="I21" s="179"/>
-      <c r="J21" s="179"/>
-      <c r="K21" s="179"/>
-      <c r="L21" s="179"/>
-      <c r="M21" s="179"/>
+      <c r="B21" s="139"/>
+      <c r="C21" s="150"/>
+      <c r="D21" s="150"/>
+      <c r="E21" s="150"/>
+      <c r="F21" s="150"/>
+      <c r="G21" s="150"/>
+      <c r="H21" s="150"/>
+      <c r="I21" s="150"/>
+      <c r="J21" s="150"/>
+      <c r="K21" s="150"/>
+      <c r="L21" s="150"/>
+      <c r="M21" s="150"/>
       <c r="N21" s="35"/>
       <c r="O21" s="36"/>
       <c r="P21" s="36"/>
@@ -10197,22 +9205,22 @@
       <c r="AZ21" s="38"/>
     </row>
     <row r="22" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="167" t="str">
+      <c r="A22" s="138" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="B22" s="168"/>
-      <c r="C22" s="179"/>
-      <c r="D22" s="179"/>
-      <c r="E22" s="179"/>
-      <c r="F22" s="179"/>
-      <c r="G22" s="179"/>
-      <c r="H22" s="179"/>
-      <c r="I22" s="179"/>
-      <c r="J22" s="179"/>
-      <c r="K22" s="179"/>
-      <c r="L22" s="179"/>
-      <c r="M22" s="179"/>
+      <c r="B22" s="139"/>
+      <c r="C22" s="150"/>
+      <c r="D22" s="150"/>
+      <c r="E22" s="150"/>
+      <c r="F22" s="150"/>
+      <c r="G22" s="150"/>
+      <c r="H22" s="150"/>
+      <c r="I22" s="150"/>
+      <c r="J22" s="150"/>
+      <c r="K22" s="150"/>
+      <c r="L22" s="150"/>
+      <c r="M22" s="150"/>
       <c r="N22" s="35"/>
       <c r="O22" s="36"/>
       <c r="P22" s="36"/>
@@ -10254,22 +9262,22 @@
       <c r="AZ22" s="38"/>
     </row>
     <row r="23" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="167" t="str">
+      <c r="A23" s="138" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="B23" s="168"/>
-      <c r="C23" s="179"/>
-      <c r="D23" s="179"/>
-      <c r="E23" s="179"/>
-      <c r="F23" s="179"/>
-      <c r="G23" s="179"/>
-      <c r="H23" s="179"/>
-      <c r="I23" s="179"/>
-      <c r="J23" s="179"/>
-      <c r="K23" s="179"/>
-      <c r="L23" s="179"/>
-      <c r="M23" s="179"/>
+      <c r="B23" s="139"/>
+      <c r="C23" s="150"/>
+      <c r="D23" s="150"/>
+      <c r="E23" s="150"/>
+      <c r="F23" s="150"/>
+      <c r="G23" s="150"/>
+      <c r="H23" s="150"/>
+      <c r="I23" s="150"/>
+      <c r="J23" s="150"/>
+      <c r="K23" s="150"/>
+      <c r="L23" s="150"/>
+      <c r="M23" s="150"/>
       <c r="N23" s="35"/>
       <c r="O23" s="36"/>
       <c r="P23" s="36"/>
@@ -10311,22 +9319,22 @@
       <c r="AZ23" s="38"/>
     </row>
     <row r="24" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="167" t="str">
+      <c r="A24" s="138" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="B24" s="168"/>
-      <c r="C24" s="179"/>
-      <c r="D24" s="179"/>
-      <c r="E24" s="179"/>
-      <c r="F24" s="179"/>
-      <c r="G24" s="179"/>
-      <c r="H24" s="179"/>
-      <c r="I24" s="179"/>
-      <c r="J24" s="179"/>
-      <c r="K24" s="179"/>
-      <c r="L24" s="179"/>
-      <c r="M24" s="179"/>
+      <c r="B24" s="139"/>
+      <c r="C24" s="150"/>
+      <c r="D24" s="150"/>
+      <c r="E24" s="150"/>
+      <c r="F24" s="150"/>
+      <c r="G24" s="150"/>
+      <c r="H24" s="150"/>
+      <c r="I24" s="150"/>
+      <c r="J24" s="150"/>
+      <c r="K24" s="150"/>
+      <c r="L24" s="150"/>
+      <c r="M24" s="150"/>
       <c r="N24" s="35"/>
       <c r="O24" s="36"/>
       <c r="P24" s="36"/>
@@ -10368,22 +9376,22 @@
       <c r="AZ24" s="38"/>
     </row>
     <row r="25" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="167" t="str">
+      <c r="A25" s="138" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="B25" s="168"/>
-      <c r="C25" s="179"/>
-      <c r="D25" s="179"/>
-      <c r="E25" s="179"/>
-      <c r="F25" s="179"/>
-      <c r="G25" s="179"/>
-      <c r="H25" s="179"/>
-      <c r="I25" s="179"/>
-      <c r="J25" s="179"/>
-      <c r="K25" s="179"/>
-      <c r="L25" s="179"/>
-      <c r="M25" s="179"/>
+      <c r="B25" s="139"/>
+      <c r="C25" s="150"/>
+      <c r="D25" s="150"/>
+      <c r="E25" s="150"/>
+      <c r="F25" s="150"/>
+      <c r="G25" s="150"/>
+      <c r="H25" s="150"/>
+      <c r="I25" s="150"/>
+      <c r="J25" s="150"/>
+      <c r="K25" s="150"/>
+      <c r="L25" s="150"/>
+      <c r="M25" s="150"/>
       <c r="N25" s="35"/>
       <c r="O25" s="36"/>
       <c r="P25" s="36"/>
@@ -10425,22 +9433,22 @@
       <c r="AZ25" s="38"/>
     </row>
     <row r="26" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="167" t="str">
+      <c r="A26" s="138" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="B26" s="168"/>
-      <c r="C26" s="179"/>
-      <c r="D26" s="179"/>
-      <c r="E26" s="179"/>
-      <c r="F26" s="179"/>
-      <c r="G26" s="179"/>
-      <c r="H26" s="179"/>
-      <c r="I26" s="179"/>
-      <c r="J26" s="179"/>
-      <c r="K26" s="179"/>
-      <c r="L26" s="179"/>
-      <c r="M26" s="179"/>
+      <c r="B26" s="139"/>
+      <c r="C26" s="150"/>
+      <c r="D26" s="150"/>
+      <c r="E26" s="150"/>
+      <c r="F26" s="150"/>
+      <c r="G26" s="150"/>
+      <c r="H26" s="150"/>
+      <c r="I26" s="150"/>
+      <c r="J26" s="150"/>
+      <c r="K26" s="150"/>
+      <c r="L26" s="150"/>
+      <c r="M26" s="150"/>
       <c r="N26" s="35"/>
       <c r="O26" s="36"/>
       <c r="P26" s="36"/>
@@ -10482,22 +9490,22 @@
       <c r="AZ26" s="38"/>
     </row>
     <row r="27" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="167" t="str">
+      <c r="A27" s="138" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="B27" s="168"/>
-      <c r="C27" s="179"/>
-      <c r="D27" s="179"/>
-      <c r="E27" s="179"/>
-      <c r="F27" s="179"/>
-      <c r="G27" s="179"/>
-      <c r="H27" s="179"/>
-      <c r="I27" s="179"/>
-      <c r="J27" s="179"/>
-      <c r="K27" s="179"/>
-      <c r="L27" s="179"/>
-      <c r="M27" s="179"/>
+      <c r="B27" s="139"/>
+      <c r="C27" s="150"/>
+      <c r="D27" s="150"/>
+      <c r="E27" s="150"/>
+      <c r="F27" s="150"/>
+      <c r="G27" s="150"/>
+      <c r="H27" s="150"/>
+      <c r="I27" s="150"/>
+      <c r="J27" s="150"/>
+      <c r="K27" s="150"/>
+      <c r="L27" s="150"/>
+      <c r="M27" s="150"/>
       <c r="N27" s="35"/>
       <c r="O27" s="36"/>
       <c r="P27" s="36"/>
@@ -10539,22 +9547,22 @@
       <c r="AZ27" s="38"/>
     </row>
     <row r="28" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="167" t="str">
+      <c r="A28" s="138" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="B28" s="168"/>
-      <c r="C28" s="179"/>
-      <c r="D28" s="179"/>
-      <c r="E28" s="179"/>
-      <c r="F28" s="179"/>
-      <c r="G28" s="179"/>
-      <c r="H28" s="179"/>
-      <c r="I28" s="179"/>
-      <c r="J28" s="179"/>
-      <c r="K28" s="179"/>
-      <c r="L28" s="179"/>
-      <c r="M28" s="179"/>
+      <c r="B28" s="139"/>
+      <c r="C28" s="150"/>
+      <c r="D28" s="150"/>
+      <c r="E28" s="150"/>
+      <c r="F28" s="150"/>
+      <c r="G28" s="150"/>
+      <c r="H28" s="150"/>
+      <c r="I28" s="150"/>
+      <c r="J28" s="150"/>
+      <c r="K28" s="150"/>
+      <c r="L28" s="150"/>
+      <c r="M28" s="150"/>
       <c r="N28" s="35"/>
       <c r="O28" s="36"/>
       <c r="P28" s="36"/>
@@ -10596,22 +9604,22 @@
       <c r="AZ28" s="38"/>
     </row>
     <row r="29" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="167" t="str">
+      <c r="A29" s="138" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="B29" s="168"/>
-      <c r="C29" s="179"/>
-      <c r="D29" s="179"/>
-      <c r="E29" s="179"/>
-      <c r="F29" s="179"/>
-      <c r="G29" s="179"/>
-      <c r="H29" s="179"/>
-      <c r="I29" s="179"/>
-      <c r="J29" s="179"/>
-      <c r="K29" s="179"/>
-      <c r="L29" s="179"/>
-      <c r="M29" s="179"/>
+      <c r="B29" s="139"/>
+      <c r="C29" s="150"/>
+      <c r="D29" s="150"/>
+      <c r="E29" s="150"/>
+      <c r="F29" s="150"/>
+      <c r="G29" s="150"/>
+      <c r="H29" s="150"/>
+      <c r="I29" s="150"/>
+      <c r="J29" s="150"/>
+      <c r="K29" s="150"/>
+      <c r="L29" s="150"/>
+      <c r="M29" s="150"/>
       <c r="N29" s="35"/>
       <c r="O29" s="36"/>
       <c r="P29" s="36"/>
@@ -10653,22 +9661,22 @@
       <c r="AZ29" s="38"/>
     </row>
     <row r="30" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="167" t="str">
+      <c r="A30" s="138" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="B30" s="168"/>
-      <c r="C30" s="179"/>
-      <c r="D30" s="179"/>
-      <c r="E30" s="179"/>
-      <c r="F30" s="179"/>
-      <c r="G30" s="179"/>
-      <c r="H30" s="179"/>
-      <c r="I30" s="179"/>
-      <c r="J30" s="179"/>
-      <c r="K30" s="179"/>
-      <c r="L30" s="179"/>
-      <c r="M30" s="179"/>
+      <c r="B30" s="139"/>
+      <c r="C30" s="150"/>
+      <c r="D30" s="150"/>
+      <c r="E30" s="150"/>
+      <c r="F30" s="150"/>
+      <c r="G30" s="150"/>
+      <c r="H30" s="150"/>
+      <c r="I30" s="150"/>
+      <c r="J30" s="150"/>
+      <c r="K30" s="150"/>
+      <c r="L30" s="150"/>
+      <c r="M30" s="150"/>
       <c r="N30" s="35"/>
       <c r="O30" s="36"/>
       <c r="P30" s="36"/>
@@ -10710,22 +9718,22 @@
       <c r="AZ30" s="38"/>
     </row>
     <row r="31" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="167" t="str">
+      <c r="A31" s="138" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="B31" s="168"/>
-      <c r="C31" s="179"/>
-      <c r="D31" s="179"/>
-      <c r="E31" s="179"/>
-      <c r="F31" s="179"/>
-      <c r="G31" s="179"/>
-      <c r="H31" s="179"/>
-      <c r="I31" s="179"/>
-      <c r="J31" s="179"/>
-      <c r="K31" s="179"/>
-      <c r="L31" s="179"/>
-      <c r="M31" s="179"/>
+      <c r="B31" s="139"/>
+      <c r="C31" s="150"/>
+      <c r="D31" s="150"/>
+      <c r="E31" s="150"/>
+      <c r="F31" s="150"/>
+      <c r="G31" s="150"/>
+      <c r="H31" s="150"/>
+      <c r="I31" s="150"/>
+      <c r="J31" s="150"/>
+      <c r="K31" s="150"/>
+      <c r="L31" s="150"/>
+      <c r="M31" s="150"/>
       <c r="N31" s="35"/>
       <c r="O31" s="36"/>
       <c r="P31" s="36"/>
@@ -10767,22 +9775,22 @@
       <c r="AZ31" s="38"/>
     </row>
     <row r="32" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="167" t="str">
+      <c r="A32" s="138" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="B32" s="168"/>
-      <c r="C32" s="179"/>
-      <c r="D32" s="179"/>
-      <c r="E32" s="179"/>
-      <c r="F32" s="179"/>
-      <c r="G32" s="179"/>
-      <c r="H32" s="179"/>
-      <c r="I32" s="179"/>
-      <c r="J32" s="179"/>
-      <c r="K32" s="179"/>
-      <c r="L32" s="179"/>
-      <c r="M32" s="179"/>
+      <c r="B32" s="139"/>
+      <c r="C32" s="150"/>
+      <c r="D32" s="150"/>
+      <c r="E32" s="150"/>
+      <c r="F32" s="150"/>
+      <c r="G32" s="150"/>
+      <c r="H32" s="150"/>
+      <c r="I32" s="150"/>
+      <c r="J32" s="150"/>
+      <c r="K32" s="150"/>
+      <c r="L32" s="150"/>
+      <c r="M32" s="150"/>
       <c r="N32" s="35"/>
       <c r="O32" s="36"/>
       <c r="P32" s="36"/>
@@ -10824,22 +9832,22 @@
       <c r="AZ32" s="38"/>
     </row>
     <row r="33" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="167" t="str">
+      <c r="A33" s="138" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="B33" s="168"/>
-      <c r="C33" s="179"/>
-      <c r="D33" s="179"/>
-      <c r="E33" s="179"/>
-      <c r="F33" s="179"/>
-      <c r="G33" s="179"/>
-      <c r="H33" s="179"/>
-      <c r="I33" s="179"/>
-      <c r="J33" s="179"/>
-      <c r="K33" s="179"/>
-      <c r="L33" s="179"/>
-      <c r="M33" s="179"/>
+      <c r="B33" s="139"/>
+      <c r="C33" s="150"/>
+      <c r="D33" s="150"/>
+      <c r="E33" s="150"/>
+      <c r="F33" s="150"/>
+      <c r="G33" s="150"/>
+      <c r="H33" s="150"/>
+      <c r="I33" s="150"/>
+      <c r="J33" s="150"/>
+      <c r="K33" s="150"/>
+      <c r="L33" s="150"/>
+      <c r="M33" s="150"/>
       <c r="N33" s="35"/>
       <c r="O33" s="36"/>
       <c r="P33" s="36"/>
@@ -10881,22 +9889,22 @@
       <c r="AZ33" s="38"/>
     </row>
     <row r="34" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="167" t="str">
+      <c r="A34" s="138" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="B34" s="168"/>
-      <c r="C34" s="179"/>
-      <c r="D34" s="179"/>
-      <c r="E34" s="179"/>
-      <c r="F34" s="179"/>
-      <c r="G34" s="179"/>
-      <c r="H34" s="179"/>
-      <c r="I34" s="179"/>
-      <c r="J34" s="179"/>
-      <c r="K34" s="179"/>
-      <c r="L34" s="179"/>
-      <c r="M34" s="179"/>
+      <c r="B34" s="139"/>
+      <c r="C34" s="150"/>
+      <c r="D34" s="150"/>
+      <c r="E34" s="150"/>
+      <c r="F34" s="150"/>
+      <c r="G34" s="150"/>
+      <c r="H34" s="150"/>
+      <c r="I34" s="150"/>
+      <c r="J34" s="150"/>
+      <c r="K34" s="150"/>
+      <c r="L34" s="150"/>
+      <c r="M34" s="150"/>
       <c r="N34" s="35"/>
       <c r="O34" s="36"/>
       <c r="P34" s="36"/>
@@ -10938,22 +9946,22 @@
       <c r="AZ34" s="38"/>
     </row>
     <row r="35" spans="1:52" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="165" t="str">
+      <c r="A35" s="136" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="B35" s="166"/>
-      <c r="C35" s="181"/>
-      <c r="D35" s="181"/>
-      <c r="E35" s="181"/>
-      <c r="F35" s="181"/>
-      <c r="G35" s="181"/>
-      <c r="H35" s="181"/>
-      <c r="I35" s="181"/>
-      <c r="J35" s="181"/>
-      <c r="K35" s="181"/>
-      <c r="L35" s="181"/>
-      <c r="M35" s="181"/>
+      <c r="B35" s="137"/>
+      <c r="C35" s="152"/>
+      <c r="D35" s="152"/>
+      <c r="E35" s="152"/>
+      <c r="F35" s="152"/>
+      <c r="G35" s="152"/>
+      <c r="H35" s="152"/>
+      <c r="I35" s="152"/>
+      <c r="J35" s="152"/>
+      <c r="K35" s="152"/>
+      <c r="L35" s="152"/>
+      <c r="M35" s="152"/>
       <c r="N35" s="39"/>
       <c r="O35" s="40"/>
       <c r="P35" s="40"/>
